--- a/round bald datas/round bald data.xlsx
+++ b/round bald datas/round bald data.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhi\OneDrive\Desktop\thesis\round bald datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhi\OneDrive\Desktop\WCU\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06520456-20C4-45B0-BFBA-04B4D68C04C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8DBD48-187C-4476-A860-A247AEC2E4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{C93C8A9F-749A-4500-9DE3-023D8B4996BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{C93C8A9F-749A-4500-9DE3-023D8B4996BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
     <sheet name="Ground Cover" sheetId="2" r:id="rId2"/>
-    <sheet name="Soil Samples - 2022" sheetId="5" r:id="rId3"/>
-    <sheet name="Soil Samples - 2023" sheetId="7" r:id="rId4"/>
-    <sheet name="Randomizer" sheetId="3" r:id="rId5"/>
-    <sheet name="Budget" sheetId="6" r:id="rId6"/>
+    <sheet name="Soil Samples" sheetId="5" r:id="rId3"/>
+    <sheet name="Randomizer" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="102">
   <si>
     <t>Transect</t>
   </si>
@@ -369,27 +368,6 @@
   <si>
     <t>Lodging (i.e. Campsite)</t>
   </si>
-  <si>
-    <t>ce</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>cb</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>cf</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
 </sst>
 </file>
 
@@ -460,7 +438,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,12 +498,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -773,7 +745,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -787,9 +759,8 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -807,6 +778,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3"/>
@@ -859,40 +833,8 @@
     </xf>
     <xf numFmtId="44" fontId="5" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="13" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="12" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="12" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="40% - Accent1" xfId="13" builtinId="31"/>
+  <cellStyles count="13">
     <cellStyle name="40% - Accent4" xfId="8" builtinId="43"/>
     <cellStyle name="40% - Accent6" xfId="12" builtinId="51"/>
     <cellStyle name="60% - Accent1" xfId="6" builtinId="32"/>
@@ -13689,8 +13631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9A071C-04E0-4A5F-9A01-D9B6EDBBEDD3}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E22" sqref="A22:E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13717,1419 +13659,696 @@
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="53">
-        <v>21</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="54">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D2" s="55">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="53">
-        <v>1</v>
-      </c>
-      <c r="F2" s="52"/>
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
-        <v>13</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="53">
-        <v>2.7</v>
-      </c>
-      <c r="D3" s="55">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="D3" s="8">
         <v>0.5</v>
       </c>
-      <c r="E3" s="53">
-        <v>2</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
-        <v>15</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="53">
-        <v>4.8</v>
-      </c>
-      <c r="D4" s="55">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="D4" s="8">
         <v>0.5</v>
       </c>
-      <c r="E4" s="53">
-        <v>3</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
-        <v>29</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
-        <v>7</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="53">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="D6" s="55">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="53">
-        <v>5</v>
-      </c>
+      <c r="C6" s="4">
+        <v>4.24</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="53">
-        <v>9</v>
-      </c>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="53">
-        <v>2.16</v>
-      </c>
-      <c r="D7" s="55">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="53">
-        <v>6</v>
-      </c>
+      <c r="C7" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
-        <v>20</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="53">
-        <v>1.7</v>
-      </c>
-      <c r="D8" s="55">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D8" s="8">
         <v>0.25</v>
       </c>
-      <c r="E8" s="53">
-        <v>7</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="53">
-        <v>22</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="53">
-        <v>3.4</v>
-      </c>
-      <c r="D9" s="55">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D9" s="8">
         <v>0.25</v>
       </c>
-      <c r="E9" s="53">
-        <v>8</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="53">
-        <v>19</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="53">
-        <v>1.6</v>
-      </c>
-      <c r="D10" s="55">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="D10" s="8">
         <v>0.25</v>
       </c>
-      <c r="E10" s="53">
-        <v>9</v>
-      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="53">
-        <v>14</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="53">
-        <v>2.8</v>
-      </c>
-      <c r="D11" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="53">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
-        <v>8</v>
-      </c>
-      <c r="B12" s="56" t="s">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="56">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D12" s="57">
+      <c r="C12" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="D12" s="8">
         <v>0.25</v>
       </c>
-      <c r="E12" s="56">
-        <v>11</v>
-      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
-        <v>1</v>
-      </c>
-      <c r="B13" s="56" t="s">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="56">
-        <v>1.21</v>
-      </c>
-      <c r="D13" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="56">
-        <v>12</v>
-      </c>
+      <c r="C13" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
-        <v>10</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="56">
-        <v>3.8</v>
-      </c>
-      <c r="D14" s="57">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="56">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
-        <v>18</v>
-      </c>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="56">
-        <v>4.17</v>
-      </c>
-      <c r="D15" s="57">
+      <c r="C15" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="D15" s="8">
         <v>0.5</v>
       </c>
-      <c r="E15" s="56">
-        <v>14</v>
-      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
-        <v>28</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
-        <v>6</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="58">
-        <v>4.3</v>
-      </c>
-      <c r="D17" s="57">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.13</v>
+      </c>
+      <c r="D17" s="8">
         <v>0.5</v>
       </c>
-      <c r="E17" s="56">
-        <v>16</v>
-      </c>
-      <c r="F17" s="52"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
-        <v>25</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
-        <v>3</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="56">
-        <v>2.14</v>
-      </c>
-      <c r="D19" s="57">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.17</v>
+      </c>
+      <c r="D19" s="8">
         <v>0.5</v>
       </c>
-      <c r="E19" s="56">
-        <v>18</v>
-      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
-        <v>11</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="58">
-        <v>3.1</v>
-      </c>
-      <c r="D20" s="57">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D20" s="8">
         <v>0.25</v>
       </c>
-      <c r="E20" s="56">
-        <v>19</v>
-      </c>
-      <c r="F20" s="52"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="6"/>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
-        <v>5</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="56">
-        <v>4.24</v>
-      </c>
-      <c r="D21" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="56">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
+      <c r="B21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="53">
-        <v>12</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="53">
-        <v>3.23</v>
-      </c>
-      <c r="D22" s="55">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D22" s="8">
         <v>0.25</v>
       </c>
-      <c r="E22" s="53">
-        <v>21</v>
-      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="53">
-        <v>16</v>
-      </c>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="53">
-        <v>4.13</v>
-      </c>
-      <c r="D23" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="53">
-        <v>22</v>
-      </c>
+      <c r="C23" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="53">
-        <v>2</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="53">
-        <v>1.22</v>
-      </c>
-      <c r="D24" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="53">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="53">
-        <v>27</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="53">
-        <v>24</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="53">
-        <v>4.18</v>
-      </c>
-      <c r="D26" s="55">
-        <v>0.25</v>
-      </c>
-      <c r="E26" s="53">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
+      <c r="B26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="53">
-        <v>17</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="53">
-        <v>4.16</v>
-      </c>
-      <c r="D27" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="53">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="F27" s="52"/>
+      <c r="B27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="53">
-        <v>4</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="54">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D28" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="53">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
+      <c r="B28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="53">
-        <v>30</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
+      <c r="B29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="53">
-        <v>26</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
+      <c r="B30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="53">
-        <v>23</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="53">
-        <v>3.7</v>
-      </c>
-      <c r="D31" s="55">
-        <v>0.25</v>
-      </c>
-      <c r="E31" s="53">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
+      <c r="B31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
-    <sortCondition ref="E12:E37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+    <sortCondition ref="A1:A31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06534F5D-B03F-4FB9-8A4C-43057CB6B9DD}">
-  <dimension ref="A1:E41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="50">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1.18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="5">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1.21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2.12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2.14</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2.15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2.16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2.19</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2.9</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5">
-        <v>3.12</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5">
-        <v>3.23</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E23" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5">
-        <v>3.24</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E24" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E25" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E26" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E27" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5">
-        <v>4.13</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5">
-        <v>4.16</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5">
-        <v>4.17</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E31" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5">
-        <v>4.18</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E32" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5">
-        <v>4.21</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E34" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5">
-        <v>4.29</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E35" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E36" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="5">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
-    <sortCondition ref="B1:B41"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5379496-B6C4-421B-9D7D-11C06426F583}">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15168,16 +14387,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="7">
-        <v>4.3</v>
+      <c r="C2" s="4">
+        <v>2.16</v>
       </c>
       <c r="D2" s="8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -15192,17 +14411,15 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.5</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4">
         <v>2</v>
       </c>
@@ -15216,16 +14433,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="4">
-        <v>1.21</v>
+        <v>3.8</v>
       </c>
       <c r="D4" s="8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
@@ -15240,13 +14457,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="4">
-        <v>4.18</v>
+        <v>1.6</v>
       </c>
       <c r="D5" s="8">
         <v>0.25</v>
@@ -15264,17 +14481,15 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.5</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4">
         <v>5</v>
       </c>
@@ -15288,16 +14503,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4">
-        <v>1.22</v>
+        <v>3.4</v>
       </c>
       <c r="D7" s="8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E7" s="4">
         <v>6</v>
@@ -15312,13 +14527,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4.13</v>
+        <v>47</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2.2000000000000002</v>
       </c>
       <c r="D8" s="8">
         <v>0.5</v>
@@ -15336,15 +14551,17 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.5</v>
+      </c>
       <c r="E9" s="4">
         <v>8</v>
       </c>
@@ -15358,17 +14575,15 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4.16</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.5</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4">
         <v>9</v>
       </c>
@@ -15382,13 +14597,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4.8</v>
+        <v>47</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4.3</v>
       </c>
       <c r="D11" s="8">
         <v>0.5</v>
@@ -15406,16 +14621,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="D12" s="8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="4">
         <v>11</v>
@@ -15430,16 +14645,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.1000000000000001</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.21</v>
       </c>
       <c r="D13" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="4">
         <v>12</v>
@@ -15454,16 +14669,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="4">
-        <v>3.8</v>
+        <v>4.24</v>
       </c>
       <c r="D14" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -15478,15 +14693,17 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.25</v>
+      </c>
       <c r="E15" s="4">
         <v>14</v>
       </c>
@@ -15500,16 +14717,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="4">
-        <v>2.16</v>
+        <v>4.8</v>
       </c>
       <c r="D16" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -15524,16 +14741,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="4">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="D17" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
@@ -15548,16 +14765,16 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="4">
-        <v>3.7</v>
+        <v>1.22</v>
       </c>
       <c r="D18" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="4">
         <v>17</v>
@@ -15572,17 +14789,15 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.25</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="4">
         <v>18</v>
       </c>
@@ -15596,15 +14811,17 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.25</v>
+      </c>
       <c r="E20" s="4">
         <v>19</v>
       </c>
@@ -15618,16 +14835,16 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="4">
-        <v>4.24</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D21" s="8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E21" s="4">
         <v>20</v>
@@ -15642,16 +14859,16 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="4">
-        <v>3.4</v>
+        <v>2.14</v>
       </c>
       <c r="D22" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="4">
         <v>21</v>
@@ -15666,13 +14883,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="4">
-        <v>1.1599999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="D23" s="8">
         <v>0.25</v>
@@ -15690,13 +14907,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="7">
-        <v>3.1</v>
+      <c r="C24" s="4">
+        <v>3.23</v>
       </c>
       <c r="D24" s="8">
         <v>0.25</v>
@@ -15714,17 +14931,15 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0.25</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="4">
         <v>24</v>
       </c>
@@ -15738,13 +14953,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2.2000000000000002</v>
+        <v>48</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4.17</v>
       </c>
       <c r="D26" s="8">
         <v>0.5</v>
@@ -15762,16 +14977,16 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="4">
-        <v>3.23</v>
+        <v>4.13</v>
       </c>
       <c r="D27" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E27" s="4">
         <v>26</v>
@@ -15786,15 +15001,17 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.25</v>
+      </c>
       <c r="E28" s="4">
         <v>27</v>
       </c>
@@ -15808,13 +15025,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="4">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="D29" s="8">
         <v>0.5</v>
@@ -15832,13 +15049,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4">
@@ -15854,15 +15071,17 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.25</v>
+      </c>
       <c r="E31" s="4">
         <v>30</v>
       </c>
@@ -15882,11 +15101,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189E8B87-5352-4744-80B4-5F5CE2682B04}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -15900,639 +15119,639 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="48">
         <f>ROUNDUP(B21,0)</f>
         <v>1012</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="47" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="48">
         <f>ROUNDUP(B39,0)</f>
         <v>905</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="47">
+      <c r="C3" s="32"/>
+      <c r="D3" s="48">
         <v>2000</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="47" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="15">
         <f>SUM(B7:B10)</f>
         <v>247.70000000000002</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <f>SUM(C7:C10)</f>
         <v>197.9015</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <f>SUM(D7:D10)</f>
         <v>140.94199500000002</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="32" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="18">
         <f>(22+3.25)*3</f>
         <v>75.75</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="19">
         <f>B7</f>
         <v>75.75</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="20">
         <f>C7</f>
         <v>75.75</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="15">
         <f>9.82+41.88+-19.24+4.26+59.83</f>
         <v>96.550000000000011</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="16">
         <f>B8*0.33</f>
         <v>31.861500000000007</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <f>C8*0.33</f>
         <v>10.514295000000002</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="18">
         <f>41.04+34.36</f>
         <v>75.400000000000006</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="19">
         <f>48.92+41.37</f>
         <v>90.289999999999992</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="20">
         <f>(C9+B9)*0.33</f>
         <v>54.677700000000002</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="32" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="18">
         <f>SUM(B12:B14)</f>
         <v>275</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="19">
         <f>SUM(C12:C14)</f>
         <v>75</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="20">
         <f>SUM(D12:D14)</f>
         <v>75</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="32" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="15">
         <v>75</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <v>75</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="17">
         <v>75</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="32" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="18">
         <v>200</v>
       </c>
-      <c r="C13" s="18">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31" t="s">
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="31"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="15">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="23">
-        <v>0</v>
-      </c>
-      <c r="C15" s="24">
-        <v>0</v>
-      </c>
-      <c r="D15" s="25">
-        <v>0</v>
-      </c>
-      <c r="E15" s="31" t="s">
+      <c r="B15" s="24">
+        <v>0</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="26">
-        <v>0</v>
-      </c>
-      <c r="C16" s="27">
-        <v>0</v>
-      </c>
-      <c r="D16" s="28">
-        <v>0</v>
-      </c>
-      <c r="E16" s="31" t="s">
+      <c r="B16" s="27">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="24">
         <v>24</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="25">
         <v>24</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="26">
         <v>24</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="27">
         <f>B17-B16</f>
         <v>24</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="28">
         <f>C17-C16</f>
         <v>24</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="29">
         <f>D17-D16</f>
         <v>24</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="31"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="15">
         <f>SUM(B11+B6)</f>
         <v>522.70000000000005</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="16">
         <f>SUM(C11+C6)</f>
         <v>272.9015</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="17">
         <f>SUM(D11+D6)</f>
         <v>215.94199500000002</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="32" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="30">
         <f>SUM(B20:D20)</f>
         <v>1011.543495</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="31" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="15">
         <f>SUM(B25:B28)</f>
         <v>280</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="16">
         <f>SUM(C25:C28)</f>
         <v>203.29</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="17">
         <f>SUM(D25:D28)</f>
         <v>153.6857</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="32" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="18">
         <v>80</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="19">
         <f>B25</f>
         <v>80</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="20">
         <f>C25</f>
         <v>80</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="15">
         <v>100</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="16">
         <f>B26*0.33</f>
         <v>33</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="17">
         <f>C26*0.33</f>
         <v>10.89</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="18">
         <v>100</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="19">
         <f>48.92+41.37</f>
         <v>90.289999999999992</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="20">
         <f>(C27+B27)*0.33</f>
         <v>62.795700000000004</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="32" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="32" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="18">
         <f>SUM(B30:B32)</f>
         <v>125</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="19">
         <f>SUM(C30:C32)</f>
         <v>83.25</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="20">
         <f>SUM(D30:D32)</f>
         <v>58.972499999999997</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="32" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="15">
         <v>100</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="16">
         <f>B30*0.75</f>
         <v>75</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="17">
         <f>C30*0.75</f>
         <v>56.25</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="32" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="18">
         <v>25</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="19">
         <f>B31*0.33</f>
         <v>8.25</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="20">
         <f>C31*0.33</f>
         <v>2.7225000000000001</v>
       </c>
-      <c r="E31" s="31"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="14">
-        <v>0</v>
-      </c>
-      <c r="C32" s="15">
-        <v>0</v>
-      </c>
-      <c r="D32" s="16">
-        <v>0</v>
-      </c>
-      <c r="E32" s="31"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="15">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0</v>
+      </c>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="24">
         <v>24</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="25">
         <v>24</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="26">
         <v>24</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="32" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="36">
         <f>B33*15</f>
         <v>360</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="46">
         <f>C33*15</f>
         <v>360</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="46">
         <f>D33*15</f>
         <v>360</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="32" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="24">
         <v>24</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="25">
         <v>24</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="26">
         <v>24</v>
       </c>
-      <c r="E35" s="31"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="27">
         <f>B35-B33</f>
         <v>0</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="28">
         <f>C35-C33</f>
         <v>0</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="29">
         <f>D35-D33</f>
         <v>0</v>
       </c>
-      <c r="E36" s="31"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="31"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="15">
         <f>SUM(B29+B24)</f>
         <v>405</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="16">
         <f>SUM(C29+C24)</f>
         <v>286.53999999999996</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="17">
         <f>SUM(D29+D24)</f>
         <v>212.65819999999999</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="32" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="30">
         <f>SUM(B38:D38)</f>
         <v>904.19819999999993</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="31" t="s">
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="32" t="s">
         <v>93</v>
       </c>
     </row>

--- a/round bald datas/round bald data.xlsx
+++ b/round bald datas/round bald data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhi\OneDrive\Desktop\boopz\thesis\round bald datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C49806D-EEC5-498B-BAD1-19B4C5C02319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEF44A0-A0AA-4899-AD14-6E0CB274929C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C93C8A9F-749A-4500-9DE3-023D8B4996BB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C93C8A9F-749A-4500-9DE3-023D8B4996BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
     <sheet name="Ground Cover" sheetId="2" r:id="rId2"/>
-    <sheet name="Soil Samples" sheetId="5" r:id="rId3"/>
-    <sheet name="Randomizer" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Soil Sample 2022" sheetId="5" r:id="rId3"/>
+    <sheet name="Soil Samples 2023" sheetId="7" r:id="rId4"/>
+    <sheet name="Randomizer" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="128">
   <si>
     <t>Transect</t>
   </si>
@@ -368,6 +369,84 @@
   <si>
     <t>Grass</t>
   </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>4.21</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>4.29</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>4.27</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
 </sst>
 </file>
 
@@ -378,7 +457,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,8 +516,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +585,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -745,7 +836,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -759,8 +850,9 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -829,17 +921,42 @@
     </xf>
     <xf numFmtId="44" fontId="5" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="40% - Accent4" xfId="8" builtinId="43"/>
     <cellStyle name="40% - Accent6" xfId="12" builtinId="51"/>
     <cellStyle name="60% - Accent1" xfId="6" builtinId="32"/>
@@ -851,6 +968,7 @@
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
+    <cellStyle name="Good" xfId="13" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1166,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6DF77C-F4C9-40DD-B173-895D836B5FA9}">
   <dimension ref="A1:AG103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8588,8 +8706,8 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="A1:Q100"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8598,7 +8716,7 @@
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -8612,5114 +8730,5114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="50">
+      <c r="A2" s="49">
         <v>44723</v>
       </c>
-      <c r="B2" s="49">
-        <v>1</v>
-      </c>
-      <c r="C2" s="49">
-        <v>1</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="49">
-        <v>0</v>
-      </c>
-      <c r="F2" s="49">
-        <v>0</v>
-      </c>
-      <c r="G2" s="49">
-        <v>0</v>
-      </c>
-      <c r="H2" s="49">
-        <v>0</v>
-      </c>
-      <c r="I2" s="49">
-        <v>0</v>
-      </c>
-      <c r="J2" s="49">
+      <c r="B2" s="48">
+        <v>1</v>
+      </c>
+      <c r="C2" s="48">
+        <v>1</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="51">
+        <v>0</v>
+      </c>
+      <c r="F2" s="48">
+        <v>0</v>
+      </c>
+      <c r="G2" s="48">
+        <v>0</v>
+      </c>
+      <c r="H2" s="48">
+        <v>0</v>
+      </c>
+      <c r="I2" s="48">
+        <v>0</v>
+      </c>
+      <c r="J2" s="48">
         <v>2</v>
       </c>
-      <c r="K2" s="49">
+      <c r="K2" s="48">
         <v>68</v>
       </c>
-      <c r="L2" s="49">
-        <v>0</v>
-      </c>
-      <c r="M2" s="49">
+      <c r="L2" s="48">
+        <v>0</v>
+      </c>
+      <c r="M2" s="48">
         <v>21</v>
       </c>
-      <c r="N2" s="49">
-        <v>0</v>
-      </c>
-      <c r="O2" s="49">
+      <c r="N2" s="48">
+        <v>0</v>
+      </c>
+      <c r="O2" s="48">
         <v>9</v>
       </c>
-      <c r="P2" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="49"/>
+      <c r="P2" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="48"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+      <c r="A3" s="49">
         <v>44723</v>
       </c>
-      <c r="B3" s="49">
-        <v>1</v>
-      </c>
-      <c r="C3" s="49">
+      <c r="B3" s="48">
+        <v>1</v>
+      </c>
+      <c r="C3" s="48">
         <v>2</v>
       </c>
-      <c r="D3" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="49">
-        <v>0</v>
-      </c>
-      <c r="F3" s="49">
-        <v>0</v>
-      </c>
-      <c r="G3" s="49">
-        <v>0</v>
-      </c>
-      <c r="H3" s="49">
-        <v>0</v>
-      </c>
-      <c r="I3" s="49">
-        <v>0</v>
-      </c>
-      <c r="J3" s="49">
-        <v>0</v>
-      </c>
-      <c r="K3" s="49">
+      <c r="D3" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="51">
+        <v>0</v>
+      </c>
+      <c r="F3" s="48">
+        <v>0</v>
+      </c>
+      <c r="G3" s="48">
+        <v>0</v>
+      </c>
+      <c r="H3" s="48">
+        <v>0</v>
+      </c>
+      <c r="I3" s="48">
+        <v>0</v>
+      </c>
+      <c r="J3" s="48">
+        <v>0</v>
+      </c>
+      <c r="K3" s="48">
         <v>5</v>
       </c>
-      <c r="L3" s="49">
-        <v>0</v>
-      </c>
-      <c r="M3" s="49">
+      <c r="L3" s="48">
+        <v>0</v>
+      </c>
+      <c r="M3" s="48">
         <v>68</v>
       </c>
-      <c r="N3" s="49">
-        <v>0</v>
-      </c>
-      <c r="O3" s="49">
+      <c r="N3" s="48">
+        <v>0</v>
+      </c>
+      <c r="O3" s="48">
         <v>2</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="48">
         <v>25</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="48" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="50">
+      <c r="A4" s="49">
         <v>44723</v>
       </c>
-      <c r="B4" s="49">
-        <v>1</v>
-      </c>
-      <c r="C4" s="49">
+      <c r="B4" s="48">
+        <v>1</v>
+      </c>
+      <c r="C4" s="48">
         <v>3</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="49">
-        <v>0</v>
-      </c>
-      <c r="F4" s="49">
-        <v>0</v>
-      </c>
-      <c r="G4" s="49">
-        <v>0</v>
-      </c>
-      <c r="H4" s="49">
-        <v>0</v>
-      </c>
-      <c r="I4" s="49">
+      <c r="D4" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="51">
+        <v>0</v>
+      </c>
+      <c r="F4" s="48">
+        <v>0</v>
+      </c>
+      <c r="G4" s="48">
+        <v>0</v>
+      </c>
+      <c r="H4" s="48">
+        <v>0</v>
+      </c>
+      <c r="I4" s="48">
         <v>2</v>
       </c>
-      <c r="J4" s="49">
-        <v>0</v>
-      </c>
-      <c r="K4" s="49">
-        <v>1</v>
-      </c>
-      <c r="L4" s="49">
-        <v>0</v>
-      </c>
-      <c r="M4" s="49">
+      <c r="J4" s="48">
+        <v>0</v>
+      </c>
+      <c r="K4" s="48">
+        <v>1</v>
+      </c>
+      <c r="L4" s="48">
+        <v>0</v>
+      </c>
+      <c r="M4" s="48">
         <v>55</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="48">
         <v>2</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="48">
         <v>40</v>
       </c>
-      <c r="P4" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="49"/>
+      <c r="P4" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
+      <c r="A5" s="49">
         <v>44723</v>
       </c>
-      <c r="B5" s="49">
-        <v>1</v>
-      </c>
-      <c r="C5" s="49">
+      <c r="B5" s="48">
+        <v>1</v>
+      </c>
+      <c r="C5" s="48">
         <v>4</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="49">
-        <v>0</v>
-      </c>
-      <c r="F5" s="49">
-        <v>0</v>
-      </c>
-      <c r="G5" s="49">
-        <v>0</v>
-      </c>
-      <c r="H5" s="49">
-        <v>0</v>
-      </c>
-      <c r="I5" s="49">
-        <v>0</v>
-      </c>
-      <c r="J5" s="49">
-        <v>0</v>
-      </c>
-      <c r="K5" s="49">
-        <v>0</v>
-      </c>
-      <c r="L5" s="49">
-        <v>0</v>
-      </c>
-      <c r="M5" s="49">
+      <c r="D5" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="51">
+        <v>0</v>
+      </c>
+      <c r="F5" s="48">
+        <v>0</v>
+      </c>
+      <c r="G5" s="48">
+        <v>0</v>
+      </c>
+      <c r="H5" s="48">
+        <v>0</v>
+      </c>
+      <c r="I5" s="48">
+        <v>0</v>
+      </c>
+      <c r="J5" s="48">
+        <v>0</v>
+      </c>
+      <c r="K5" s="48">
+        <v>0</v>
+      </c>
+      <c r="L5" s="48">
+        <v>0</v>
+      </c>
+      <c r="M5" s="48">
         <v>72</v>
       </c>
-      <c r="N5" s="49">
-        <v>0</v>
-      </c>
-      <c r="O5" s="49">
+      <c r="N5" s="48">
+        <v>0</v>
+      </c>
+      <c r="O5" s="48">
         <v>28</v>
       </c>
-      <c r="P5" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="49"/>
+      <c r="P5" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="50">
+      <c r="A6" s="49">
         <v>44723</v>
       </c>
-      <c r="B6" s="49">
-        <v>1</v>
-      </c>
-      <c r="C6" s="49">
+      <c r="B6" s="48">
+        <v>1</v>
+      </c>
+      <c r="C6" s="48">
         <v>5</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="49">
-        <v>0</v>
-      </c>
-      <c r="F6" s="49">
-        <v>0</v>
-      </c>
-      <c r="G6" s="49">
+      <c r="D6" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="51">
+        <v>0</v>
+      </c>
+      <c r="F6" s="48">
+        <v>0</v>
+      </c>
+      <c r="G6" s="48">
         <v>11</v>
       </c>
-      <c r="H6" s="49">
-        <v>0</v>
-      </c>
-      <c r="I6" s="49">
-        <v>0</v>
-      </c>
-      <c r="J6" s="49">
-        <v>1</v>
-      </c>
-      <c r="K6" s="49">
+      <c r="H6" s="48">
+        <v>0</v>
+      </c>
+      <c r="I6" s="48">
+        <v>0</v>
+      </c>
+      <c r="J6" s="48">
+        <v>1</v>
+      </c>
+      <c r="K6" s="48">
         <v>10</v>
       </c>
-      <c r="L6" s="49">
-        <v>0</v>
-      </c>
-      <c r="M6" s="49">
+      <c r="L6" s="48">
+        <v>0</v>
+      </c>
+      <c r="M6" s="48">
         <v>2</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="48">
         <v>48</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="48">
         <v>28</v>
       </c>
-      <c r="P6" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="49"/>
+      <c r="P6" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
+      <c r="A7" s="49">
         <v>44723</v>
       </c>
-      <c r="B7" s="49">
-        <v>1</v>
-      </c>
-      <c r="C7" s="49">
+      <c r="B7" s="48">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48">
         <v>6</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="49">
-        <v>0</v>
-      </c>
-      <c r="F7" s="49">
-        <v>0</v>
-      </c>
-      <c r="G7" s="49">
+      <c r="D7" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="51">
+        <v>0</v>
+      </c>
+      <c r="F7" s="48">
+        <v>0</v>
+      </c>
+      <c r="G7" s="48">
         <v>48</v>
       </c>
-      <c r="H7" s="49">
-        <v>0</v>
-      </c>
-      <c r="I7" s="49">
+      <c r="H7" s="48">
+        <v>0</v>
+      </c>
+      <c r="I7" s="48">
         <v>4</v>
       </c>
-      <c r="J7" s="49">
-        <v>0</v>
-      </c>
-      <c r="K7" s="49">
-        <v>0</v>
-      </c>
-      <c r="L7" s="49">
-        <v>0</v>
-      </c>
-      <c r="M7" s="49">
+      <c r="J7" s="48">
+        <v>0</v>
+      </c>
+      <c r="K7" s="48">
+        <v>0</v>
+      </c>
+      <c r="L7" s="48">
+        <v>0</v>
+      </c>
+      <c r="M7" s="48">
         <v>39</v>
       </c>
-      <c r="N7" s="49">
-        <v>0</v>
-      </c>
-      <c r="O7" s="49">
+      <c r="N7" s="48">
+        <v>0</v>
+      </c>
+      <c r="O7" s="48">
         <v>8</v>
       </c>
-      <c r="P7" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="49" t="s">
+      <c r="P7" s="48">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="48" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="50">
+      <c r="A8" s="49">
         <v>44724</v>
       </c>
-      <c r="B8" s="49">
-        <v>1</v>
-      </c>
-      <c r="C8" s="49">
+      <c r="B8" s="48">
+        <v>1</v>
+      </c>
+      <c r="C8" s="48">
         <v>7</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="49">
-        <v>0</v>
-      </c>
-      <c r="F8" s="49">
-        <v>0</v>
-      </c>
-      <c r="G8" s="49">
+      <c r="D8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="51">
+        <v>0</v>
+      </c>
+      <c r="F8" s="48">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48">
         <v>82</v>
       </c>
-      <c r="H8" s="49">
-        <v>0</v>
-      </c>
-      <c r="I8" s="49">
-        <v>1</v>
-      </c>
-      <c r="J8" s="49">
-        <v>0</v>
-      </c>
-      <c r="K8" s="49">
-        <v>0</v>
-      </c>
-      <c r="L8" s="49">
-        <v>0</v>
-      </c>
-      <c r="M8" s="49">
+      <c r="H8" s="48">
+        <v>0</v>
+      </c>
+      <c r="I8" s="48">
+        <v>1</v>
+      </c>
+      <c r="J8" s="48">
+        <v>0</v>
+      </c>
+      <c r="K8" s="48">
+        <v>0</v>
+      </c>
+      <c r="L8" s="48">
+        <v>0</v>
+      </c>
+      <c r="M8" s="48">
         <v>6</v>
       </c>
-      <c r="N8" s="49">
-        <v>0</v>
-      </c>
-      <c r="O8" s="49">
+      <c r="N8" s="48">
+        <v>0</v>
+      </c>
+      <c r="O8" s="48">
         <v>11</v>
       </c>
-      <c r="P8" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="49"/>
+      <c r="P8" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="48"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="50">
+      <c r="A9" s="49">
         <v>44724</v>
       </c>
-      <c r="B9" s="49">
-        <v>1</v>
-      </c>
-      <c r="C9" s="49">
+      <c r="B9" s="48">
+        <v>1</v>
+      </c>
+      <c r="C9" s="48">
         <v>8</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="49">
-        <v>0</v>
-      </c>
-      <c r="F9" s="49">
-        <v>0</v>
-      </c>
-      <c r="G9" s="49">
-        <v>1</v>
-      </c>
-      <c r="H9" s="49">
-        <v>0</v>
-      </c>
-      <c r="I9" s="49">
+      <c r="D9" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="51">
+        <v>0</v>
+      </c>
+      <c r="F9" s="48">
+        <v>0</v>
+      </c>
+      <c r="G9" s="48">
+        <v>1</v>
+      </c>
+      <c r="H9" s="48">
+        <v>0</v>
+      </c>
+      <c r="I9" s="48">
         <v>3</v>
       </c>
-      <c r="J9" s="49">
-        <v>0</v>
-      </c>
-      <c r="K9" s="49">
-        <v>0</v>
-      </c>
-      <c r="L9" s="49">
-        <v>0</v>
-      </c>
-      <c r="M9" s="49">
-        <v>0</v>
-      </c>
-      <c r="N9" s="49">
+      <c r="J9" s="48">
+        <v>0</v>
+      </c>
+      <c r="K9" s="48">
+        <v>0</v>
+      </c>
+      <c r="L9" s="48">
+        <v>0</v>
+      </c>
+      <c r="M9" s="48">
+        <v>0</v>
+      </c>
+      <c r="N9" s="48">
         <v>71</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="48">
         <v>25</v>
       </c>
-      <c r="P9" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="49"/>
+      <c r="P9" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="48"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="50">
+      <c r="A10" s="49">
         <v>44724</v>
       </c>
-      <c r="B10" s="49">
-        <v>1</v>
-      </c>
-      <c r="C10" s="49">
+      <c r="B10" s="48">
+        <v>1</v>
+      </c>
+      <c r="C10" s="48">
         <v>9</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="49">
-        <v>0</v>
-      </c>
-      <c r="F10" s="49">
-        <v>0</v>
-      </c>
-      <c r="G10" s="49">
+      <c r="D10" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="51">
+        <v>0</v>
+      </c>
+      <c r="F10" s="48">
+        <v>0</v>
+      </c>
+      <c r="G10" s="48">
         <v>51</v>
       </c>
-      <c r="H10" s="49">
-        <v>0</v>
-      </c>
-      <c r="I10" s="49">
-        <v>1</v>
-      </c>
-      <c r="J10" s="49">
-        <v>0</v>
-      </c>
-      <c r="K10" s="49">
-        <v>0</v>
-      </c>
-      <c r="L10" s="49">
-        <v>0</v>
-      </c>
-      <c r="M10" s="49">
+      <c r="H10" s="48">
+        <v>0</v>
+      </c>
+      <c r="I10" s="48">
+        <v>1</v>
+      </c>
+      <c r="J10" s="48">
+        <v>0</v>
+      </c>
+      <c r="K10" s="48">
+        <v>0</v>
+      </c>
+      <c r="L10" s="48">
+        <v>0</v>
+      </c>
+      <c r="M10" s="48">
         <v>28</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="48">
         <v>18</v>
       </c>
-      <c r="O10" s="49">
+      <c r="O10" s="48">
         <v>2</v>
       </c>
-      <c r="P10" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="49"/>
+      <c r="P10" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="48"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
+      <c r="A11" s="49">
         <v>44724</v>
       </c>
-      <c r="B11" s="49">
-        <v>1</v>
-      </c>
-      <c r="C11" s="49">
+      <c r="B11" s="48">
+        <v>1</v>
+      </c>
+      <c r="C11" s="48">
         <v>10</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="49">
-        <v>0</v>
-      </c>
-      <c r="F11" s="49">
-        <v>0</v>
-      </c>
-      <c r="G11" s="49">
-        <v>0</v>
-      </c>
-      <c r="H11" s="49">
-        <v>0</v>
-      </c>
-      <c r="I11" s="49">
+      <c r="D11" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="51">
+        <v>0</v>
+      </c>
+      <c r="F11" s="48">
+        <v>0</v>
+      </c>
+      <c r="G11" s="48">
+        <v>0</v>
+      </c>
+      <c r="H11" s="48">
+        <v>0</v>
+      </c>
+      <c r="I11" s="48">
         <v>4</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="48">
         <v>49</v>
       </c>
-      <c r="K11" s="49">
-        <v>1</v>
-      </c>
-      <c r="L11" s="49">
-        <v>0</v>
-      </c>
-      <c r="M11" s="49">
+      <c r="K11" s="48">
+        <v>1</v>
+      </c>
+      <c r="L11" s="48">
+        <v>0</v>
+      </c>
+      <c r="M11" s="48">
         <v>45</v>
       </c>
-      <c r="N11" s="49">
-        <v>0</v>
-      </c>
-      <c r="O11" s="49">
-        <v>1</v>
-      </c>
-      <c r="P11" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="49"/>
+      <c r="N11" s="48">
+        <v>0</v>
+      </c>
+      <c r="O11" s="48">
+        <v>1</v>
+      </c>
+      <c r="P11" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="48"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="50">
+      <c r="A12" s="49">
         <v>44724</v>
       </c>
-      <c r="B12" s="49">
-        <v>1</v>
-      </c>
-      <c r="C12" s="49">
+      <c r="B12" s="48">
+        <v>1</v>
+      </c>
+      <c r="C12" s="48">
         <v>11</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="49">
-        <v>0</v>
-      </c>
-      <c r="F12" s="49">
-        <v>0</v>
-      </c>
-      <c r="G12" s="49">
-        <v>0</v>
-      </c>
-      <c r="H12" s="49">
-        <v>0</v>
-      </c>
-      <c r="I12" s="49">
+      <c r="D12" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="51">
+        <v>0</v>
+      </c>
+      <c r="F12" s="48">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
+        <v>0</v>
+      </c>
+      <c r="H12" s="48">
+        <v>0</v>
+      </c>
+      <c r="I12" s="48">
         <v>2</v>
       </c>
-      <c r="J12" s="49">
-        <v>0</v>
-      </c>
-      <c r="K12" s="49">
+      <c r="J12" s="48">
+        <v>0</v>
+      </c>
+      <c r="K12" s="48">
         <v>48</v>
       </c>
-      <c r="L12" s="49">
-        <v>0</v>
-      </c>
-      <c r="M12" s="49">
+      <c r="L12" s="48">
+        <v>0</v>
+      </c>
+      <c r="M12" s="48">
         <v>50</v>
       </c>
-      <c r="N12" s="49">
-        <v>0</v>
-      </c>
-      <c r="O12" s="49">
-        <v>0</v>
-      </c>
-      <c r="P12" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="49"/>
+      <c r="N12" s="48">
+        <v>0</v>
+      </c>
+      <c r="O12" s="48">
+        <v>0</v>
+      </c>
+      <c r="P12" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="50">
+      <c r="A13" s="49">
         <v>44724</v>
       </c>
-      <c r="B13" s="49">
-        <v>1</v>
-      </c>
-      <c r="C13" s="49">
+      <c r="B13" s="48">
+        <v>1</v>
+      </c>
+      <c r="C13" s="48">
         <v>12</v>
       </c>
-      <c r="D13" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="49">
+      <c r="D13" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="51">
         <v>6</v>
       </c>
-      <c r="F13" s="49">
-        <v>0</v>
-      </c>
-      <c r="G13" s="49">
-        <v>0</v>
-      </c>
-      <c r="H13" s="49">
-        <v>0</v>
-      </c>
-      <c r="I13" s="49">
-        <v>0</v>
-      </c>
-      <c r="J13" s="49">
-        <v>0</v>
-      </c>
-      <c r="K13" s="49">
+      <c r="F13" s="48">
+        <v>0</v>
+      </c>
+      <c r="G13" s="48">
+        <v>0</v>
+      </c>
+      <c r="H13" s="48">
+        <v>0</v>
+      </c>
+      <c r="I13" s="48">
+        <v>0</v>
+      </c>
+      <c r="J13" s="48">
+        <v>0</v>
+      </c>
+      <c r="K13" s="48">
         <v>80</v>
       </c>
-      <c r="L13" s="49">
-        <v>0</v>
-      </c>
-      <c r="M13" s="49">
-        <v>0</v>
-      </c>
-      <c r="N13" s="49">
-        <v>0</v>
-      </c>
-      <c r="O13" s="49">
+      <c r="L13" s="48">
+        <v>0</v>
+      </c>
+      <c r="M13" s="48">
+        <v>0</v>
+      </c>
+      <c r="N13" s="48">
+        <v>0</v>
+      </c>
+      <c r="O13" s="48">
         <v>14</v>
       </c>
-      <c r="P13" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="49"/>
+      <c r="P13" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="48"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="50">
+      <c r="A14" s="49">
         <v>44724</v>
       </c>
-      <c r="B14" s="49">
-        <v>1</v>
-      </c>
-      <c r="C14" s="49">
+      <c r="B14" s="48">
+        <v>1</v>
+      </c>
+      <c r="C14" s="48">
         <v>13</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="51">
         <v>10</v>
       </c>
-      <c r="F14" s="49">
-        <v>0</v>
-      </c>
-      <c r="G14" s="49">
-        <v>0</v>
-      </c>
-      <c r="H14" s="49">
-        <v>0</v>
-      </c>
-      <c r="I14" s="49">
-        <v>0</v>
-      </c>
-      <c r="J14" s="49">
-        <v>0</v>
-      </c>
-      <c r="K14" s="49">
+      <c r="F14" s="48">
+        <v>0</v>
+      </c>
+      <c r="G14" s="48">
+        <v>0</v>
+      </c>
+      <c r="H14" s="48">
+        <v>0</v>
+      </c>
+      <c r="I14" s="48">
+        <v>0</v>
+      </c>
+      <c r="J14" s="48">
+        <v>0</v>
+      </c>
+      <c r="K14" s="48">
         <v>51</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="48">
         <v>17</v>
       </c>
-      <c r="M14" s="49">
-        <v>0</v>
-      </c>
-      <c r="N14" s="49">
-        <v>0</v>
-      </c>
-      <c r="O14" s="49">
+      <c r="M14" s="48">
+        <v>0</v>
+      </c>
+      <c r="N14" s="48">
+        <v>0</v>
+      </c>
+      <c r="O14" s="48">
         <v>22</v>
       </c>
-      <c r="P14" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="49"/>
+      <c r="P14" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="48"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="50">
+      <c r="A15" s="49">
         <v>44724</v>
       </c>
-      <c r="B15" s="49">
-        <v>1</v>
-      </c>
-      <c r="C15" s="49">
+      <c r="B15" s="48">
+        <v>1</v>
+      </c>
+      <c r="C15" s="48">
         <v>14</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="51">
         <v>35</v>
       </c>
-      <c r="F15" s="49">
-        <v>0</v>
-      </c>
-      <c r="G15" s="49">
-        <v>0</v>
-      </c>
-      <c r="H15" s="49">
-        <v>0</v>
-      </c>
-      <c r="I15" s="49">
+      <c r="F15" s="48">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48">
+        <v>0</v>
+      </c>
+      <c r="H15" s="48">
+        <v>0</v>
+      </c>
+      <c r="I15" s="48">
         <v>7</v>
       </c>
-      <c r="J15" s="49">
-        <v>0</v>
-      </c>
-      <c r="K15" s="49">
+      <c r="J15" s="48">
+        <v>0</v>
+      </c>
+      <c r="K15" s="48">
         <v>14</v>
       </c>
-      <c r="L15" s="49">
+      <c r="L15" s="48">
         <v>38</v>
       </c>
-      <c r="M15" s="49">
-        <v>0</v>
-      </c>
-      <c r="N15" s="49">
-        <v>0</v>
-      </c>
-      <c r="O15" s="49">
+      <c r="M15" s="48">
+        <v>0</v>
+      </c>
+      <c r="N15" s="48">
+        <v>0</v>
+      </c>
+      <c r="O15" s="48">
         <v>6</v>
       </c>
-      <c r="P15" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="49"/>
+      <c r="P15" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="48"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="50">
+      <c r="A16" s="49">
         <v>44724</v>
       </c>
-      <c r="B16" s="49">
-        <v>1</v>
-      </c>
-      <c r="C16" s="49">
+      <c r="B16" s="48">
+        <v>1</v>
+      </c>
+      <c r="C16" s="48">
         <v>15</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="49">
-        <v>19</v>
-      </c>
-      <c r="F16" s="49">
-        <v>0</v>
-      </c>
-      <c r="G16" s="49">
-        <v>0</v>
-      </c>
-      <c r="H16" s="49">
+      <c r="E16" s="51">
+        <v>19</v>
+      </c>
+      <c r="F16" s="48">
+        <v>0</v>
+      </c>
+      <c r="G16" s="48">
+        <v>0</v>
+      </c>
+      <c r="H16" s="48">
         <v>5</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="48">
         <v>44</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16" s="48">
         <v>2</v>
       </c>
-      <c r="K16" s="49">
+      <c r="K16" s="48">
         <v>17</v>
       </c>
-      <c r="L16" s="49">
+      <c r="L16" s="48">
         <v>13</v>
       </c>
-      <c r="M16" s="49">
-        <v>0</v>
-      </c>
-      <c r="N16" s="49">
-        <v>0</v>
-      </c>
-      <c r="O16" s="49">
-        <v>0</v>
-      </c>
-      <c r="P16" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="49"/>
+      <c r="M16" s="48">
+        <v>0</v>
+      </c>
+      <c r="N16" s="48">
+        <v>0</v>
+      </c>
+      <c r="O16" s="48">
+        <v>0</v>
+      </c>
+      <c r="P16" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="48"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
+      <c r="A17" s="49">
         <v>44724</v>
       </c>
-      <c r="B17" s="49">
-        <v>1</v>
-      </c>
-      <c r="C17" s="49">
+      <c r="B17" s="48">
+        <v>1</v>
+      </c>
+      <c r="C17" s="48">
         <v>16</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="51">
         <v>3</v>
       </c>
-      <c r="F17" s="49">
-        <v>0</v>
-      </c>
-      <c r="G17" s="49">
-        <v>0</v>
-      </c>
-      <c r="H17" s="49">
+      <c r="F17" s="48">
+        <v>0</v>
+      </c>
+      <c r="G17" s="48">
+        <v>0</v>
+      </c>
+      <c r="H17" s="48">
         <v>6</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="48">
         <v>85</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="48">
         <v>4</v>
       </c>
-      <c r="K17" s="49">
-        <v>0</v>
-      </c>
-      <c r="L17" s="49">
+      <c r="K17" s="48">
+        <v>0</v>
+      </c>
+      <c r="L17" s="48">
         <v>2</v>
       </c>
-      <c r="M17" s="49">
-        <v>0</v>
-      </c>
-      <c r="N17" s="49">
-        <v>0</v>
-      </c>
-      <c r="O17" s="49">
-        <v>0</v>
-      </c>
-      <c r="P17" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="49"/>
+      <c r="M17" s="48">
+        <v>0</v>
+      </c>
+      <c r="N17" s="48">
+        <v>0</v>
+      </c>
+      <c r="O17" s="48">
+        <v>0</v>
+      </c>
+      <c r="P17" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="48"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
+      <c r="A18" s="49">
         <v>44724</v>
       </c>
-      <c r="B18" s="49">
-        <v>1</v>
-      </c>
-      <c r="C18" s="49">
+      <c r="B18" s="48">
+        <v>1</v>
+      </c>
+      <c r="C18" s="48">
         <v>17</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="51">
         <v>28</v>
       </c>
-      <c r="F18" s="49">
-        <v>0</v>
-      </c>
-      <c r="G18" s="49">
-        <v>0</v>
-      </c>
-      <c r="H18" s="49">
-        <v>0</v>
-      </c>
-      <c r="I18" s="49">
+      <c r="F18" s="48">
+        <v>0</v>
+      </c>
+      <c r="G18" s="48">
+        <v>0</v>
+      </c>
+      <c r="H18" s="48">
+        <v>0</v>
+      </c>
+      <c r="I18" s="48">
         <v>47</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="48">
         <v>4</v>
       </c>
-      <c r="K18" s="49">
+      <c r="K18" s="48">
         <v>21</v>
       </c>
-      <c r="L18" s="49">
-        <v>0</v>
-      </c>
-      <c r="M18" s="49">
-        <v>0</v>
-      </c>
-      <c r="N18" s="49">
-        <v>0</v>
-      </c>
-      <c r="O18" s="49">
-        <v>0</v>
-      </c>
-      <c r="P18" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="49"/>
+      <c r="L18" s="48">
+        <v>0</v>
+      </c>
+      <c r="M18" s="48">
+        <v>0</v>
+      </c>
+      <c r="N18" s="48">
+        <v>0</v>
+      </c>
+      <c r="O18" s="48">
+        <v>0</v>
+      </c>
+      <c r="P18" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="48"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="50">
+      <c r="A19" s="49">
         <v>44729</v>
       </c>
-      <c r="B19" s="49">
-        <v>1</v>
-      </c>
-      <c r="C19" s="49">
+      <c r="B19" s="48">
+        <v>1</v>
+      </c>
+      <c r="C19" s="48">
         <v>18</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="51">
         <v>18</v>
       </c>
-      <c r="F19" s="49">
-        <v>0</v>
-      </c>
-      <c r="G19" s="49">
-        <v>0</v>
-      </c>
-      <c r="H19" s="49">
-        <v>0</v>
-      </c>
-      <c r="I19" s="49">
+      <c r="F19" s="48">
+        <v>0</v>
+      </c>
+      <c r="G19" s="48">
+        <v>0</v>
+      </c>
+      <c r="H19" s="48">
+        <v>0</v>
+      </c>
+      <c r="I19" s="48">
         <v>12</v>
       </c>
-      <c r="J19" s="49">
+      <c r="J19" s="48">
         <v>14</v>
       </c>
-      <c r="K19" s="49">
+      <c r="K19" s="48">
         <v>56</v>
       </c>
-      <c r="L19" s="49">
-        <v>0</v>
-      </c>
-      <c r="M19" s="49">
-        <v>0</v>
-      </c>
-      <c r="N19" s="49">
-        <v>0</v>
-      </c>
-      <c r="O19" s="49">
-        <v>0</v>
-      </c>
-      <c r="P19" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="49"/>
+      <c r="L19" s="48">
+        <v>0</v>
+      </c>
+      <c r="M19" s="48">
+        <v>0</v>
+      </c>
+      <c r="N19" s="48">
+        <v>0</v>
+      </c>
+      <c r="O19" s="48">
+        <v>0</v>
+      </c>
+      <c r="P19" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="48"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
+      <c r="A20" s="49">
         <v>44729</v>
       </c>
-      <c r="B20" s="49">
-        <v>1</v>
-      </c>
-      <c r="C20" s="49">
-        <v>19</v>
-      </c>
-      <c r="D20" s="49" t="s">
+      <c r="B20" s="48">
+        <v>1</v>
+      </c>
+      <c r="C20" s="48">
+        <v>19</v>
+      </c>
+      <c r="D20" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="51">
         <v>41</v>
       </c>
-      <c r="F20" s="49">
-        <v>0</v>
-      </c>
-      <c r="G20" s="49">
-        <v>0</v>
-      </c>
-      <c r="H20" s="49">
-        <v>0</v>
-      </c>
-      <c r="I20" s="49">
+      <c r="F20" s="48">
+        <v>0</v>
+      </c>
+      <c r="G20" s="48">
+        <v>0</v>
+      </c>
+      <c r="H20" s="48">
+        <v>0</v>
+      </c>
+      <c r="I20" s="48">
         <v>21</v>
       </c>
-      <c r="J20" s="49">
-        <v>0</v>
-      </c>
-      <c r="K20" s="49">
+      <c r="J20" s="48">
+        <v>0</v>
+      </c>
+      <c r="K20" s="48">
         <v>36</v>
       </c>
-      <c r="L20" s="49">
-        <v>0</v>
-      </c>
-      <c r="M20" s="49">
-        <v>0</v>
-      </c>
-      <c r="N20" s="49">
-        <v>0</v>
-      </c>
-      <c r="O20" s="49">
+      <c r="L20" s="48">
+        <v>0</v>
+      </c>
+      <c r="M20" s="48">
+        <v>0</v>
+      </c>
+      <c r="N20" s="48">
+        <v>0</v>
+      </c>
+      <c r="O20" s="48">
         <v>2</v>
       </c>
-      <c r="P20" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="49"/>
+      <c r="P20" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="50">
+      <c r="A21" s="49">
         <v>44729</v>
       </c>
-      <c r="B21" s="49">
-        <v>1</v>
-      </c>
-      <c r="C21" s="49">
+      <c r="B21" s="48">
+        <v>1</v>
+      </c>
+      <c r="C21" s="48">
         <v>20</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="51">
         <v>49</v>
       </c>
-      <c r="F21" s="49">
-        <v>0</v>
-      </c>
-      <c r="G21" s="49">
-        <v>0</v>
-      </c>
-      <c r="H21" s="49">
-        <v>0</v>
-      </c>
-      <c r="I21" s="49">
+      <c r="F21" s="48">
+        <v>0</v>
+      </c>
+      <c r="G21" s="48">
+        <v>0</v>
+      </c>
+      <c r="H21" s="48">
+        <v>0</v>
+      </c>
+      <c r="I21" s="48">
         <v>23</v>
       </c>
-      <c r="J21" s="49">
-        <v>0</v>
-      </c>
-      <c r="K21" s="49">
+      <c r="J21" s="48">
+        <v>0</v>
+      </c>
+      <c r="K21" s="48">
         <v>27</v>
       </c>
-      <c r="L21" s="49">
-        <v>0</v>
-      </c>
-      <c r="M21" s="49">
-        <v>0</v>
-      </c>
-      <c r="N21" s="49">
-        <v>0</v>
-      </c>
-      <c r="O21" s="49">
-        <v>1</v>
-      </c>
-      <c r="P21" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="49"/>
+      <c r="L21" s="48">
+        <v>0</v>
+      </c>
+      <c r="M21" s="48">
+        <v>0</v>
+      </c>
+      <c r="N21" s="48">
+        <v>0</v>
+      </c>
+      <c r="O21" s="48">
+        <v>1</v>
+      </c>
+      <c r="P21" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="48"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="50">
+      <c r="A22" s="49">
         <v>44729</v>
       </c>
-      <c r="B22" s="49">
-        <v>1</v>
-      </c>
-      <c r="C22" s="49">
+      <c r="B22" s="48">
+        <v>1</v>
+      </c>
+      <c r="C22" s="48">
         <v>21</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="51">
         <v>71</v>
       </c>
-      <c r="F22" s="49">
-        <v>0</v>
-      </c>
-      <c r="G22" s="49">
-        <v>0</v>
-      </c>
-      <c r="H22" s="49">
-        <v>0</v>
-      </c>
-      <c r="I22" s="49">
+      <c r="F22" s="48">
+        <v>0</v>
+      </c>
+      <c r="G22" s="48">
+        <v>0</v>
+      </c>
+      <c r="H22" s="48">
+        <v>0</v>
+      </c>
+      <c r="I22" s="48">
         <v>8</v>
       </c>
-      <c r="J22" s="49">
-        <v>0</v>
-      </c>
-      <c r="K22" s="49">
+      <c r="J22" s="48">
+        <v>0</v>
+      </c>
+      <c r="K22" s="48">
         <v>20</v>
       </c>
-      <c r="L22" s="49">
-        <v>0</v>
-      </c>
-      <c r="M22" s="49">
-        <v>0</v>
-      </c>
-      <c r="N22" s="49">
-        <v>0</v>
-      </c>
-      <c r="O22" s="49">
-        <v>1</v>
-      </c>
-      <c r="P22" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="49"/>
+      <c r="L22" s="48">
+        <v>0</v>
+      </c>
+      <c r="M22" s="48">
+        <v>0</v>
+      </c>
+      <c r="N22" s="48">
+        <v>0</v>
+      </c>
+      <c r="O22" s="48">
+        <v>1</v>
+      </c>
+      <c r="P22" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="48"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="50">
+      <c r="A23" s="49">
         <v>44729</v>
       </c>
-      <c r="B23" s="49">
-        <v>1</v>
-      </c>
-      <c r="C23" s="49">
+      <c r="B23" s="48">
+        <v>1</v>
+      </c>
+      <c r="C23" s="48">
         <v>22</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="51">
         <v>62</v>
       </c>
-      <c r="F23" s="49">
-        <v>0</v>
-      </c>
-      <c r="G23" s="49">
-        <v>0</v>
-      </c>
-      <c r="H23" s="49">
-        <v>0</v>
-      </c>
-      <c r="I23" s="49">
-        <v>1</v>
-      </c>
-      <c r="J23" s="49">
-        <v>0</v>
-      </c>
-      <c r="K23" s="49">
+      <c r="F23" s="48">
+        <v>0</v>
+      </c>
+      <c r="G23" s="48">
+        <v>0</v>
+      </c>
+      <c r="H23" s="48">
+        <v>0</v>
+      </c>
+      <c r="I23" s="48">
+        <v>1</v>
+      </c>
+      <c r="J23" s="48">
+        <v>0</v>
+      </c>
+      <c r="K23" s="48">
         <v>31</v>
       </c>
-      <c r="L23" s="49">
-        <v>0</v>
-      </c>
-      <c r="M23" s="49">
-        <v>0</v>
-      </c>
-      <c r="N23" s="49">
-        <v>0</v>
-      </c>
-      <c r="O23" s="49">
+      <c r="L23" s="48">
+        <v>0</v>
+      </c>
+      <c r="M23" s="48">
+        <v>0</v>
+      </c>
+      <c r="N23" s="48">
+        <v>0</v>
+      </c>
+      <c r="O23" s="48">
         <v>6</v>
       </c>
-      <c r="P23" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="49"/>
+      <c r="P23" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="48"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="50">
+      <c r="A24" s="49">
         <v>44729</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="48">
         <v>2</v>
       </c>
-      <c r="C24" s="49">
-        <v>1</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="49">
+      <c r="C24" s="48">
+        <v>1</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="51">
         <v>36</v>
       </c>
-      <c r="F24" s="49">
-        <v>0</v>
-      </c>
-      <c r="G24" s="49">
-        <v>0</v>
-      </c>
-      <c r="H24" s="49">
-        <v>0</v>
-      </c>
-      <c r="I24" s="49">
-        <v>0</v>
-      </c>
-      <c r="J24" s="49">
-        <v>0</v>
-      </c>
-      <c r="K24" s="49">
+      <c r="F24" s="48">
+        <v>0</v>
+      </c>
+      <c r="G24" s="48">
+        <v>0</v>
+      </c>
+      <c r="H24" s="48">
+        <v>0</v>
+      </c>
+      <c r="I24" s="48">
+        <v>0</v>
+      </c>
+      <c r="J24" s="48">
+        <v>0</v>
+      </c>
+      <c r="K24" s="48">
         <v>62</v>
       </c>
-      <c r="L24" s="49">
-        <v>0</v>
-      </c>
-      <c r="M24" s="49">
-        <v>0</v>
-      </c>
-      <c r="N24" s="49">
-        <v>0</v>
-      </c>
-      <c r="O24" s="49">
+      <c r="L24" s="48">
+        <v>0</v>
+      </c>
+      <c r="M24" s="48">
+        <v>0</v>
+      </c>
+      <c r="N24" s="48">
+        <v>0</v>
+      </c>
+      <c r="O24" s="48">
         <v>2</v>
       </c>
-      <c r="P24" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="49"/>
+      <c r="P24" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="48"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="50">
+      <c r="A25" s="49">
         <v>44729</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="48">
         <v>2</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="48">
         <v>2</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="49">
+      <c r="D25" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="51">
         <v>25</v>
       </c>
-      <c r="F25" s="49">
-        <v>0</v>
-      </c>
-      <c r="G25" s="49">
-        <v>0</v>
-      </c>
-      <c r="H25" s="49">
-        <v>0</v>
-      </c>
-      <c r="I25" s="49">
-        <v>0</v>
-      </c>
-      <c r="J25" s="49">
-        <v>0</v>
-      </c>
-      <c r="K25" s="49">
+      <c r="F25" s="48">
+        <v>0</v>
+      </c>
+      <c r="G25" s="48">
+        <v>0</v>
+      </c>
+      <c r="H25" s="48">
+        <v>0</v>
+      </c>
+      <c r="I25" s="48">
+        <v>0</v>
+      </c>
+      <c r="J25" s="48">
+        <v>0</v>
+      </c>
+      <c r="K25" s="48">
         <v>74</v>
       </c>
-      <c r="L25" s="49">
-        <v>0</v>
-      </c>
-      <c r="M25" s="49">
-        <v>0</v>
-      </c>
-      <c r="N25" s="49">
-        <v>0</v>
-      </c>
-      <c r="O25" s="49">
-        <v>1</v>
-      </c>
-      <c r="P25" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="49"/>
+      <c r="L25" s="48">
+        <v>0</v>
+      </c>
+      <c r="M25" s="48">
+        <v>0</v>
+      </c>
+      <c r="N25" s="48">
+        <v>0</v>
+      </c>
+      <c r="O25" s="48">
+        <v>1</v>
+      </c>
+      <c r="P25" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="50">
+      <c r="A26" s="49">
         <v>44729</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="48">
         <v>2</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="48">
         <v>3</v>
       </c>
-      <c r="D26" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="49">
+      <c r="D26" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="51">
         <v>14</v>
       </c>
-      <c r="F26" s="49">
-        <v>0</v>
-      </c>
-      <c r="G26" s="49">
-        <v>0</v>
-      </c>
-      <c r="H26" s="49">
-        <v>0</v>
-      </c>
-      <c r="I26" s="49">
-        <v>0</v>
-      </c>
-      <c r="J26" s="49">
-        <v>0</v>
-      </c>
-      <c r="K26" s="49">
+      <c r="F26" s="48">
+        <v>0</v>
+      </c>
+      <c r="G26" s="48">
+        <v>0</v>
+      </c>
+      <c r="H26" s="48">
+        <v>0</v>
+      </c>
+      <c r="I26" s="48">
+        <v>0</v>
+      </c>
+      <c r="J26" s="48">
+        <v>0</v>
+      </c>
+      <c r="K26" s="48">
         <v>83</v>
       </c>
-      <c r="L26" s="49">
-        <v>0</v>
-      </c>
-      <c r="M26" s="49">
-        <v>0</v>
-      </c>
-      <c r="N26" s="49">
-        <v>0</v>
-      </c>
-      <c r="O26" s="49">
+      <c r="L26" s="48">
+        <v>0</v>
+      </c>
+      <c r="M26" s="48">
+        <v>0</v>
+      </c>
+      <c r="N26" s="48">
+        <v>0</v>
+      </c>
+      <c r="O26" s="48">
         <v>3</v>
       </c>
-      <c r="P26" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="49"/>
+      <c r="P26" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="48"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="50">
+      <c r="A27" s="49">
         <v>44729</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="48">
         <v>2</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="48">
         <v>4</v>
       </c>
-      <c r="D27" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="49">
+      <c r="D27" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="51">
         <v>2</v>
       </c>
-      <c r="F27" s="49">
-        <v>0</v>
-      </c>
-      <c r="G27" s="49">
-        <v>0</v>
-      </c>
-      <c r="H27" s="49">
-        <v>0</v>
-      </c>
-      <c r="I27" s="49">
-        <v>0</v>
-      </c>
-      <c r="J27" s="49">
-        <v>0</v>
-      </c>
-      <c r="K27" s="49">
+      <c r="F27" s="48">
+        <v>0</v>
+      </c>
+      <c r="G27" s="48">
+        <v>0</v>
+      </c>
+      <c r="H27" s="48">
+        <v>0</v>
+      </c>
+      <c r="I27" s="48">
+        <v>0</v>
+      </c>
+      <c r="J27" s="48">
+        <v>0</v>
+      </c>
+      <c r="K27" s="48">
         <v>9</v>
       </c>
-      <c r="L27" s="49">
-        <v>0</v>
-      </c>
-      <c r="M27" s="49">
+      <c r="L27" s="48">
+        <v>0</v>
+      </c>
+      <c r="M27" s="48">
         <v>72</v>
       </c>
-      <c r="N27" s="49">
-        <v>0</v>
-      </c>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49">
+      <c r="N27" s="48">
+        <v>0</v>
+      </c>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48">
         <v>17</v>
       </c>
-      <c r="Q27" s="49" t="s">
+      <c r="Q27" s="48" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="50">
+      <c r="A28" s="49">
         <v>44729</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="48">
         <v>2</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="48">
         <v>5</v>
       </c>
-      <c r="D28" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="49">
+      <c r="D28" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="51">
         <v>10</v>
       </c>
-      <c r="F28" s="49">
-        <v>0</v>
-      </c>
-      <c r="G28" s="49">
-        <v>0</v>
-      </c>
-      <c r="H28" s="49">
-        <v>0</v>
-      </c>
-      <c r="I28" s="49">
+      <c r="F28" s="48">
+        <v>0</v>
+      </c>
+      <c r="G28" s="48">
+        <v>0</v>
+      </c>
+      <c r="H28" s="48">
+        <v>0</v>
+      </c>
+      <c r="I28" s="48">
         <v>4</v>
       </c>
-      <c r="J28" s="49">
-        <v>19</v>
-      </c>
-      <c r="K28" s="49">
+      <c r="J28" s="48">
+        <v>19</v>
+      </c>
+      <c r="K28" s="48">
         <v>53</v>
       </c>
-      <c r="L28" s="49">
-        <v>0</v>
-      </c>
-      <c r="M28" s="49">
-        <v>0</v>
-      </c>
-      <c r="N28" s="49">
-        <v>0</v>
-      </c>
-      <c r="O28" s="49">
+      <c r="L28" s="48">
+        <v>0</v>
+      </c>
+      <c r="M28" s="48">
+        <v>0</v>
+      </c>
+      <c r="N28" s="48">
+        <v>0</v>
+      </c>
+      <c r="O28" s="48">
         <v>14</v>
       </c>
-      <c r="P28" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="49"/>
+      <c r="P28" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="48"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="50">
+      <c r="A29" s="49">
         <v>44731</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="48">
         <v>2</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="48">
         <v>6</v>
       </c>
-      <c r="D29" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="49">
+      <c r="D29" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="51">
         <v>27</v>
       </c>
-      <c r="F29" s="49">
-        <v>0</v>
-      </c>
-      <c r="G29" s="49">
-        <v>0</v>
-      </c>
-      <c r="H29" s="49">
+      <c r="F29" s="48">
+        <v>0</v>
+      </c>
+      <c r="G29" s="48">
+        <v>0</v>
+      </c>
+      <c r="H29" s="48">
         <v>8</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="48">
         <v>14</v>
       </c>
-      <c r="J29" s="49">
+      <c r="J29" s="48">
         <v>22</v>
       </c>
-      <c r="K29" s="49">
+      <c r="K29" s="48">
         <v>22</v>
       </c>
-      <c r="L29" s="49">
+      <c r="L29" s="48">
         <v>3</v>
       </c>
-      <c r="M29" s="49">
-        <v>0</v>
-      </c>
-      <c r="N29" s="49">
-        <v>0</v>
-      </c>
-      <c r="O29" s="49">
+      <c r="M29" s="48">
+        <v>0</v>
+      </c>
+      <c r="N29" s="48">
+        <v>0</v>
+      </c>
+      <c r="O29" s="48">
         <v>4</v>
       </c>
-      <c r="P29" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="49"/>
+      <c r="P29" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="48"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="50">
+      <c r="A30" s="49">
         <v>44731</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="48">
         <v>2</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="48">
         <v>7</v>
       </c>
-      <c r="D30" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="49">
+      <c r="D30" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="51">
         <v>74</v>
       </c>
-      <c r="F30" s="49">
-        <v>0</v>
-      </c>
-      <c r="G30" s="49">
-        <v>0</v>
-      </c>
-      <c r="H30" s="49">
-        <v>0</v>
-      </c>
-      <c r="I30" s="49">
-        <v>0</v>
-      </c>
-      <c r="J30" s="49">
-        <v>0</v>
-      </c>
-      <c r="K30" s="49">
+      <c r="F30" s="48">
+        <v>0</v>
+      </c>
+      <c r="G30" s="48">
+        <v>0</v>
+      </c>
+      <c r="H30" s="48">
+        <v>0</v>
+      </c>
+      <c r="I30" s="48">
+        <v>0</v>
+      </c>
+      <c r="J30" s="48">
+        <v>0</v>
+      </c>
+      <c r="K30" s="48">
         <v>25</v>
       </c>
-      <c r="L30" s="49">
-        <v>0</v>
-      </c>
-      <c r="M30" s="49">
-        <v>0</v>
-      </c>
-      <c r="N30" s="49">
-        <v>0</v>
-      </c>
-      <c r="O30" s="49">
-        <v>1</v>
-      </c>
-      <c r="P30" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="49"/>
+      <c r="L30" s="48">
+        <v>0</v>
+      </c>
+      <c r="M30" s="48">
+        <v>0</v>
+      </c>
+      <c r="N30" s="48">
+        <v>0</v>
+      </c>
+      <c r="O30" s="48">
+        <v>1</v>
+      </c>
+      <c r="P30" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="48"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="50">
+      <c r="A31" s="49">
         <v>44731</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="48">
         <v>2</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="48">
         <v>8</v>
       </c>
-      <c r="D31" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="49">
+      <c r="D31" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="51">
         <v>59</v>
       </c>
-      <c r="F31" s="49">
-        <v>0</v>
-      </c>
-      <c r="G31" s="49">
-        <v>0</v>
-      </c>
-      <c r="H31" s="49">
-        <v>0</v>
-      </c>
-      <c r="I31" s="49">
-        <v>0</v>
-      </c>
-      <c r="J31" s="49">
+      <c r="F31" s="48">
+        <v>0</v>
+      </c>
+      <c r="G31" s="48">
+        <v>0</v>
+      </c>
+      <c r="H31" s="48">
+        <v>0</v>
+      </c>
+      <c r="I31" s="48">
+        <v>0</v>
+      </c>
+      <c r="J31" s="48">
         <v>12</v>
       </c>
-      <c r="K31" s="49">
+      <c r="K31" s="48">
         <v>16</v>
       </c>
-      <c r="L31" s="49">
-        <v>0</v>
-      </c>
-      <c r="M31" s="49">
-        <v>0</v>
-      </c>
-      <c r="N31" s="49">
-        <v>0</v>
-      </c>
-      <c r="O31" s="49">
+      <c r="L31" s="48">
+        <v>0</v>
+      </c>
+      <c r="M31" s="48">
+        <v>0</v>
+      </c>
+      <c r="N31" s="48">
+        <v>0</v>
+      </c>
+      <c r="O31" s="48">
         <v>13</v>
       </c>
-      <c r="P31" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="49"/>
+      <c r="P31" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="48"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="50">
+      <c r="A32" s="49">
         <v>44731</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="48">
         <v>2</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="48">
         <v>9</v>
       </c>
-      <c r="D32" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="49">
+      <c r="D32" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="51">
         <v>62</v>
       </c>
-      <c r="F32" s="49">
-        <v>0</v>
-      </c>
-      <c r="G32" s="49">
-        <v>0</v>
-      </c>
-      <c r="H32" s="49">
-        <v>0</v>
-      </c>
-      <c r="I32" s="49">
-        <v>0</v>
-      </c>
-      <c r="J32" s="49">
-        <v>0</v>
-      </c>
-      <c r="K32" s="49">
+      <c r="F32" s="48">
+        <v>0</v>
+      </c>
+      <c r="G32" s="48">
+        <v>0</v>
+      </c>
+      <c r="H32" s="48">
+        <v>0</v>
+      </c>
+      <c r="I32" s="48">
+        <v>0</v>
+      </c>
+      <c r="J32" s="48">
+        <v>0</v>
+      </c>
+      <c r="K32" s="48">
         <v>24</v>
       </c>
-      <c r="L32" s="49">
-        <v>0</v>
-      </c>
-      <c r="M32" s="49">
-        <v>0</v>
-      </c>
-      <c r="N32" s="49">
-        <v>0</v>
-      </c>
-      <c r="O32" s="49">
+      <c r="L32" s="48">
+        <v>0</v>
+      </c>
+      <c r="M32" s="48">
+        <v>0</v>
+      </c>
+      <c r="N32" s="48">
+        <v>0</v>
+      </c>
+      <c r="O32" s="48">
         <v>14</v>
       </c>
-      <c r="P32" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="49"/>
+      <c r="P32" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="48"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="50">
+      <c r="A33" s="49">
         <v>44731</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="48">
         <v>2</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="48">
         <v>10</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="51">
         <v>24</v>
       </c>
-      <c r="F33" s="49">
-        <v>0</v>
-      </c>
-      <c r="G33" s="49">
-        <v>0</v>
-      </c>
-      <c r="H33" s="49">
-        <v>0</v>
-      </c>
-      <c r="I33" s="49">
-        <v>0</v>
-      </c>
-      <c r="J33" s="49">
+      <c r="F33" s="48">
+        <v>0</v>
+      </c>
+      <c r="G33" s="48">
+        <v>0</v>
+      </c>
+      <c r="H33" s="48">
+        <v>0</v>
+      </c>
+      <c r="I33" s="48">
+        <v>0</v>
+      </c>
+      <c r="J33" s="48">
         <v>17</v>
       </c>
-      <c r="K33" s="49">
+      <c r="K33" s="48">
         <v>52</v>
       </c>
-      <c r="L33" s="49">
-        <v>0</v>
-      </c>
-      <c r="M33" s="49">
-        <v>0</v>
-      </c>
-      <c r="N33" s="49">
-        <v>0</v>
-      </c>
-      <c r="O33" s="49">
+      <c r="L33" s="48">
+        <v>0</v>
+      </c>
+      <c r="M33" s="48">
+        <v>0</v>
+      </c>
+      <c r="N33" s="48">
+        <v>0</v>
+      </c>
+      <c r="O33" s="48">
         <v>7</v>
       </c>
-      <c r="P33" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="49"/>
+      <c r="P33" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="48"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="50">
+      <c r="A34" s="49">
         <v>44731</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="48">
         <v>2</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="48">
         <v>11</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="51">
         <v>38</v>
       </c>
-      <c r="F34" s="49">
-        <v>0</v>
-      </c>
-      <c r="G34" s="49">
-        <v>0</v>
-      </c>
-      <c r="H34" s="49">
-        <v>0</v>
-      </c>
-      <c r="I34" s="49">
-        <v>0</v>
-      </c>
-      <c r="J34" s="49">
+      <c r="F34" s="48">
+        <v>0</v>
+      </c>
+      <c r="G34" s="48">
+        <v>0</v>
+      </c>
+      <c r="H34" s="48">
+        <v>0</v>
+      </c>
+      <c r="I34" s="48">
+        <v>0</v>
+      </c>
+      <c r="J34" s="48">
         <v>58</v>
       </c>
-      <c r="K34" s="49">
-        <v>0</v>
-      </c>
-      <c r="L34" s="49">
-        <v>0</v>
-      </c>
-      <c r="M34" s="49">
-        <v>0</v>
-      </c>
-      <c r="N34" s="49">
-        <v>0</v>
-      </c>
-      <c r="O34" s="49">
+      <c r="K34" s="48">
+        <v>0</v>
+      </c>
+      <c r="L34" s="48">
+        <v>0</v>
+      </c>
+      <c r="M34" s="48">
+        <v>0</v>
+      </c>
+      <c r="N34" s="48">
+        <v>0</v>
+      </c>
+      <c r="O34" s="48">
         <v>4</v>
       </c>
-      <c r="P34" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="49"/>
+      <c r="P34" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="48"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="50">
+      <c r="A35" s="49">
         <v>44731</v>
       </c>
-      <c r="B35" s="49">
+      <c r="B35" s="48">
         <v>2</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="48">
         <v>12</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="51">
         <v>4</v>
       </c>
-      <c r="F35" s="49">
-        <v>0</v>
-      </c>
-      <c r="G35" s="49">
-        <v>0</v>
-      </c>
-      <c r="H35" s="49">
-        <v>0</v>
-      </c>
-      <c r="I35" s="49">
-        <v>0</v>
-      </c>
-      <c r="J35" s="49">
+      <c r="F35" s="48">
+        <v>0</v>
+      </c>
+      <c r="G35" s="48">
+        <v>0</v>
+      </c>
+      <c r="H35" s="48">
+        <v>0</v>
+      </c>
+      <c r="I35" s="48">
+        <v>0</v>
+      </c>
+      <c r="J35" s="48">
         <v>27</v>
       </c>
-      <c r="K35" s="49">
+      <c r="K35" s="48">
         <v>68</v>
       </c>
-      <c r="L35" s="49">
-        <v>0</v>
-      </c>
-      <c r="M35" s="49">
-        <v>0</v>
-      </c>
-      <c r="N35" s="49">
-        <v>0</v>
-      </c>
-      <c r="O35" s="49">
-        <v>1</v>
-      </c>
-      <c r="P35" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="49"/>
+      <c r="L35" s="48">
+        <v>0</v>
+      </c>
+      <c r="M35" s="48">
+        <v>0</v>
+      </c>
+      <c r="N35" s="48">
+        <v>0</v>
+      </c>
+      <c r="O35" s="48">
+        <v>1</v>
+      </c>
+      <c r="P35" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="48"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="50">
+      <c r="A36" s="49">
         <v>44731</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="48">
         <v>2</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="48">
         <v>13</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="51">
         <v>18</v>
       </c>
-      <c r="F36" s="49">
-        <v>0</v>
-      </c>
-      <c r="G36" s="49">
-        <v>0</v>
-      </c>
-      <c r="H36" s="49">
-        <v>0</v>
-      </c>
-      <c r="I36" s="49">
-        <v>0</v>
-      </c>
-      <c r="J36" s="49">
+      <c r="F36" s="48">
+        <v>0</v>
+      </c>
+      <c r="G36" s="48">
+        <v>0</v>
+      </c>
+      <c r="H36" s="48">
+        <v>0</v>
+      </c>
+      <c r="I36" s="48">
+        <v>0</v>
+      </c>
+      <c r="J36" s="48">
         <v>69</v>
       </c>
-      <c r="K36" s="49">
+      <c r="K36" s="48">
         <v>6</v>
       </c>
-      <c r="L36" s="49">
+      <c r="L36" s="48">
         <v>3</v>
       </c>
-      <c r="M36" s="49">
-        <v>0</v>
-      </c>
-      <c r="N36" s="49">
-        <v>0</v>
-      </c>
-      <c r="O36" s="49">
+      <c r="M36" s="48">
+        <v>0</v>
+      </c>
+      <c r="N36" s="48">
+        <v>0</v>
+      </c>
+      <c r="O36" s="48">
         <v>4</v>
       </c>
-      <c r="P36" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="49"/>
+      <c r="P36" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="48"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="50">
+      <c r="A37" s="49">
         <v>44731</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="48">
         <v>2</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="48">
         <v>14</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="51">
         <v>86</v>
       </c>
-      <c r="F37" s="49">
-        <v>0</v>
-      </c>
-      <c r="G37" s="49">
-        <v>0</v>
-      </c>
-      <c r="H37" s="49">
-        <v>0</v>
-      </c>
-      <c r="I37" s="49">
-        <v>0</v>
-      </c>
-      <c r="J37" s="49">
+      <c r="F37" s="48">
+        <v>0</v>
+      </c>
+      <c r="G37" s="48">
+        <v>0</v>
+      </c>
+      <c r="H37" s="48">
+        <v>0</v>
+      </c>
+      <c r="I37" s="48">
+        <v>0</v>
+      </c>
+      <c r="J37" s="48">
         <v>5</v>
       </c>
-      <c r="K37" s="49">
+      <c r="K37" s="48">
         <v>8</v>
       </c>
-      <c r="L37" s="49">
-        <v>0</v>
-      </c>
-      <c r="M37" s="49">
-        <v>0</v>
-      </c>
-      <c r="N37" s="49">
-        <v>0</v>
-      </c>
-      <c r="O37" s="49">
-        <v>1</v>
-      </c>
-      <c r="P37" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="49"/>
+      <c r="L37" s="48">
+        <v>0</v>
+      </c>
+      <c r="M37" s="48">
+        <v>0</v>
+      </c>
+      <c r="N37" s="48">
+        <v>0</v>
+      </c>
+      <c r="O37" s="48">
+        <v>1</v>
+      </c>
+      <c r="P37" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="48"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="50">
+      <c r="A38" s="49">
         <v>44731</v>
       </c>
-      <c r="B38" s="49">
+      <c r="B38" s="48">
         <v>2</v>
       </c>
-      <c r="C38" s="49">
+      <c r="C38" s="48">
         <v>15</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="51">
         <v>77</v>
       </c>
-      <c r="F38" s="49">
-        <v>0</v>
-      </c>
-      <c r="G38" s="49">
-        <v>0</v>
-      </c>
-      <c r="H38" s="49">
-        <v>0</v>
-      </c>
-      <c r="I38" s="49">
-        <v>0</v>
-      </c>
-      <c r="J38" s="49">
+      <c r="F38" s="48">
+        <v>0</v>
+      </c>
+      <c r="G38" s="48">
+        <v>0</v>
+      </c>
+      <c r="H38" s="48">
+        <v>0</v>
+      </c>
+      <c r="I38" s="48">
+        <v>0</v>
+      </c>
+      <c r="J38" s="48">
         <v>5</v>
       </c>
-      <c r="K38" s="49">
+      <c r="K38" s="48">
         <v>16</v>
       </c>
-      <c r="L38" s="49">
-        <v>0</v>
-      </c>
-      <c r="M38" s="49">
-        <v>0</v>
-      </c>
-      <c r="N38" s="49">
-        <v>0</v>
-      </c>
-      <c r="O38" s="49">
+      <c r="L38" s="48">
+        <v>0</v>
+      </c>
+      <c r="M38" s="48">
+        <v>0</v>
+      </c>
+      <c r="N38" s="48">
+        <v>0</v>
+      </c>
+      <c r="O38" s="48">
         <v>2</v>
       </c>
-      <c r="P38" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="49"/>
+      <c r="P38" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="48"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="50">
+      <c r="A39" s="49">
         <v>44731</v>
       </c>
-      <c r="B39" s="49">
+      <c r="B39" s="48">
         <v>2</v>
       </c>
-      <c r="C39" s="49">
+      <c r="C39" s="48">
         <v>16</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="49">
+      <c r="E39" s="51">
         <v>23</v>
       </c>
-      <c r="F39" s="49">
-        <v>0</v>
-      </c>
-      <c r="G39" s="49">
-        <v>0</v>
-      </c>
-      <c r="H39" s="49">
-        <v>0</v>
-      </c>
-      <c r="I39" s="49">
-        <v>0</v>
-      </c>
-      <c r="J39" s="49">
-        <v>0</v>
-      </c>
-      <c r="K39" s="49">
+      <c r="F39" s="48">
+        <v>0</v>
+      </c>
+      <c r="G39" s="48">
+        <v>0</v>
+      </c>
+      <c r="H39" s="48">
+        <v>0</v>
+      </c>
+      <c r="I39" s="48">
+        <v>0</v>
+      </c>
+      <c r="J39" s="48">
+        <v>0</v>
+      </c>
+      <c r="K39" s="48">
         <v>57</v>
       </c>
-      <c r="L39" s="49">
+      <c r="L39" s="48">
         <v>16</v>
       </c>
-      <c r="M39" s="49">
-        <v>0</v>
-      </c>
-      <c r="N39" s="49">
-        <v>0</v>
-      </c>
-      <c r="O39" s="49">
+      <c r="M39" s="48">
+        <v>0</v>
+      </c>
+      <c r="N39" s="48">
+        <v>0</v>
+      </c>
+      <c r="O39" s="48">
         <v>4</v>
       </c>
-      <c r="P39" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="49"/>
+      <c r="P39" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="48"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="50">
+      <c r="A40" s="49">
         <v>44731</v>
       </c>
-      <c r="B40" s="49">
+      <c r="B40" s="48">
         <v>2</v>
       </c>
-      <c r="C40" s="49">
+      <c r="C40" s="48">
         <v>17</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="51">
         <v>14</v>
       </c>
-      <c r="F40" s="49">
-        <v>0</v>
-      </c>
-      <c r="G40" s="49">
-        <v>0</v>
-      </c>
-      <c r="H40" s="49">
-        <v>0</v>
-      </c>
-      <c r="I40" s="49">
+      <c r="F40" s="48">
+        <v>0</v>
+      </c>
+      <c r="G40" s="48">
+        <v>0</v>
+      </c>
+      <c r="H40" s="48">
+        <v>0</v>
+      </c>
+      <c r="I40" s="48">
         <v>27</v>
       </c>
-      <c r="J40" s="49">
-        <v>0</v>
-      </c>
-      <c r="K40" s="49">
+      <c r="J40" s="48">
+        <v>0</v>
+      </c>
+      <c r="K40" s="48">
         <v>35</v>
       </c>
-      <c r="L40" s="49">
+      <c r="L40" s="48">
         <v>21</v>
       </c>
-      <c r="M40" s="49">
-        <v>0</v>
-      </c>
-      <c r="N40" s="49">
-        <v>0</v>
-      </c>
-      <c r="O40" s="49">
+      <c r="M40" s="48">
+        <v>0</v>
+      </c>
+      <c r="N40" s="48">
+        <v>0</v>
+      </c>
+      <c r="O40" s="48">
         <v>3</v>
       </c>
-      <c r="P40" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="49"/>
+      <c r="P40" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="48"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="50">
+      <c r="A41" s="49">
         <v>44731</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="48">
         <v>2</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="48">
         <v>18</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="49">
+      <c r="E41" s="51">
         <v>74</v>
       </c>
-      <c r="F41" s="49">
-        <v>0</v>
-      </c>
-      <c r="G41" s="49">
-        <v>0</v>
-      </c>
-      <c r="H41" s="49">
-        <v>0</v>
-      </c>
-      <c r="I41" s="49">
-        <v>0</v>
-      </c>
-      <c r="J41" s="49">
-        <v>0</v>
-      </c>
-      <c r="K41" s="49">
+      <c r="F41" s="48">
+        <v>0</v>
+      </c>
+      <c r="G41" s="48">
+        <v>0</v>
+      </c>
+      <c r="H41" s="48">
+        <v>0</v>
+      </c>
+      <c r="I41" s="48">
+        <v>0</v>
+      </c>
+      <c r="J41" s="48">
+        <v>0</v>
+      </c>
+      <c r="K41" s="48">
         <v>13</v>
       </c>
-      <c r="L41" s="49">
+      <c r="L41" s="48">
         <v>13</v>
       </c>
-      <c r="M41" s="49">
-        <v>0</v>
-      </c>
-      <c r="N41" s="49">
-        <v>0</v>
-      </c>
-      <c r="O41" s="49">
-        <v>0</v>
-      </c>
-      <c r="P41" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="49"/>
+      <c r="M41" s="48">
+        <v>0</v>
+      </c>
+      <c r="N41" s="48">
+        <v>0</v>
+      </c>
+      <c r="O41" s="48">
+        <v>0</v>
+      </c>
+      <c r="P41" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="48"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="50">
+      <c r="A42" s="49">
         <v>44731</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="48">
         <v>2</v>
       </c>
-      <c r="C42" s="49">
-        <v>19</v>
-      </c>
-      <c r="D42" s="49" t="s">
+      <c r="C42" s="48">
+        <v>19</v>
+      </c>
+      <c r="D42" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="51">
         <v>16</v>
       </c>
-      <c r="F42" s="49">
-        <v>0</v>
-      </c>
-      <c r="G42" s="49">
-        <v>0</v>
-      </c>
-      <c r="H42" s="49">
-        <v>0</v>
-      </c>
-      <c r="I42" s="49">
+      <c r="F42" s="48">
+        <v>0</v>
+      </c>
+      <c r="G42" s="48">
+        <v>0</v>
+      </c>
+      <c r="H42" s="48">
+        <v>0</v>
+      </c>
+      <c r="I42" s="48">
         <v>5</v>
       </c>
-      <c r="J42" s="49">
+      <c r="J42" s="48">
         <v>9</v>
       </c>
-      <c r="K42" s="49">
+      <c r="K42" s="48">
         <v>28</v>
       </c>
-      <c r="L42" s="49">
+      <c r="L42" s="48">
         <v>37</v>
       </c>
-      <c r="M42" s="49">
-        <v>0</v>
-      </c>
-      <c r="N42" s="49">
+      <c r="M42" s="48">
+        <v>0</v>
+      </c>
+      <c r="N42" s="48">
         <v>5</v>
       </c>
-      <c r="O42" s="49">
-        <v>0</v>
-      </c>
-      <c r="P42" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="49"/>
+      <c r="O42" s="48">
+        <v>0</v>
+      </c>
+      <c r="P42" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="48"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="50">
+      <c r="A43" s="49">
         <v>44731</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="48">
         <v>2</v>
       </c>
-      <c r="C43" s="49">
+      <c r="C43" s="48">
         <v>20</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="51">
         <v>70</v>
       </c>
-      <c r="F43" s="49">
-        <v>0</v>
-      </c>
-      <c r="G43" s="49">
-        <v>0</v>
-      </c>
-      <c r="H43" s="49">
-        <v>0</v>
-      </c>
-      <c r="I43" s="49">
-        <v>1</v>
-      </c>
-      <c r="J43" s="49">
-        <v>0</v>
-      </c>
-      <c r="K43" s="49">
+      <c r="F43" s="48">
+        <v>0</v>
+      </c>
+      <c r="G43" s="48">
+        <v>0</v>
+      </c>
+      <c r="H43" s="48">
+        <v>0</v>
+      </c>
+      <c r="I43" s="48">
+        <v>1</v>
+      </c>
+      <c r="J43" s="48">
+        <v>0</v>
+      </c>
+      <c r="K43" s="48">
         <v>28</v>
       </c>
-      <c r="L43" s="49">
-        <v>0</v>
-      </c>
-      <c r="M43" s="49">
-        <v>0</v>
-      </c>
-      <c r="N43" s="49">
-        <v>0</v>
-      </c>
-      <c r="O43" s="49">
-        <v>1</v>
-      </c>
-      <c r="P43" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="49"/>
+      <c r="L43" s="48">
+        <v>0</v>
+      </c>
+      <c r="M43" s="48">
+        <v>0</v>
+      </c>
+      <c r="N43" s="48">
+        <v>0</v>
+      </c>
+      <c r="O43" s="48">
+        <v>1</v>
+      </c>
+      <c r="P43" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="48"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="50">
+      <c r="A44" s="49">
         <v>44731</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="48">
         <v>3</v>
       </c>
-      <c r="C44" s="49">
-        <v>1</v>
-      </c>
-      <c r="D44" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="49">
+      <c r="C44" s="48">
+        <v>1</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="51">
         <v>39</v>
       </c>
-      <c r="F44" s="49">
-        <v>0</v>
-      </c>
-      <c r="G44" s="49">
-        <v>0</v>
-      </c>
-      <c r="H44" s="49">
-        <v>0</v>
-      </c>
-      <c r="I44" s="49">
-        <v>0</v>
-      </c>
-      <c r="J44" s="49">
-        <v>0</v>
-      </c>
-      <c r="K44" s="49">
+      <c r="F44" s="48">
+        <v>0</v>
+      </c>
+      <c r="G44" s="48">
+        <v>0</v>
+      </c>
+      <c r="H44" s="48">
+        <v>0</v>
+      </c>
+      <c r="I44" s="48">
+        <v>0</v>
+      </c>
+      <c r="J44" s="48">
+        <v>0</v>
+      </c>
+      <c r="K44" s="48">
         <v>60</v>
       </c>
-      <c r="L44" s="49">
-        <v>0</v>
-      </c>
-      <c r="M44" s="49">
-        <v>0</v>
-      </c>
-      <c r="N44" s="49">
-        <v>0</v>
-      </c>
-      <c r="O44" s="49">
-        <v>1</v>
-      </c>
-      <c r="P44" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="49"/>
+      <c r="L44" s="48">
+        <v>0</v>
+      </c>
+      <c r="M44" s="48">
+        <v>0</v>
+      </c>
+      <c r="N44" s="48">
+        <v>0</v>
+      </c>
+      <c r="O44" s="48">
+        <v>1</v>
+      </c>
+      <c r="P44" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="48"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="50">
+      <c r="A45" s="49">
         <v>44731</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="48">
         <v>3</v>
       </c>
-      <c r="C45" s="49">
+      <c r="C45" s="48">
         <v>2</v>
       </c>
-      <c r="D45" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="49">
+      <c r="D45" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="51">
         <v>23</v>
       </c>
-      <c r="F45" s="49">
-        <v>0</v>
-      </c>
-      <c r="G45" s="49">
-        <v>0</v>
-      </c>
-      <c r="H45" s="49">
-        <v>0</v>
-      </c>
-      <c r="I45" s="49">
-        <v>0</v>
-      </c>
-      <c r="J45" s="49">
+      <c r="F45" s="48">
+        <v>0</v>
+      </c>
+      <c r="G45" s="48">
+        <v>0</v>
+      </c>
+      <c r="H45" s="48">
+        <v>0</v>
+      </c>
+      <c r="I45" s="48">
+        <v>0</v>
+      </c>
+      <c r="J45" s="48">
         <v>55</v>
       </c>
-      <c r="K45" s="49">
+      <c r="K45" s="48">
         <v>22</v>
       </c>
-      <c r="L45" s="49">
-        <v>0</v>
-      </c>
-      <c r="M45" s="49">
-        <v>0</v>
-      </c>
-      <c r="N45" s="49">
-        <v>0</v>
-      </c>
-      <c r="O45" s="49">
-        <v>0</v>
-      </c>
-      <c r="P45" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="49"/>
+      <c r="L45" s="48">
+        <v>0</v>
+      </c>
+      <c r="M45" s="48">
+        <v>0</v>
+      </c>
+      <c r="N45" s="48">
+        <v>0</v>
+      </c>
+      <c r="O45" s="48">
+        <v>0</v>
+      </c>
+      <c r="P45" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="48"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="50">
+      <c r="A46" s="49">
         <v>44731</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="48">
         <v>3</v>
       </c>
-      <c r="C46" s="49">
+      <c r="C46" s="48">
         <v>3</v>
       </c>
-      <c r="D46" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="49">
+      <c r="D46" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="51">
         <v>34</v>
       </c>
-      <c r="F46" s="49">
-        <v>0</v>
-      </c>
-      <c r="G46" s="49">
-        <v>0</v>
-      </c>
-      <c r="H46" s="49">
-        <v>1</v>
-      </c>
-      <c r="I46" s="49">
+      <c r="F46" s="48">
+        <v>0</v>
+      </c>
+      <c r="G46" s="48">
+        <v>0</v>
+      </c>
+      <c r="H46" s="48">
+        <v>1</v>
+      </c>
+      <c r="I46" s="48">
         <v>10</v>
       </c>
-      <c r="J46" s="49">
+      <c r="J46" s="48">
         <v>16</v>
       </c>
-      <c r="K46" s="49">
+      <c r="K46" s="48">
         <v>28</v>
       </c>
-      <c r="L46" s="49">
-        <v>0</v>
-      </c>
-      <c r="M46" s="49">
-        <v>1</v>
-      </c>
-      <c r="N46" s="49">
-        <v>1</v>
-      </c>
-      <c r="O46" s="49">
+      <c r="L46" s="48">
+        <v>0</v>
+      </c>
+      <c r="M46" s="48">
+        <v>1</v>
+      </c>
+      <c r="N46" s="48">
+        <v>1</v>
+      </c>
+      <c r="O46" s="48">
         <v>3</v>
       </c>
-      <c r="P46" s="49">
+      <c r="P46" s="48">
         <v>6</v>
       </c>
-      <c r="Q46" s="49" t="s">
+      <c r="Q46" s="48" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="50">
+      <c r="A47" s="49">
         <v>44731</v>
       </c>
-      <c r="B47" s="49">
+      <c r="B47" s="48">
         <v>3</v>
       </c>
-      <c r="C47" s="49">
+      <c r="C47" s="48">
         <v>4</v>
       </c>
-      <c r="D47" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="49">
-        <v>0</v>
-      </c>
-      <c r="F47" s="49">
-        <v>0</v>
-      </c>
-      <c r="G47" s="49">
-        <v>0</v>
-      </c>
-      <c r="H47" s="49">
+      <c r="D47" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="51">
+        <v>0</v>
+      </c>
+      <c r="F47" s="48">
+        <v>0</v>
+      </c>
+      <c r="G47" s="48">
+        <v>0</v>
+      </c>
+      <c r="H47" s="48">
         <v>2</v>
       </c>
-      <c r="I47" s="49">
-        <v>1</v>
-      </c>
-      <c r="J47" s="49">
-        <v>0</v>
-      </c>
-      <c r="K47" s="49">
+      <c r="I47" s="48">
+        <v>1</v>
+      </c>
+      <c r="J47" s="48">
+        <v>0</v>
+      </c>
+      <c r="K47" s="48">
         <v>82</v>
       </c>
-      <c r="L47" s="49">
+      <c r="L47" s="48">
         <v>13</v>
       </c>
-      <c r="M47" s="49">
-        <v>0</v>
-      </c>
-      <c r="N47" s="49">
-        <v>0</v>
-      </c>
-      <c r="O47" s="49">
+      <c r="M47" s="48">
+        <v>0</v>
+      </c>
+      <c r="N47" s="48">
+        <v>0</v>
+      </c>
+      <c r="O47" s="48">
         <v>2</v>
       </c>
-      <c r="P47" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="49"/>
+      <c r="P47" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="48"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="50">
+      <c r="A48" s="49">
         <v>44731</v>
       </c>
-      <c r="B48" s="49">
+      <c r="B48" s="48">
         <v>3</v>
       </c>
-      <c r="C48" s="49">
+      <c r="C48" s="48">
         <v>5</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="49">
-        <v>0</v>
-      </c>
-      <c r="F48" s="49">
-        <v>0</v>
-      </c>
-      <c r="G48" s="49">
-        <v>0</v>
-      </c>
-      <c r="H48" s="49">
-        <v>1</v>
-      </c>
-      <c r="I48" s="49">
-        <v>1</v>
-      </c>
-      <c r="J48" s="49">
-        <v>0</v>
-      </c>
-      <c r="K48" s="49">
+      <c r="E48" s="51">
+        <v>0</v>
+      </c>
+      <c r="F48" s="48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="48">
+        <v>0</v>
+      </c>
+      <c r="H48" s="48">
+        <v>1</v>
+      </c>
+      <c r="I48" s="48">
+        <v>1</v>
+      </c>
+      <c r="J48" s="48">
+        <v>0</v>
+      </c>
+      <c r="K48" s="48">
         <v>53</v>
       </c>
-      <c r="L48" s="49">
+      <c r="L48" s="48">
         <v>23</v>
       </c>
-      <c r="M48" s="49">
-        <v>0</v>
-      </c>
-      <c r="N48" s="49">
-        <v>0</v>
-      </c>
-      <c r="O48" s="49">
+      <c r="M48" s="48">
+        <v>0</v>
+      </c>
+      <c r="N48" s="48">
+        <v>0</v>
+      </c>
+      <c r="O48" s="48">
         <v>22</v>
       </c>
-      <c r="P48" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="49"/>
+      <c r="P48" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="48"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="50">
+      <c r="A49" s="49">
         <v>44731</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="48">
         <v>3</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C49" s="48">
         <v>6</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="49">
-        <v>0</v>
-      </c>
-      <c r="F49" s="49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="49">
-        <v>0</v>
-      </c>
-      <c r="H49" s="49">
-        <v>1</v>
-      </c>
-      <c r="I49" s="49">
-        <v>19</v>
-      </c>
-      <c r="J49" s="49">
-        <v>0</v>
-      </c>
-      <c r="K49" s="49">
+      <c r="E49" s="51">
+        <v>0</v>
+      </c>
+      <c r="F49" s="48">
+        <v>0</v>
+      </c>
+      <c r="G49" s="48">
+        <v>0</v>
+      </c>
+      <c r="H49" s="48">
+        <v>1</v>
+      </c>
+      <c r="I49" s="48">
+        <v>19</v>
+      </c>
+      <c r="J49" s="48">
+        <v>0</v>
+      </c>
+      <c r="K49" s="48">
         <v>51</v>
       </c>
-      <c r="L49" s="49">
-        <v>0</v>
-      </c>
-      <c r="M49" s="49">
-        <v>1</v>
-      </c>
-      <c r="N49" s="49">
-        <v>0</v>
-      </c>
-      <c r="O49" s="49">
+      <c r="L49" s="48">
+        <v>0</v>
+      </c>
+      <c r="M49" s="48">
+        <v>1</v>
+      </c>
+      <c r="N49" s="48">
+        <v>0</v>
+      </c>
+      <c r="O49" s="48">
         <v>13</v>
       </c>
-      <c r="P49" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="49"/>
+      <c r="P49" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="48"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="50">
+      <c r="A50" s="49">
         <v>44731</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="48">
         <v>3</v>
       </c>
-      <c r="C50" s="49">
+      <c r="C50" s="48">
         <v>7</v>
       </c>
-      <c r="D50" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="49">
+      <c r="D50" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="51">
         <v>14</v>
       </c>
-      <c r="F50" s="49">
-        <v>0</v>
-      </c>
-      <c r="G50" s="49">
-        <v>0</v>
-      </c>
-      <c r="H50" s="49">
+      <c r="F50" s="48">
+        <v>0</v>
+      </c>
+      <c r="G50" s="48">
+        <v>0</v>
+      </c>
+      <c r="H50" s="48">
         <v>3</v>
       </c>
-      <c r="I50" s="49">
-        <v>0</v>
-      </c>
-      <c r="J50" s="49">
-        <v>0</v>
-      </c>
-      <c r="K50" s="49">
+      <c r="I50" s="48">
+        <v>0</v>
+      </c>
+      <c r="J50" s="48">
+        <v>0</v>
+      </c>
+      <c r="K50" s="48">
         <v>6</v>
       </c>
-      <c r="L50" s="49">
-        <v>0</v>
-      </c>
-      <c r="M50" s="49">
-        <v>0</v>
-      </c>
-      <c r="N50" s="49">
-        <v>0</v>
-      </c>
-      <c r="O50" s="49">
+      <c r="L50" s="48">
+        <v>0</v>
+      </c>
+      <c r="M50" s="48">
+        <v>0</v>
+      </c>
+      <c r="N50" s="48">
+        <v>0</v>
+      </c>
+      <c r="O50" s="48">
         <v>17</v>
       </c>
-      <c r="P50" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="49"/>
+      <c r="P50" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="48"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="50">
+      <c r="A51" s="49">
         <v>44731</v>
       </c>
-      <c r="B51" s="49">
+      <c r="B51" s="48">
         <v>3</v>
       </c>
-      <c r="C51" s="49">
+      <c r="C51" s="48">
         <v>8</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="49">
+      <c r="E51" s="51">
         <v>10</v>
       </c>
-      <c r="F51" s="49">
-        <v>0</v>
-      </c>
-      <c r="G51" s="49">
-        <v>0</v>
-      </c>
-      <c r="H51" s="49">
+      <c r="F51" s="48">
+        <v>0</v>
+      </c>
+      <c r="G51" s="48">
+        <v>0</v>
+      </c>
+      <c r="H51" s="48">
         <v>3</v>
       </c>
-      <c r="I51" s="49">
+      <c r="I51" s="48">
         <v>2</v>
       </c>
-      <c r="J51" s="49">
-        <v>0</v>
-      </c>
-      <c r="K51" s="49">
+      <c r="J51" s="48">
+        <v>0</v>
+      </c>
+      <c r="K51" s="48">
         <v>77</v>
       </c>
-      <c r="L51" s="49">
-        <v>0</v>
-      </c>
-      <c r="M51" s="49">
-        <v>0</v>
-      </c>
-      <c r="N51" s="49">
-        <v>0</v>
-      </c>
-      <c r="O51" s="49">
+      <c r="L51" s="48">
+        <v>0</v>
+      </c>
+      <c r="M51" s="48">
+        <v>0</v>
+      </c>
+      <c r="N51" s="48">
+        <v>0</v>
+      </c>
+      <c r="O51" s="48">
         <v>8</v>
       </c>
-      <c r="P51" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="49"/>
+      <c r="P51" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="48"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="50">
+      <c r="A52" s="49">
         <v>44731</v>
       </c>
-      <c r="B52" s="49">
+      <c r="B52" s="48">
         <v>3</v>
       </c>
-      <c r="C52" s="49">
+      <c r="C52" s="48">
         <v>9</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="49">
-        <v>1</v>
-      </c>
-      <c r="F52" s="49">
-        <v>0</v>
-      </c>
-      <c r="G52" s="49">
-        <v>0</v>
-      </c>
-      <c r="H52" s="49">
+      <c r="E52" s="51">
+        <v>1</v>
+      </c>
+      <c r="F52" s="48">
+        <v>0</v>
+      </c>
+      <c r="G52" s="48">
+        <v>0</v>
+      </c>
+      <c r="H52" s="48">
         <v>9</v>
       </c>
-      <c r="I52" s="49">
-        <v>0</v>
-      </c>
-      <c r="J52" s="49">
-        <v>0</v>
-      </c>
-      <c r="K52" s="49">
+      <c r="I52" s="48">
+        <v>0</v>
+      </c>
+      <c r="J52" s="48">
+        <v>0</v>
+      </c>
+      <c r="K52" s="48">
         <v>90</v>
       </c>
-      <c r="L52" s="49">
-        <v>0</v>
-      </c>
-      <c r="M52" s="49">
-        <v>0</v>
-      </c>
-      <c r="N52" s="49">
-        <v>0</v>
-      </c>
-      <c r="O52" s="49">
-        <v>0</v>
-      </c>
-      <c r="P52" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="49"/>
+      <c r="L52" s="48">
+        <v>0</v>
+      </c>
+      <c r="M52" s="48">
+        <v>0</v>
+      </c>
+      <c r="N52" s="48">
+        <v>0</v>
+      </c>
+      <c r="O52" s="48">
+        <v>0</v>
+      </c>
+      <c r="P52" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="48"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="50">
+      <c r="A53" s="49">
         <v>44731</v>
       </c>
-      <c r="B53" s="49">
+      <c r="B53" s="48">
         <v>3</v>
       </c>
-      <c r="C53" s="49">
+      <c r="C53" s="48">
         <v>10</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E53" s="51">
         <v>25</v>
       </c>
-      <c r="F53" s="49">
-        <v>0</v>
-      </c>
-      <c r="G53" s="49">
-        <v>0</v>
-      </c>
-      <c r="H53" s="49">
+      <c r="F53" s="48">
+        <v>0</v>
+      </c>
+      <c r="G53" s="48">
+        <v>0</v>
+      </c>
+      <c r="H53" s="48">
         <v>5</v>
       </c>
-      <c r="I53" s="49">
-        <v>0</v>
-      </c>
-      <c r="J53" s="49">
-        <v>0</v>
-      </c>
-      <c r="K53" s="49">
+      <c r="I53" s="48">
+        <v>0</v>
+      </c>
+      <c r="J53" s="48">
+        <v>0</v>
+      </c>
+      <c r="K53" s="48">
         <v>49</v>
       </c>
-      <c r="L53" s="49">
-        <v>0</v>
-      </c>
-      <c r="M53" s="49">
-        <v>0</v>
-      </c>
-      <c r="N53" s="49">
-        <v>0</v>
-      </c>
-      <c r="O53" s="49">
+      <c r="L53" s="48">
+        <v>0</v>
+      </c>
+      <c r="M53" s="48">
+        <v>0</v>
+      </c>
+      <c r="N53" s="48">
+        <v>0</v>
+      </c>
+      <c r="O53" s="48">
         <v>21</v>
       </c>
-      <c r="P53" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="49"/>
+      <c r="P53" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="48"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="50">
+      <c r="A54" s="49">
         <v>44731</v>
       </c>
-      <c r="B54" s="49">
+      <c r="B54" s="48">
         <v>3</v>
       </c>
-      <c r="C54" s="49">
+      <c r="C54" s="48">
         <v>11</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="49">
+      <c r="E54" s="51">
         <v>38</v>
       </c>
-      <c r="F54" s="49">
-        <v>0</v>
-      </c>
-      <c r="G54" s="49">
-        <v>0</v>
-      </c>
-      <c r="H54" s="49">
-        <v>1</v>
-      </c>
-      <c r="I54" s="49">
-        <v>0</v>
-      </c>
-      <c r="J54" s="49">
-        <v>0</v>
-      </c>
-      <c r="K54" s="49">
+      <c r="F54" s="48">
+        <v>0</v>
+      </c>
+      <c r="G54" s="48">
+        <v>0</v>
+      </c>
+      <c r="H54" s="48">
+        <v>1</v>
+      </c>
+      <c r="I54" s="48">
+        <v>0</v>
+      </c>
+      <c r="J54" s="48">
+        <v>0</v>
+      </c>
+      <c r="K54" s="48">
         <v>39</v>
       </c>
-      <c r="L54" s="49">
-        <v>0</v>
-      </c>
-      <c r="M54" s="49">
-        <v>0</v>
-      </c>
-      <c r="N54" s="49">
-        <v>0</v>
-      </c>
-      <c r="O54" s="49">
+      <c r="L54" s="48">
+        <v>0</v>
+      </c>
+      <c r="M54" s="48">
+        <v>0</v>
+      </c>
+      <c r="N54" s="48">
+        <v>0</v>
+      </c>
+      <c r="O54" s="48">
         <v>22</v>
       </c>
-      <c r="P54" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="49"/>
+      <c r="P54" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="48"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="50">
+      <c r="A55" s="49">
         <v>44731</v>
       </c>
-      <c r="B55" s="49">
+      <c r="B55" s="48">
         <v>3</v>
       </c>
-      <c r="C55" s="49">
+      <c r="C55" s="48">
         <v>12</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="49">
+      <c r="E55" s="51">
         <v>84</v>
       </c>
-      <c r="F55" s="49">
-        <v>0</v>
-      </c>
-      <c r="G55" s="49">
-        <v>0</v>
-      </c>
-      <c r="H55" s="49">
-        <v>0</v>
-      </c>
-      <c r="I55" s="49">
-        <v>0</v>
-      </c>
-      <c r="J55" s="49">
-        <v>0</v>
-      </c>
-      <c r="K55" s="49">
+      <c r="F55" s="48">
+        <v>0</v>
+      </c>
+      <c r="G55" s="48">
+        <v>0</v>
+      </c>
+      <c r="H55" s="48">
+        <v>0</v>
+      </c>
+      <c r="I55" s="48">
+        <v>0</v>
+      </c>
+      <c r="J55" s="48">
+        <v>0</v>
+      </c>
+      <c r="K55" s="48">
         <v>10</v>
       </c>
-      <c r="L55" s="49">
-        <v>0</v>
-      </c>
-      <c r="M55" s="49">
-        <v>0</v>
-      </c>
-      <c r="N55" s="49">
-        <v>0</v>
-      </c>
-      <c r="O55" s="49">
+      <c r="L55" s="48">
+        <v>0</v>
+      </c>
+      <c r="M55" s="48">
+        <v>0</v>
+      </c>
+      <c r="N55" s="48">
+        <v>0</v>
+      </c>
+      <c r="O55" s="48">
         <v>6</v>
       </c>
-      <c r="P55" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="49"/>
+      <c r="P55" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="48"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="50">
+      <c r="A56" s="49">
         <v>44731</v>
       </c>
-      <c r="B56" s="49">
+      <c r="B56" s="48">
         <v>3</v>
       </c>
-      <c r="C56" s="49">
+      <c r="C56" s="48">
         <v>13</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="49">
+      <c r="E56" s="51">
         <v>30</v>
       </c>
-      <c r="F56" s="49">
-        <v>0</v>
-      </c>
-      <c r="G56" s="49">
-        <v>0</v>
-      </c>
-      <c r="H56" s="49">
-        <v>0</v>
-      </c>
-      <c r="I56" s="49">
-        <v>1</v>
-      </c>
-      <c r="J56" s="49">
+      <c r="F56" s="48">
+        <v>0</v>
+      </c>
+      <c r="G56" s="48">
+        <v>0</v>
+      </c>
+      <c r="H56" s="48">
+        <v>0</v>
+      </c>
+      <c r="I56" s="48">
+        <v>1</v>
+      </c>
+      <c r="J56" s="48">
         <v>15</v>
       </c>
-      <c r="K56" s="49">
+      <c r="K56" s="48">
         <v>37</v>
       </c>
-      <c r="L56" s="49">
+      <c r="L56" s="48">
         <v>12</v>
       </c>
-      <c r="M56" s="49">
-        <v>0</v>
-      </c>
-      <c r="N56" s="49">
-        <v>0</v>
-      </c>
-      <c r="O56" s="49">
+      <c r="M56" s="48">
+        <v>0</v>
+      </c>
+      <c r="N56" s="48">
+        <v>0</v>
+      </c>
+      <c r="O56" s="48">
         <v>5</v>
       </c>
-      <c r="P56" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="49"/>
+      <c r="P56" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="48"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="50">
+      <c r="A57" s="49">
         <v>44731</v>
       </c>
-      <c r="B57" s="49">
+      <c r="B57" s="48">
         <v>3</v>
       </c>
-      <c r="C57" s="49">
+      <c r="C57" s="48">
         <v>14</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="49">
+      <c r="E57" s="51">
         <v>35</v>
       </c>
-      <c r="F57" s="49">
-        <v>0</v>
-      </c>
-      <c r="G57" s="49">
-        <v>0</v>
-      </c>
-      <c r="H57" s="49">
-        <v>0</v>
-      </c>
-      <c r="I57" s="49">
-        <v>0</v>
-      </c>
-      <c r="J57" s="49">
+      <c r="F57" s="48">
+        <v>0</v>
+      </c>
+      <c r="G57" s="48">
+        <v>0</v>
+      </c>
+      <c r="H57" s="48">
+        <v>0</v>
+      </c>
+      <c r="I57" s="48">
+        <v>0</v>
+      </c>
+      <c r="J57" s="48">
         <v>27</v>
       </c>
-      <c r="K57" s="49">
+      <c r="K57" s="48">
         <v>21</v>
       </c>
-      <c r="L57" s="49">
+      <c r="L57" s="48">
         <v>12</v>
       </c>
-      <c r="M57" s="49">
-        <v>0</v>
-      </c>
-      <c r="N57" s="49">
-        <v>0</v>
-      </c>
-      <c r="O57" s="49">
+      <c r="M57" s="48">
+        <v>0</v>
+      </c>
+      <c r="N57" s="48">
+        <v>0</v>
+      </c>
+      <c r="O57" s="48">
         <v>5</v>
       </c>
-      <c r="P57" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="49"/>
+      <c r="P57" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="48"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="50">
+      <c r="A58" s="49">
         <v>44736</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="48">
         <v>3</v>
       </c>
-      <c r="C58" s="49">
+      <c r="C58" s="48">
         <v>15</v>
       </c>
-      <c r="D58" s="49" t="s">
+      <c r="D58" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E58" s="51">
         <v>45</v>
       </c>
-      <c r="F58" s="49">
-        <v>0</v>
-      </c>
-      <c r="G58" s="49">
-        <v>0</v>
-      </c>
-      <c r="H58" s="49">
-        <v>0</v>
-      </c>
-      <c r="I58" s="49">
-        <v>0</v>
-      </c>
-      <c r="J58" s="49">
+      <c r="F58" s="48">
+        <v>0</v>
+      </c>
+      <c r="G58" s="48">
+        <v>0</v>
+      </c>
+      <c r="H58" s="48">
+        <v>0</v>
+      </c>
+      <c r="I58" s="48">
+        <v>0</v>
+      </c>
+      <c r="J58" s="48">
         <v>49</v>
       </c>
-      <c r="K58" s="49">
+      <c r="K58" s="48">
         <v>4</v>
       </c>
-      <c r="L58" s="49">
-        <v>1</v>
-      </c>
-      <c r="M58" s="49">
-        <v>0</v>
-      </c>
-      <c r="N58" s="49">
-        <v>0</v>
-      </c>
-      <c r="O58" s="49">
-        <v>1</v>
-      </c>
-      <c r="P58" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="49"/>
+      <c r="L58" s="48">
+        <v>1</v>
+      </c>
+      <c r="M58" s="48">
+        <v>0</v>
+      </c>
+      <c r="N58" s="48">
+        <v>0</v>
+      </c>
+      <c r="O58" s="48">
+        <v>1</v>
+      </c>
+      <c r="P58" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="48"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="50">
+      <c r="A59" s="49">
         <v>44736</v>
       </c>
-      <c r="B59" s="49">
+      <c r="B59" s="48">
         <v>3</v>
       </c>
-      <c r="C59" s="49">
+      <c r="C59" s="48">
         <v>16</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="51">
         <v>39</v>
       </c>
-      <c r="F59" s="49">
-        <v>0</v>
-      </c>
-      <c r="G59" s="49">
-        <v>0</v>
-      </c>
-      <c r="H59" s="49">
-        <v>0</v>
-      </c>
-      <c r="I59" s="49">
+      <c r="F59" s="48">
+        <v>0</v>
+      </c>
+      <c r="G59" s="48">
+        <v>0</v>
+      </c>
+      <c r="H59" s="48">
+        <v>0</v>
+      </c>
+      <c r="I59" s="48">
         <v>2</v>
       </c>
-      <c r="J59" s="49">
-        <v>0</v>
-      </c>
-      <c r="K59" s="49">
+      <c r="J59" s="48">
+        <v>0</v>
+      </c>
+      <c r="K59" s="48">
         <v>52</v>
       </c>
-      <c r="L59" s="49">
+      <c r="L59" s="48">
         <v>4</v>
       </c>
-      <c r="M59" s="49">
-        <v>0</v>
-      </c>
-      <c r="N59" s="49">
-        <v>0</v>
-      </c>
-      <c r="O59" s="49">
+      <c r="M59" s="48">
+        <v>0</v>
+      </c>
+      <c r="N59" s="48">
+        <v>0</v>
+      </c>
+      <c r="O59" s="48">
         <v>3</v>
       </c>
-      <c r="P59" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="49"/>
+      <c r="P59" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="48"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="50">
+      <c r="A60" s="49">
         <v>44736</v>
       </c>
-      <c r="B60" s="49">
+      <c r="B60" s="48">
         <v>3</v>
       </c>
-      <c r="C60" s="49">
+      <c r="C60" s="48">
         <v>17</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="51">
         <v>36</v>
       </c>
-      <c r="F60" s="49">
-        <v>0</v>
-      </c>
-      <c r="G60" s="49">
-        <v>0</v>
-      </c>
-      <c r="H60" s="49">
+      <c r="F60" s="48">
+        <v>0</v>
+      </c>
+      <c r="G60" s="48">
+        <v>0</v>
+      </c>
+      <c r="H60" s="48">
         <v>4</v>
       </c>
-      <c r="I60" s="49">
-        <v>0</v>
-      </c>
-      <c r="J60" s="49">
+      <c r="I60" s="48">
+        <v>0</v>
+      </c>
+      <c r="J60" s="48">
         <v>2</v>
       </c>
-      <c r="K60" s="49">
+      <c r="K60" s="48">
         <v>23</v>
       </c>
-      <c r="L60" s="49">
+      <c r="L60" s="48">
         <v>34</v>
       </c>
-      <c r="M60" s="49">
-        <v>0</v>
-      </c>
-      <c r="N60" s="49">
-        <v>0</v>
-      </c>
-      <c r="O60" s="49">
-        <v>1</v>
-      </c>
-      <c r="P60" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="49"/>
+      <c r="M60" s="48">
+        <v>0</v>
+      </c>
+      <c r="N60" s="48">
+        <v>0</v>
+      </c>
+      <c r="O60" s="48">
+        <v>1</v>
+      </c>
+      <c r="P60" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="48"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="50">
+      <c r="A61" s="49">
         <v>44736</v>
       </c>
-      <c r="B61" s="49">
+      <c r="B61" s="48">
         <v>3</v>
       </c>
-      <c r="C61" s="49">
+      <c r="C61" s="48">
         <v>18</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="49">
+      <c r="E61" s="51">
         <v>26</v>
       </c>
-      <c r="F61" s="49">
-        <v>0</v>
-      </c>
-      <c r="G61" s="49">
-        <v>0</v>
-      </c>
-      <c r="H61" s="49">
-        <v>0</v>
-      </c>
-      <c r="I61" s="49">
-        <v>0</v>
-      </c>
-      <c r="J61" s="49">
+      <c r="F61" s="48">
+        <v>0</v>
+      </c>
+      <c r="G61" s="48">
+        <v>0</v>
+      </c>
+      <c r="H61" s="48">
+        <v>0</v>
+      </c>
+      <c r="I61" s="48">
+        <v>0</v>
+      </c>
+      <c r="J61" s="48">
         <v>21</v>
       </c>
-      <c r="K61" s="49">
+      <c r="K61" s="48">
         <v>41</v>
       </c>
-      <c r="L61" s="49">
+      <c r="L61" s="48">
         <v>11</v>
       </c>
-      <c r="M61" s="49">
-        <v>0</v>
-      </c>
-      <c r="N61" s="49">
-        <v>0</v>
-      </c>
-      <c r="O61" s="49">
-        <v>1</v>
-      </c>
-      <c r="P61" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="49"/>
+      <c r="M61" s="48">
+        <v>0</v>
+      </c>
+      <c r="N61" s="48">
+        <v>0</v>
+      </c>
+      <c r="O61" s="48">
+        <v>1</v>
+      </c>
+      <c r="P61" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="48"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="50">
+      <c r="A62" s="49">
         <v>44736</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="48">
         <v>3</v>
       </c>
-      <c r="C62" s="49">
-        <v>19</v>
-      </c>
-      <c r="D62" s="49" t="s">
+      <c r="C62" s="48">
+        <v>19</v>
+      </c>
+      <c r="D62" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="49">
+      <c r="E62" s="51">
         <v>34</v>
       </c>
-      <c r="F62" s="49">
-        <v>0</v>
-      </c>
-      <c r="G62" s="49">
-        <v>0</v>
-      </c>
-      <c r="H62" s="49">
-        <v>0</v>
-      </c>
-      <c r="I62" s="49">
-        <v>0</v>
-      </c>
-      <c r="J62" s="49">
+      <c r="F62" s="48">
+        <v>0</v>
+      </c>
+      <c r="G62" s="48">
+        <v>0</v>
+      </c>
+      <c r="H62" s="48">
+        <v>0</v>
+      </c>
+      <c r="I62" s="48">
+        <v>0</v>
+      </c>
+      <c r="J62" s="48">
         <v>66</v>
       </c>
-      <c r="K62" s="49">
-        <v>0</v>
-      </c>
-      <c r="L62" s="49">
-        <v>0</v>
-      </c>
-      <c r="M62" s="49">
-        <v>0</v>
-      </c>
-      <c r="N62" s="49">
-        <v>0</v>
-      </c>
-      <c r="O62" s="49">
-        <v>0</v>
-      </c>
-      <c r="P62" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="49"/>
+      <c r="K62" s="48">
+        <v>0</v>
+      </c>
+      <c r="L62" s="48">
+        <v>0</v>
+      </c>
+      <c r="M62" s="48">
+        <v>0</v>
+      </c>
+      <c r="N62" s="48">
+        <v>0</v>
+      </c>
+      <c r="O62" s="48">
+        <v>0</v>
+      </c>
+      <c r="P62" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="48"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="50">
+      <c r="A63" s="49">
         <v>44736</v>
       </c>
-      <c r="B63" s="49">
+      <c r="B63" s="48">
         <v>3</v>
       </c>
-      <c r="C63" s="49">
+      <c r="C63" s="48">
         <v>20</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="49">
+      <c r="E63" s="51">
         <v>73</v>
       </c>
-      <c r="F63" s="49">
-        <v>0</v>
-      </c>
-      <c r="G63" s="49">
-        <v>0</v>
-      </c>
-      <c r="H63" s="49">
-        <v>0</v>
-      </c>
-      <c r="I63" s="49">
-        <v>0</v>
-      </c>
-      <c r="J63" s="49">
+      <c r="F63" s="48">
+        <v>0</v>
+      </c>
+      <c r="G63" s="48">
+        <v>0</v>
+      </c>
+      <c r="H63" s="48">
+        <v>0</v>
+      </c>
+      <c r="I63" s="48">
+        <v>0</v>
+      </c>
+      <c r="J63" s="48">
         <v>10</v>
       </c>
-      <c r="K63" s="49">
+      <c r="K63" s="48">
         <v>17</v>
       </c>
-      <c r="L63" s="49">
-        <v>0</v>
-      </c>
-      <c r="M63" s="49">
-        <v>0</v>
-      </c>
-      <c r="N63" s="49">
-        <v>0</v>
-      </c>
-      <c r="O63" s="49">
-        <v>0</v>
-      </c>
-      <c r="P63" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="49"/>
+      <c r="L63" s="48">
+        <v>0</v>
+      </c>
+      <c r="M63" s="48">
+        <v>0</v>
+      </c>
+      <c r="N63" s="48">
+        <v>0</v>
+      </c>
+      <c r="O63" s="48">
+        <v>0</v>
+      </c>
+      <c r="P63" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="48"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="50">
+      <c r="A64" s="49">
         <v>44736</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="48">
         <v>3</v>
       </c>
-      <c r="C64" s="49">
+      <c r="C64" s="48">
         <v>21</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="49">
+      <c r="E64" s="51">
         <v>31</v>
       </c>
-      <c r="F64" s="49">
-        <v>0</v>
-      </c>
-      <c r="G64" s="49">
-        <v>0</v>
-      </c>
-      <c r="H64" s="49">
-        <v>0</v>
-      </c>
-      <c r="I64" s="49">
-        <v>1</v>
-      </c>
-      <c r="J64" s="49">
-        <v>0</v>
-      </c>
-      <c r="K64" s="49">
+      <c r="F64" s="48">
+        <v>0</v>
+      </c>
+      <c r="G64" s="48">
+        <v>0</v>
+      </c>
+      <c r="H64" s="48">
+        <v>0</v>
+      </c>
+      <c r="I64" s="48">
+        <v>1</v>
+      </c>
+      <c r="J64" s="48">
+        <v>0</v>
+      </c>
+      <c r="K64" s="48">
         <v>66</v>
       </c>
-      <c r="L64" s="49">
-        <v>0</v>
-      </c>
-      <c r="M64" s="49">
-        <v>0</v>
-      </c>
-      <c r="N64" s="49">
-        <v>0</v>
-      </c>
-      <c r="O64" s="49">
+      <c r="L64" s="48">
+        <v>0</v>
+      </c>
+      <c r="M64" s="48">
+        <v>0</v>
+      </c>
+      <c r="N64" s="48">
+        <v>0</v>
+      </c>
+      <c r="O64" s="48">
         <v>2</v>
       </c>
-      <c r="P64" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="49"/>
+      <c r="P64" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="48"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="50">
+      <c r="A65" s="49">
         <v>44736</v>
       </c>
-      <c r="B65" s="49">
+      <c r="B65" s="48">
         <v>3</v>
       </c>
-      <c r="C65" s="49">
+      <c r="C65" s="48">
         <v>22</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="49">
+      <c r="E65" s="51">
         <v>36</v>
       </c>
-      <c r="F65" s="49">
-        <v>0</v>
-      </c>
-      <c r="G65" s="49">
-        <v>0</v>
-      </c>
-      <c r="H65" s="49">
-        <v>0</v>
-      </c>
-      <c r="I65" s="49">
-        <v>0</v>
-      </c>
-      <c r="J65" s="49">
+      <c r="F65" s="48">
+        <v>0</v>
+      </c>
+      <c r="G65" s="48">
+        <v>0</v>
+      </c>
+      <c r="H65" s="48">
+        <v>0</v>
+      </c>
+      <c r="I65" s="48">
+        <v>0</v>
+      </c>
+      <c r="J65" s="48">
         <v>21</v>
       </c>
-      <c r="K65" s="49">
+      <c r="K65" s="48">
         <v>43</v>
       </c>
-      <c r="L65" s="49">
-        <v>0</v>
-      </c>
-      <c r="M65" s="49">
-        <v>0</v>
-      </c>
-      <c r="N65" s="49">
-        <v>0</v>
-      </c>
-      <c r="O65" s="49">
-        <v>0</v>
-      </c>
-      <c r="P65" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="49"/>
+      <c r="L65" s="48">
+        <v>0</v>
+      </c>
+      <c r="M65" s="48">
+        <v>0</v>
+      </c>
+      <c r="N65" s="48">
+        <v>0</v>
+      </c>
+      <c r="O65" s="48">
+        <v>0</v>
+      </c>
+      <c r="P65" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="48"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="50">
+      <c r="A66" s="49">
         <v>44736</v>
       </c>
-      <c r="B66" s="49">
+      <c r="B66" s="48">
         <v>3</v>
       </c>
-      <c r="C66" s="49">
+      <c r="C66" s="48">
         <v>23</v>
       </c>
-      <c r="D66" s="49" t="s">
+      <c r="D66" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="49">
+      <c r="E66" s="51">
         <v>20</v>
       </c>
-      <c r="F66" s="49">
-        <v>0</v>
-      </c>
-      <c r="G66" s="49">
-        <v>0</v>
-      </c>
-      <c r="H66" s="49">
-        <v>0</v>
-      </c>
-      <c r="I66" s="49">
-        <v>0</v>
-      </c>
-      <c r="J66" s="49">
-        <v>0</v>
-      </c>
-      <c r="K66" s="49">
+      <c r="F66" s="48">
+        <v>0</v>
+      </c>
+      <c r="G66" s="48">
+        <v>0</v>
+      </c>
+      <c r="H66" s="48">
+        <v>0</v>
+      </c>
+      <c r="I66" s="48">
+        <v>0</v>
+      </c>
+      <c r="J66" s="48">
+        <v>0</v>
+      </c>
+      <c r="K66" s="48">
         <v>54</v>
       </c>
-      <c r="L66" s="49">
+      <c r="L66" s="48">
         <v>22</v>
       </c>
-      <c r="M66" s="49">
-        <v>0</v>
-      </c>
-      <c r="N66" s="49">
-        <v>0</v>
-      </c>
-      <c r="O66" s="49">
+      <c r="M66" s="48">
+        <v>0</v>
+      </c>
+      <c r="N66" s="48">
+        <v>0</v>
+      </c>
+      <c r="O66" s="48">
         <v>4</v>
       </c>
-      <c r="P66" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="49"/>
+      <c r="P66" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="48"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="50">
+      <c r="A67" s="49">
         <v>44736</v>
       </c>
-      <c r="B67" s="49">
+      <c r="B67" s="48">
         <v>3</v>
       </c>
-      <c r="C67" s="49">
+      <c r="C67" s="48">
         <v>24</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="49">
+      <c r="E67" s="51">
         <v>14</v>
       </c>
-      <c r="F67" s="49">
-        <v>0</v>
-      </c>
-      <c r="G67" s="49">
-        <v>0</v>
-      </c>
-      <c r="H67" s="49">
-        <v>0</v>
-      </c>
-      <c r="I67" s="49">
-        <v>0</v>
-      </c>
-      <c r="J67" s="49">
+      <c r="F67" s="48">
+        <v>0</v>
+      </c>
+      <c r="G67" s="48">
+        <v>0</v>
+      </c>
+      <c r="H67" s="48">
+        <v>0</v>
+      </c>
+      <c r="I67" s="48">
+        <v>0</v>
+      </c>
+      <c r="J67" s="48">
         <v>48</v>
       </c>
-      <c r="K67" s="49">
+      <c r="K67" s="48">
         <v>34</v>
       </c>
-      <c r="L67" s="49">
+      <c r="L67" s="48">
         <v>4</v>
       </c>
-      <c r="M67" s="49">
-        <v>0</v>
-      </c>
-      <c r="N67" s="49">
-        <v>0</v>
-      </c>
-      <c r="O67" s="49">
-        <v>0</v>
-      </c>
-      <c r="P67" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="49"/>
+      <c r="M67" s="48">
+        <v>0</v>
+      </c>
+      <c r="N67" s="48">
+        <v>0</v>
+      </c>
+      <c r="O67" s="48">
+        <v>0</v>
+      </c>
+      <c r="P67" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="48"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="50">
+      <c r="A68" s="49">
         <v>44736</v>
       </c>
-      <c r="B68" s="49">
+      <c r="B68" s="48">
         <v>3</v>
       </c>
-      <c r="C68" s="49">
+      <c r="C68" s="48">
         <v>25</v>
       </c>
-      <c r="D68" s="49" t="s">
+      <c r="D68" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E68" s="51">
         <v>21</v>
       </c>
-      <c r="F68" s="49">
-        <v>0</v>
-      </c>
-      <c r="G68" s="49">
-        <v>0</v>
-      </c>
-      <c r="H68" s="49">
-        <v>0</v>
-      </c>
-      <c r="I68" s="49">
-        <v>0</v>
-      </c>
-      <c r="J68" s="49">
+      <c r="F68" s="48">
+        <v>0</v>
+      </c>
+      <c r="G68" s="48">
+        <v>0</v>
+      </c>
+      <c r="H68" s="48">
+        <v>0</v>
+      </c>
+      <c r="I68" s="48">
+        <v>0</v>
+      </c>
+      <c r="J68" s="48">
         <v>60</v>
       </c>
-      <c r="K68" s="49">
-        <v>19</v>
-      </c>
-      <c r="L68" s="49">
-        <v>0</v>
-      </c>
-      <c r="M68" s="49">
-        <v>0</v>
-      </c>
-      <c r="N68" s="49">
-        <v>0</v>
-      </c>
-      <c r="O68" s="49">
-        <v>0</v>
-      </c>
-      <c r="P68" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="49"/>
+      <c r="K68" s="48">
+        <v>19</v>
+      </c>
+      <c r="L68" s="48">
+        <v>0</v>
+      </c>
+      <c r="M68" s="48">
+        <v>0</v>
+      </c>
+      <c r="N68" s="48">
+        <v>0</v>
+      </c>
+      <c r="O68" s="48">
+        <v>0</v>
+      </c>
+      <c r="P68" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="48"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="50">
+      <c r="A69" s="49">
         <v>44737</v>
       </c>
-      <c r="B69" s="49">
+      <c r="B69" s="48">
         <v>4</v>
       </c>
-      <c r="C69" s="49">
-        <v>1</v>
-      </c>
-      <c r="D69" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="49">
+      <c r="C69" s="48">
+        <v>1</v>
+      </c>
+      <c r="D69" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="51">
         <v>17</v>
       </c>
-      <c r="F69" s="49">
-        <v>0</v>
-      </c>
-      <c r="G69" s="49">
-        <v>0</v>
-      </c>
-      <c r="H69" s="49">
-        <v>0</v>
-      </c>
-      <c r="I69" s="49">
-        <v>0</v>
-      </c>
-      <c r="J69" s="49">
-        <v>0</v>
-      </c>
-      <c r="K69" s="49">
+      <c r="F69" s="48">
+        <v>0</v>
+      </c>
+      <c r="G69" s="48">
+        <v>0</v>
+      </c>
+      <c r="H69" s="48">
+        <v>0</v>
+      </c>
+      <c r="I69" s="48">
+        <v>0</v>
+      </c>
+      <c r="J69" s="48">
+        <v>0</v>
+      </c>
+      <c r="K69" s="48">
         <v>77</v>
       </c>
-      <c r="L69" s="49">
+      <c r="L69" s="48">
         <v>6</v>
       </c>
-      <c r="M69" s="49">
-        <v>0</v>
-      </c>
-      <c r="N69" s="49">
-        <v>0</v>
-      </c>
-      <c r="O69" s="49">
-        <v>0</v>
-      </c>
-      <c r="P69" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="49"/>
+      <c r="M69" s="48">
+        <v>0</v>
+      </c>
+      <c r="N69" s="48">
+        <v>0</v>
+      </c>
+      <c r="O69" s="48">
+        <v>0</v>
+      </c>
+      <c r="P69" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="48"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="50">
+      <c r="A70" s="49">
         <v>44737</v>
       </c>
-      <c r="B70" s="49">
+      <c r="B70" s="48">
         <v>4</v>
       </c>
-      <c r="C70" s="49">
+      <c r="C70" s="48">
         <v>2</v>
       </c>
-      <c r="D70" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="49">
+      <c r="D70" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="51">
         <v>43</v>
       </c>
-      <c r="F70" s="49">
-        <v>0</v>
-      </c>
-      <c r="G70" s="49">
-        <v>0</v>
-      </c>
-      <c r="H70" s="49">
-        <v>0</v>
-      </c>
-      <c r="I70" s="49">
-        <v>1</v>
-      </c>
-      <c r="J70" s="49">
-        <v>0</v>
-      </c>
-      <c r="K70" s="49">
+      <c r="F70" s="48">
+        <v>0</v>
+      </c>
+      <c r="G70" s="48">
+        <v>0</v>
+      </c>
+      <c r="H70" s="48">
+        <v>0</v>
+      </c>
+      <c r="I70" s="48">
+        <v>1</v>
+      </c>
+      <c r="J70" s="48">
+        <v>0</v>
+      </c>
+      <c r="K70" s="48">
         <v>46</v>
       </c>
-      <c r="L70" s="49">
+      <c r="L70" s="48">
         <v>9</v>
       </c>
-      <c r="M70" s="49">
-        <v>0</v>
-      </c>
-      <c r="N70" s="49">
-        <v>0</v>
-      </c>
-      <c r="O70" s="49">
-        <v>1</v>
-      </c>
-      <c r="P70" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="49"/>
+      <c r="M70" s="48">
+        <v>0</v>
+      </c>
+      <c r="N70" s="48">
+        <v>0</v>
+      </c>
+      <c r="O70" s="48">
+        <v>1</v>
+      </c>
+      <c r="P70" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="48"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="50">
+      <c r="A71" s="49">
         <v>44737</v>
       </c>
-      <c r="B71" s="49">
+      <c r="B71" s="48">
         <v>4</v>
       </c>
-      <c r="C71" s="49">
+      <c r="C71" s="48">
         <v>3</v>
       </c>
-      <c r="D71" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="49">
+      <c r="D71" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="51">
         <v>18</v>
       </c>
-      <c r="F71" s="49">
-        <v>0</v>
-      </c>
-      <c r="G71" s="49">
-        <v>0</v>
-      </c>
-      <c r="H71" s="49">
+      <c r="F71" s="48">
+        <v>0</v>
+      </c>
+      <c r="G71" s="48">
+        <v>0</v>
+      </c>
+      <c r="H71" s="48">
         <v>3</v>
       </c>
-      <c r="I71" s="49">
-        <v>0</v>
-      </c>
-      <c r="J71" s="49">
-        <v>0</v>
-      </c>
-      <c r="K71" s="49">
+      <c r="I71" s="48">
+        <v>0</v>
+      </c>
+      <c r="J71" s="48">
+        <v>0</v>
+      </c>
+      <c r="K71" s="48">
         <v>70</v>
       </c>
-      <c r="L71" s="49">
+      <c r="L71" s="48">
         <v>8</v>
       </c>
-      <c r="M71" s="49">
-        <v>0</v>
-      </c>
-      <c r="N71" s="49">
-        <v>0</v>
-      </c>
-      <c r="O71" s="49">
-        <v>1</v>
-      </c>
-      <c r="P71" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="49"/>
+      <c r="M71" s="48">
+        <v>0</v>
+      </c>
+      <c r="N71" s="48">
+        <v>0</v>
+      </c>
+      <c r="O71" s="48">
+        <v>1</v>
+      </c>
+      <c r="P71" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="48"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="50">
+      <c r="A72" s="49">
         <v>44737</v>
       </c>
-      <c r="B72" s="49">
+      <c r="B72" s="48">
         <v>4</v>
       </c>
-      <c r="C72" s="49">
+      <c r="C72" s="48">
         <v>4</v>
       </c>
-      <c r="D72" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="49">
-        <v>19</v>
-      </c>
-      <c r="F72" s="49">
-        <v>0</v>
-      </c>
-      <c r="G72" s="49">
-        <v>0</v>
-      </c>
-      <c r="H72" s="49">
-        <v>0</v>
-      </c>
-      <c r="I72" s="49">
-        <v>0</v>
-      </c>
-      <c r="J72" s="49">
+      <c r="D72" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="51">
+        <v>19</v>
+      </c>
+      <c r="F72" s="48">
+        <v>0</v>
+      </c>
+      <c r="G72" s="48">
+        <v>0</v>
+      </c>
+      <c r="H72" s="48">
+        <v>0</v>
+      </c>
+      <c r="I72" s="48">
+        <v>0</v>
+      </c>
+      <c r="J72" s="48">
         <v>2</v>
       </c>
-      <c r="K72" s="49">
+      <c r="K72" s="48">
         <v>39</v>
       </c>
-      <c r="L72" s="49">
+      <c r="L72" s="48">
         <v>40</v>
       </c>
-      <c r="M72" s="49">
-        <v>0</v>
-      </c>
-      <c r="N72" s="49">
-        <v>0</v>
-      </c>
-      <c r="O72" s="49">
-        <v>0</v>
-      </c>
-      <c r="P72" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="49"/>
+      <c r="M72" s="48">
+        <v>0</v>
+      </c>
+      <c r="N72" s="48">
+        <v>0</v>
+      </c>
+      <c r="O72" s="48">
+        <v>0</v>
+      </c>
+      <c r="P72" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="48"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="50">
+      <c r="A73" s="49">
         <v>44737</v>
       </c>
-      <c r="B73" s="49">
+      <c r="B73" s="48">
         <v>4</v>
       </c>
-      <c r="C73" s="49">
+      <c r="C73" s="48">
         <v>5</v>
       </c>
-      <c r="D73" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="49">
+      <c r="D73" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="51">
         <v>10</v>
       </c>
-      <c r="F73" s="49">
-        <v>0</v>
-      </c>
-      <c r="G73" s="49">
-        <v>0</v>
-      </c>
-      <c r="H73" s="49">
-        <v>1</v>
-      </c>
-      <c r="I73" s="49">
-        <v>0</v>
-      </c>
-      <c r="J73" s="49">
+      <c r="F73" s="48">
+        <v>0</v>
+      </c>
+      <c r="G73" s="48">
+        <v>0</v>
+      </c>
+      <c r="H73" s="48">
+        <v>1</v>
+      </c>
+      <c r="I73" s="48">
+        <v>0</v>
+      </c>
+      <c r="J73" s="48">
         <v>9</v>
       </c>
-      <c r="K73" s="49">
+      <c r="K73" s="48">
         <v>78</v>
       </c>
-      <c r="L73" s="49">
-        <v>0</v>
-      </c>
-      <c r="M73" s="49">
-        <v>0</v>
-      </c>
-      <c r="N73" s="49">
-        <v>0</v>
-      </c>
-      <c r="O73" s="49">
+      <c r="L73" s="48">
+        <v>0</v>
+      </c>
+      <c r="M73" s="48">
+        <v>0</v>
+      </c>
+      <c r="N73" s="48">
+        <v>0</v>
+      </c>
+      <c r="O73" s="48">
         <v>2</v>
       </c>
-      <c r="P73" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="49"/>
+      <c r="P73" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="48"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="50">
+      <c r="A74" s="49">
         <v>44737</v>
       </c>
-      <c r="B74" s="49">
+      <c r="B74" s="48">
         <v>4</v>
       </c>
-      <c r="C74" s="49">
+      <c r="C74" s="48">
         <v>6</v>
       </c>
-      <c r="D74" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="49">
+      <c r="D74" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="51">
         <v>21</v>
       </c>
-      <c r="F74" s="49">
-        <v>0</v>
-      </c>
-      <c r="G74" s="49">
-        <v>0</v>
-      </c>
-      <c r="H74" s="49">
-        <v>0</v>
-      </c>
-      <c r="I74" s="49">
-        <v>0</v>
-      </c>
-      <c r="J74" s="49">
+      <c r="F74" s="48">
+        <v>0</v>
+      </c>
+      <c r="G74" s="48">
+        <v>0</v>
+      </c>
+      <c r="H74" s="48">
+        <v>0</v>
+      </c>
+      <c r="I74" s="48">
+        <v>0</v>
+      </c>
+      <c r="J74" s="48">
         <v>27</v>
       </c>
-      <c r="K74" s="49">
+      <c r="K74" s="48">
         <v>46</v>
       </c>
-      <c r="L74" s="49">
+      <c r="L74" s="48">
         <v>5</v>
       </c>
-      <c r="M74" s="49">
-        <v>0</v>
-      </c>
-      <c r="N74" s="49">
-        <v>0</v>
-      </c>
-      <c r="O74" s="49">
-        <v>1</v>
-      </c>
-      <c r="P74" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="49"/>
+      <c r="M74" s="48">
+        <v>0</v>
+      </c>
+      <c r="N74" s="48">
+        <v>0</v>
+      </c>
+      <c r="O74" s="48">
+        <v>1</v>
+      </c>
+      <c r="P74" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="48"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="50">
+      <c r="A75" s="49">
         <v>44737</v>
       </c>
-      <c r="B75" s="49">
+      <c r="B75" s="48">
         <v>4</v>
       </c>
-      <c r="C75" s="49">
+      <c r="C75" s="48">
         <v>7</v>
       </c>
-      <c r="D75" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="49">
+      <c r="D75" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="51">
         <v>42</v>
       </c>
-      <c r="F75" s="49">
-        <v>0</v>
-      </c>
-      <c r="G75" s="49">
-        <v>0</v>
-      </c>
-      <c r="H75" s="49">
-        <v>1</v>
-      </c>
-      <c r="I75" s="49">
-        <v>0</v>
-      </c>
-      <c r="J75" s="49">
-        <v>0</v>
-      </c>
-      <c r="K75" s="49">
+      <c r="F75" s="48">
+        <v>0</v>
+      </c>
+      <c r="G75" s="48">
+        <v>0</v>
+      </c>
+      <c r="H75" s="48">
+        <v>1</v>
+      </c>
+      <c r="I75" s="48">
+        <v>0</v>
+      </c>
+      <c r="J75" s="48">
+        <v>0</v>
+      </c>
+      <c r="K75" s="48">
         <v>57</v>
       </c>
-      <c r="L75" s="49">
-        <v>0</v>
-      </c>
-      <c r="M75" s="49">
-        <v>0</v>
-      </c>
-      <c r="N75" s="49">
-        <v>0</v>
-      </c>
-      <c r="O75" s="49">
-        <v>0</v>
-      </c>
-      <c r="P75" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="49"/>
+      <c r="L75" s="48">
+        <v>0</v>
+      </c>
+      <c r="M75" s="48">
+        <v>0</v>
+      </c>
+      <c r="N75" s="48">
+        <v>0</v>
+      </c>
+      <c r="O75" s="48">
+        <v>0</v>
+      </c>
+      <c r="P75" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="48"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="50">
+      <c r="A76" s="49">
         <v>44737</v>
       </c>
-      <c r="B76" s="49">
+      <c r="B76" s="48">
         <v>4</v>
       </c>
-      <c r="C76" s="49">
+      <c r="C76" s="48">
         <v>8</v>
       </c>
-      <c r="D76" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="49">
+      <c r="D76" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="51">
         <v>57</v>
       </c>
-      <c r="F76" s="49">
-        <v>0</v>
-      </c>
-      <c r="G76" s="49">
-        <v>0</v>
-      </c>
-      <c r="H76" s="49">
-        <v>0</v>
-      </c>
-      <c r="I76" s="49">
-        <v>0</v>
-      </c>
-      <c r="J76" s="49">
-        <v>0</v>
-      </c>
-      <c r="K76" s="49">
+      <c r="F76" s="48">
+        <v>0</v>
+      </c>
+      <c r="G76" s="48">
+        <v>0</v>
+      </c>
+      <c r="H76" s="48">
+        <v>0</v>
+      </c>
+      <c r="I76" s="48">
+        <v>0</v>
+      </c>
+      <c r="J76" s="48">
+        <v>0</v>
+      </c>
+      <c r="K76" s="48">
         <v>42</v>
       </c>
-      <c r="L76" s="49">
-        <v>0</v>
-      </c>
-      <c r="M76" s="49">
-        <v>0</v>
-      </c>
-      <c r="N76" s="49">
-        <v>0</v>
-      </c>
-      <c r="O76" s="49">
-        <v>1</v>
-      </c>
-      <c r="P76" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="49"/>
+      <c r="L76" s="48">
+        <v>0</v>
+      </c>
+      <c r="M76" s="48">
+        <v>0</v>
+      </c>
+      <c r="N76" s="48">
+        <v>0</v>
+      </c>
+      <c r="O76" s="48">
+        <v>1</v>
+      </c>
+      <c r="P76" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="48"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="50">
+      <c r="A77" s="49">
         <v>44737</v>
       </c>
-      <c r="B77" s="49">
+      <c r="B77" s="48">
         <v>4</v>
       </c>
-      <c r="C77" s="49">
+      <c r="C77" s="48">
         <v>9</v>
       </c>
-      <c r="D77" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="49">
+      <c r="D77" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="51">
         <v>26</v>
       </c>
-      <c r="F77" s="49">
-        <v>0</v>
-      </c>
-      <c r="G77" s="49">
-        <v>0</v>
-      </c>
-      <c r="H77" s="49">
-        <v>0</v>
-      </c>
-      <c r="I77" s="49">
-        <v>1</v>
-      </c>
-      <c r="J77" s="49">
+      <c r="F77" s="48">
+        <v>0</v>
+      </c>
+      <c r="G77" s="48">
+        <v>0</v>
+      </c>
+      <c r="H77" s="48">
+        <v>0</v>
+      </c>
+      <c r="I77" s="48">
+        <v>1</v>
+      </c>
+      <c r="J77" s="48">
         <v>25</v>
       </c>
-      <c r="K77" s="49">
+      <c r="K77" s="48">
         <v>36</v>
       </c>
-      <c r="L77" s="49">
-        <v>0</v>
-      </c>
-      <c r="M77" s="49">
-        <v>0</v>
-      </c>
-      <c r="N77" s="49">
-        <v>0</v>
-      </c>
-      <c r="O77" s="49">
+      <c r="L77" s="48">
+        <v>0</v>
+      </c>
+      <c r="M77" s="48">
+        <v>0</v>
+      </c>
+      <c r="N77" s="48">
+        <v>0</v>
+      </c>
+      <c r="O77" s="48">
         <v>12</v>
       </c>
-      <c r="P77" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="49"/>
+      <c r="P77" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="48"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="50">
+      <c r="A78" s="49">
         <v>44737</v>
       </c>
-      <c r="B78" s="49">
+      <c r="B78" s="48">
         <v>4</v>
       </c>
-      <c r="C78" s="49">
+      <c r="C78" s="48">
         <v>10</v>
       </c>
-      <c r="D78" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="49">
+      <c r="D78" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="51">
         <v>36</v>
       </c>
-      <c r="F78" s="49">
-        <v>0</v>
-      </c>
-      <c r="G78" s="49">
-        <v>0</v>
-      </c>
-      <c r="H78" s="49">
-        <v>0</v>
-      </c>
-      <c r="I78" s="49">
-        <v>0</v>
-      </c>
-      <c r="J78" s="49">
+      <c r="F78" s="48">
+        <v>0</v>
+      </c>
+      <c r="G78" s="48">
+        <v>0</v>
+      </c>
+      <c r="H78" s="48">
+        <v>0</v>
+      </c>
+      <c r="I78" s="48">
+        <v>0</v>
+      </c>
+      <c r="J78" s="48">
         <v>9</v>
       </c>
-      <c r="K78" s="49">
+      <c r="K78" s="48">
         <v>50</v>
       </c>
-      <c r="L78" s="49">
-        <v>1</v>
-      </c>
-      <c r="M78" s="49">
-        <v>0</v>
-      </c>
-      <c r="N78" s="49">
-        <v>0</v>
-      </c>
-      <c r="O78" s="49">
+      <c r="L78" s="48">
+        <v>1</v>
+      </c>
+      <c r="M78" s="48">
+        <v>0</v>
+      </c>
+      <c r="N78" s="48">
+        <v>0</v>
+      </c>
+      <c r="O78" s="48">
         <v>4</v>
       </c>
-      <c r="P78" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="49"/>
+      <c r="P78" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="48"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="50">
+      <c r="A79" s="49">
         <v>44737</v>
       </c>
-      <c r="B79" s="49">
+      <c r="B79" s="48">
         <v>4</v>
       </c>
-      <c r="C79" s="49">
+      <c r="C79" s="48">
         <v>11</v>
       </c>
-      <c r="D79" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="49">
+      <c r="D79" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="51">
         <v>32</v>
       </c>
-      <c r="F79" s="49">
+      <c r="F79" s="48">
         <v>11</v>
       </c>
-      <c r="G79" s="49">
-        <v>0</v>
-      </c>
-      <c r="H79" s="49">
+      <c r="G79" s="48">
+        <v>0</v>
+      </c>
+      <c r="H79" s="48">
         <v>2</v>
       </c>
-      <c r="I79" s="49">
-        <v>0</v>
-      </c>
-      <c r="J79" s="49">
+      <c r="I79" s="48">
+        <v>0</v>
+      </c>
+      <c r="J79" s="48">
         <v>39</v>
       </c>
-      <c r="K79" s="49">
+      <c r="K79" s="48">
         <v>14</v>
       </c>
-      <c r="L79" s="49">
+      <c r="L79" s="48">
         <v>2</v>
       </c>
-      <c r="M79" s="49">
-        <v>0</v>
-      </c>
-      <c r="N79" s="49">
-        <v>0</v>
-      </c>
-      <c r="O79" s="49">
-        <v>0</v>
-      </c>
-      <c r="P79" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="49"/>
+      <c r="M79" s="48">
+        <v>0</v>
+      </c>
+      <c r="N79" s="48">
+        <v>0</v>
+      </c>
+      <c r="O79" s="48">
+        <v>0</v>
+      </c>
+      <c r="P79" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="48"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="50">
+      <c r="A80" s="49">
         <v>44737</v>
       </c>
-      <c r="B80" s="49">
+      <c r="B80" s="48">
         <v>4</v>
       </c>
-      <c r="C80" s="49">
+      <c r="C80" s="48">
         <v>12</v>
       </c>
-      <c r="D80" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="49">
+      <c r="D80" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="51">
         <v>11</v>
       </c>
-      <c r="F80" s="49">
-        <v>0</v>
-      </c>
-      <c r="G80" s="49">
-        <v>0</v>
-      </c>
-      <c r="H80" s="49">
-        <v>0</v>
-      </c>
-      <c r="I80" s="49">
-        <v>0</v>
-      </c>
-      <c r="J80" s="49">
+      <c r="F80" s="48">
+        <v>0</v>
+      </c>
+      <c r="G80" s="48">
+        <v>0</v>
+      </c>
+      <c r="H80" s="48">
+        <v>0</v>
+      </c>
+      <c r="I80" s="48">
+        <v>0</v>
+      </c>
+      <c r="J80" s="48">
         <v>85</v>
       </c>
-      <c r="K80" s="49">
-        <v>0</v>
-      </c>
-      <c r="L80" s="49">
-        <v>0</v>
-      </c>
-      <c r="M80" s="49">
-        <v>0</v>
-      </c>
-      <c r="N80" s="49">
-        <v>0</v>
-      </c>
-      <c r="O80" s="49">
+      <c r="K80" s="48">
+        <v>0</v>
+      </c>
+      <c r="L80" s="48">
+        <v>0</v>
+      </c>
+      <c r="M80" s="48">
+        <v>0</v>
+      </c>
+      <c r="N80" s="48">
+        <v>0</v>
+      </c>
+      <c r="O80" s="48">
         <v>4</v>
       </c>
-      <c r="P80" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="49"/>
+      <c r="P80" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="48"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="50">
+      <c r="A81" s="49">
         <v>44737</v>
       </c>
-      <c r="B81" s="49">
+      <c r="B81" s="48">
         <v>4</v>
       </c>
-      <c r="C81" s="49">
+      <c r="C81" s="48">
         <v>13</v>
       </c>
-      <c r="D81" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="49">
+      <c r="D81" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="51">
         <v>85</v>
       </c>
-      <c r="F81" s="49">
-        <v>0</v>
-      </c>
-      <c r="G81" s="49">
-        <v>0</v>
-      </c>
-      <c r="H81" s="49">
-        <v>0</v>
-      </c>
-      <c r="I81" s="49">
+      <c r="F81" s="48">
+        <v>0</v>
+      </c>
+      <c r="G81" s="48">
+        <v>0</v>
+      </c>
+      <c r="H81" s="48">
+        <v>0</v>
+      </c>
+      <c r="I81" s="48">
         <v>3</v>
       </c>
-      <c r="J81" s="49">
-        <v>0</v>
-      </c>
-      <c r="K81" s="49">
+      <c r="J81" s="48">
+        <v>0</v>
+      </c>
+      <c r="K81" s="48">
         <v>10</v>
       </c>
-      <c r="L81" s="49">
-        <v>0</v>
-      </c>
-      <c r="M81" s="49">
-        <v>0</v>
-      </c>
-      <c r="N81" s="49">
-        <v>0</v>
-      </c>
-      <c r="O81" s="49">
+      <c r="L81" s="48">
+        <v>0</v>
+      </c>
+      <c r="M81" s="48">
+        <v>0</v>
+      </c>
+      <c r="N81" s="48">
+        <v>0</v>
+      </c>
+      <c r="O81" s="48">
         <v>2</v>
       </c>
-      <c r="P81" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="49"/>
+      <c r="P81" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="48"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="50">
+      <c r="A82" s="49">
         <v>44737</v>
       </c>
-      <c r="B82" s="49">
+      <c r="B82" s="48">
         <v>4</v>
       </c>
-      <c r="C82" s="49">
+      <c r="C82" s="48">
         <v>14</v>
       </c>
-      <c r="D82" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="49">
+      <c r="D82" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="51">
         <v>31</v>
       </c>
-      <c r="F82" s="49">
-        <v>0</v>
-      </c>
-      <c r="G82" s="49">
-        <v>0</v>
-      </c>
-      <c r="H82" s="49">
+      <c r="F82" s="48">
+        <v>0</v>
+      </c>
+      <c r="G82" s="48">
+        <v>0</v>
+      </c>
+      <c r="H82" s="48">
         <v>14</v>
       </c>
-      <c r="I82" s="49">
+      <c r="I82" s="48">
         <v>7</v>
       </c>
-      <c r="J82" s="49">
-        <v>0</v>
-      </c>
-      <c r="K82" s="49">
+      <c r="J82" s="48">
+        <v>0</v>
+      </c>
+      <c r="K82" s="48">
         <v>30</v>
       </c>
-      <c r="L82" s="49">
+      <c r="L82" s="48">
         <v>18</v>
       </c>
-      <c r="M82" s="49">
-        <v>0</v>
-      </c>
-      <c r="N82" s="49">
-        <v>0</v>
-      </c>
-      <c r="O82" s="49">
-        <v>0</v>
-      </c>
-      <c r="P82" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="49"/>
+      <c r="M82" s="48">
+        <v>0</v>
+      </c>
+      <c r="N82" s="48">
+        <v>0</v>
+      </c>
+      <c r="O82" s="48">
+        <v>0</v>
+      </c>
+      <c r="P82" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="48"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="50">
+      <c r="A83" s="49">
         <v>44737</v>
       </c>
-      <c r="B83" s="49">
+      <c r="B83" s="48">
         <v>4</v>
       </c>
-      <c r="C83" s="49">
+      <c r="C83" s="48">
         <v>15</v>
       </c>
-      <c r="D83" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="49">
+      <c r="D83" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="51">
         <v>57</v>
       </c>
-      <c r="F83" s="49">
-        <v>0</v>
-      </c>
-      <c r="G83" s="49">
-        <v>0</v>
-      </c>
-      <c r="H83" s="49">
+      <c r="F83" s="48">
+        <v>0</v>
+      </c>
+      <c r="G83" s="48">
+        <v>0</v>
+      </c>
+      <c r="H83" s="48">
         <v>14</v>
       </c>
-      <c r="I83" s="49">
+      <c r="I83" s="48">
         <v>3</v>
       </c>
-      <c r="J83" s="49">
-        <v>0</v>
-      </c>
-      <c r="K83" s="49">
+      <c r="J83" s="48">
+        <v>0</v>
+      </c>
+      <c r="K83" s="48">
         <v>18</v>
       </c>
-      <c r="L83" s="49">
+      <c r="L83" s="48">
         <v>7</v>
       </c>
-      <c r="M83" s="49">
-        <v>0</v>
-      </c>
-      <c r="N83" s="49">
-        <v>0</v>
-      </c>
-      <c r="O83" s="49">
-        <v>1</v>
-      </c>
-      <c r="P83" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="49"/>
+      <c r="M83" s="48">
+        <v>0</v>
+      </c>
+      <c r="N83" s="48">
+        <v>0</v>
+      </c>
+      <c r="O83" s="48">
+        <v>1</v>
+      </c>
+      <c r="P83" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="48"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="50">
+      <c r="A84" s="49">
         <v>44737</v>
       </c>
-      <c r="B84" s="49">
+      <c r="B84" s="48">
         <v>4</v>
       </c>
-      <c r="C84" s="49">
+      <c r="C84" s="48">
         <v>16</v>
       </c>
-      <c r="D84" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="49">
+      <c r="D84" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="51">
         <v>73</v>
       </c>
-      <c r="F84" s="49">
-        <v>0</v>
-      </c>
-      <c r="G84" s="49">
-        <v>0</v>
-      </c>
-      <c r="H84" s="49">
-        <v>0</v>
-      </c>
-      <c r="I84" s="49">
+      <c r="F84" s="48">
+        <v>0</v>
+      </c>
+      <c r="G84" s="48">
+        <v>0</v>
+      </c>
+      <c r="H84" s="48">
+        <v>0</v>
+      </c>
+      <c r="I84" s="48">
         <v>5</v>
       </c>
-      <c r="J84" s="49">
-        <v>1</v>
-      </c>
-      <c r="K84" s="49">
+      <c r="J84" s="48">
+        <v>1</v>
+      </c>
+      <c r="K84" s="48">
         <v>18</v>
       </c>
-      <c r="L84" s="49">
+      <c r="L84" s="48">
         <v>3</v>
       </c>
-      <c r="M84" s="49">
-        <v>0</v>
-      </c>
-      <c r="N84" s="49">
-        <v>0</v>
-      </c>
-      <c r="O84" s="49">
-        <v>0</v>
-      </c>
-      <c r="P84" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="49"/>
+      <c r="M84" s="48">
+        <v>0</v>
+      </c>
+      <c r="N84" s="48">
+        <v>0</v>
+      </c>
+      <c r="O84" s="48">
+        <v>0</v>
+      </c>
+      <c r="P84" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="48"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="50">
+      <c r="A85" s="49">
         <v>44737</v>
       </c>
-      <c r="B85" s="49">
+      <c r="B85" s="48">
         <v>4</v>
       </c>
-      <c r="C85" s="49">
+      <c r="C85" s="48">
         <v>17</v>
       </c>
-      <c r="D85" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="49">
+      <c r="D85" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="51">
         <v>67</v>
       </c>
-      <c r="F85" s="49">
-        <v>0</v>
-      </c>
-      <c r="G85" s="49">
-        <v>0</v>
-      </c>
-      <c r="H85" s="49">
+      <c r="F85" s="48">
+        <v>0</v>
+      </c>
+      <c r="G85" s="48">
+        <v>0</v>
+      </c>
+      <c r="H85" s="48">
         <v>4</v>
       </c>
-      <c r="I85" s="49">
+      <c r="I85" s="48">
         <v>5</v>
       </c>
-      <c r="J85" s="49">
-        <v>1</v>
-      </c>
-      <c r="K85" s="49">
-        <v>19</v>
-      </c>
-      <c r="L85" s="49">
-        <v>1</v>
-      </c>
-      <c r="M85" s="49">
-        <v>0</v>
-      </c>
-      <c r="N85" s="49">
-        <v>0</v>
-      </c>
-      <c r="O85" s="49">
+      <c r="J85" s="48">
+        <v>1</v>
+      </c>
+      <c r="K85" s="48">
+        <v>19</v>
+      </c>
+      <c r="L85" s="48">
+        <v>1</v>
+      </c>
+      <c r="M85" s="48">
+        <v>0</v>
+      </c>
+      <c r="N85" s="48">
+        <v>0</v>
+      </c>
+      <c r="O85" s="48">
         <v>3</v>
       </c>
-      <c r="P85" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="49"/>
+      <c r="P85" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="48"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="50">
+      <c r="A86" s="49">
         <v>44737</v>
       </c>
-      <c r="B86" s="49">
+      <c r="B86" s="48">
         <v>4</v>
       </c>
-      <c r="C86" s="49">
+      <c r="C86" s="48">
         <v>18</v>
       </c>
-      <c r="D86" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="49">
+      <c r="D86" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="51">
         <v>15</v>
       </c>
-      <c r="F86" s="49">
-        <v>0</v>
-      </c>
-      <c r="G86" s="49">
-        <v>0</v>
-      </c>
-      <c r="H86" s="49">
-        <v>0</v>
-      </c>
-      <c r="I86" s="49">
-        <v>0</v>
-      </c>
-      <c r="J86" s="49">
+      <c r="F86" s="48">
+        <v>0</v>
+      </c>
+      <c r="G86" s="48">
+        <v>0</v>
+      </c>
+      <c r="H86" s="48">
+        <v>0</v>
+      </c>
+      <c r="I86" s="48">
+        <v>0</v>
+      </c>
+      <c r="J86" s="48">
         <v>84</v>
       </c>
-      <c r="K86" s="49">
-        <v>0</v>
-      </c>
-      <c r="L86" s="49">
-        <v>0</v>
-      </c>
-      <c r="M86" s="49">
-        <v>0</v>
-      </c>
-      <c r="N86" s="49">
-        <v>0</v>
-      </c>
-      <c r="O86" s="49">
-        <v>1</v>
-      </c>
-      <c r="P86" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="49"/>
+      <c r="K86" s="48">
+        <v>0</v>
+      </c>
+      <c r="L86" s="48">
+        <v>0</v>
+      </c>
+      <c r="M86" s="48">
+        <v>0</v>
+      </c>
+      <c r="N86" s="48">
+        <v>0</v>
+      </c>
+      <c r="O86" s="48">
+        <v>1</v>
+      </c>
+      <c r="P86" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="48"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="50">
+      <c r="A87" s="49">
         <v>44737</v>
       </c>
-      <c r="B87" s="49">
+      <c r="B87" s="48">
         <v>4</v>
       </c>
-      <c r="C87" s="49">
-        <v>19</v>
-      </c>
-      <c r="D87" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="49">
+      <c r="C87" s="48">
+        <v>19</v>
+      </c>
+      <c r="D87" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="51">
         <v>30</v>
       </c>
-      <c r="F87" s="49">
-        <v>0</v>
-      </c>
-      <c r="G87" s="49">
-        <v>0</v>
-      </c>
-      <c r="H87" s="49">
-        <v>0</v>
-      </c>
-      <c r="I87" s="49">
+      <c r="F87" s="48">
+        <v>0</v>
+      </c>
+      <c r="G87" s="48">
+        <v>0</v>
+      </c>
+      <c r="H87" s="48">
+        <v>0</v>
+      </c>
+      <c r="I87" s="48">
         <v>5</v>
       </c>
-      <c r="J87" s="49">
+      <c r="J87" s="48">
         <v>9</v>
       </c>
-      <c r="K87" s="49">
+      <c r="K87" s="48">
         <v>52</v>
       </c>
-      <c r="L87" s="49">
+      <c r="L87" s="48">
         <v>2</v>
       </c>
-      <c r="M87" s="49">
-        <v>0</v>
-      </c>
-      <c r="N87" s="49">
-        <v>0</v>
-      </c>
-      <c r="O87" s="49">
-        <v>0</v>
-      </c>
-      <c r="P87" s="49">
+      <c r="M87" s="48">
+        <v>0</v>
+      </c>
+      <c r="N87" s="48">
+        <v>0</v>
+      </c>
+      <c r="O87" s="48">
+        <v>0</v>
+      </c>
+      <c r="P87" s="48">
         <v>2</v>
       </c>
-      <c r="Q87" s="49" t="s">
+      <c r="Q87" s="48" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="50">
+      <c r="A88" s="49">
         <v>44737</v>
       </c>
-      <c r="B88" s="49">
+      <c r="B88" s="48">
         <v>4</v>
       </c>
-      <c r="C88" s="49">
+      <c r="C88" s="48">
         <v>20</v>
       </c>
-      <c r="D88" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="49">
+      <c r="D88" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="51">
         <v>44</v>
       </c>
-      <c r="F88" s="49">
-        <v>0</v>
-      </c>
-      <c r="G88" s="49">
-        <v>0</v>
-      </c>
-      <c r="H88" s="49">
-        <v>0</v>
-      </c>
-      <c r="I88" s="49">
-        <v>0</v>
-      </c>
-      <c r="J88" s="49">
-        <v>0</v>
-      </c>
-      <c r="K88" s="49">
+      <c r="F88" s="48">
+        <v>0</v>
+      </c>
+      <c r="G88" s="48">
+        <v>0</v>
+      </c>
+      <c r="H88" s="48">
+        <v>0</v>
+      </c>
+      <c r="I88" s="48">
+        <v>0</v>
+      </c>
+      <c r="J88" s="48">
+        <v>0</v>
+      </c>
+      <c r="K88" s="48">
         <v>31</v>
       </c>
-      <c r="L88" s="49">
+      <c r="L88" s="48">
         <v>18</v>
       </c>
-      <c r="M88" s="49">
-        <v>0</v>
-      </c>
-      <c r="N88" s="49">
-        <v>0</v>
-      </c>
-      <c r="O88" s="49">
+      <c r="M88" s="48">
+        <v>0</v>
+      </c>
+      <c r="N88" s="48">
+        <v>0</v>
+      </c>
+      <c r="O88" s="48">
         <v>7</v>
       </c>
-      <c r="P88" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="49"/>
+      <c r="P88" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="48"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="50">
+      <c r="A89" s="49">
         <v>44737</v>
       </c>
-      <c r="B89" s="49">
+      <c r="B89" s="48">
         <v>4</v>
       </c>
-      <c r="C89" s="49">
+      <c r="C89" s="48">
         <v>21</v>
       </c>
-      <c r="D89" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="49">
+      <c r="D89" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="51">
         <v>76</v>
       </c>
-      <c r="F89" s="49">
-        <v>0</v>
-      </c>
-      <c r="G89" s="49">
-        <v>0</v>
-      </c>
-      <c r="H89" s="49">
-        <v>0</v>
-      </c>
-      <c r="I89" s="49">
-        <v>0</v>
-      </c>
-      <c r="J89" s="49">
-        <v>0</v>
-      </c>
-      <c r="K89" s="49">
+      <c r="F89" s="48">
+        <v>0</v>
+      </c>
+      <c r="G89" s="48">
+        <v>0</v>
+      </c>
+      <c r="H89" s="48">
+        <v>0</v>
+      </c>
+      <c r="I89" s="48">
+        <v>0</v>
+      </c>
+      <c r="J89" s="48">
+        <v>0</v>
+      </c>
+      <c r="K89" s="48">
         <v>4</v>
       </c>
-      <c r="L89" s="49">
+      <c r="L89" s="48">
         <v>18</v>
       </c>
-      <c r="M89" s="49">
-        <v>0</v>
-      </c>
-      <c r="N89" s="49">
-        <v>0</v>
-      </c>
-      <c r="O89" s="49">
+      <c r="M89" s="48">
+        <v>0</v>
+      </c>
+      <c r="N89" s="48">
+        <v>0</v>
+      </c>
+      <c r="O89" s="48">
         <v>2</v>
       </c>
-      <c r="P89" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="49"/>
+      <c r="P89" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="48"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="50">
+      <c r="A90" s="49">
         <v>44737</v>
       </c>
-      <c r="B90" s="49">
+      <c r="B90" s="48">
         <v>4</v>
       </c>
-      <c r="C90" s="49">
+      <c r="C90" s="48">
         <v>22</v>
       </c>
-      <c r="D90" s="49" t="s">
+      <c r="D90" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E90" s="49">
+      <c r="E90" s="51">
         <v>27</v>
       </c>
-      <c r="F90" s="49">
-        <v>0</v>
-      </c>
-      <c r="G90" s="49">
-        <v>0</v>
-      </c>
-      <c r="H90" s="49">
+      <c r="F90" s="48">
+        <v>0</v>
+      </c>
+      <c r="G90" s="48">
+        <v>0</v>
+      </c>
+      <c r="H90" s="48">
         <v>2</v>
       </c>
-      <c r="I90" s="49">
-        <v>0</v>
-      </c>
-      <c r="J90" s="49">
-        <v>0</v>
-      </c>
-      <c r="K90" s="49">
+      <c r="I90" s="48">
+        <v>0</v>
+      </c>
+      <c r="J90" s="48">
+        <v>0</v>
+      </c>
+      <c r="K90" s="48">
         <v>14</v>
       </c>
-      <c r="L90" s="49">
+      <c r="L90" s="48">
         <v>54</v>
       </c>
-      <c r="M90" s="49">
-        <v>0</v>
-      </c>
-      <c r="N90" s="49">
-        <v>0</v>
-      </c>
-      <c r="O90" s="49">
+      <c r="M90" s="48">
+        <v>0</v>
+      </c>
+      <c r="N90" s="48">
+        <v>0</v>
+      </c>
+      <c r="O90" s="48">
         <v>3</v>
       </c>
-      <c r="P90" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="49"/>
+      <c r="P90" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="48"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="50">
+      <c r="A91" s="49">
         <v>44737</v>
       </c>
-      <c r="B91" s="49">
+      <c r="B91" s="48">
         <v>4</v>
       </c>
-      <c r="C91" s="49">
+      <c r="C91" s="48">
         <v>23</v>
       </c>
-      <c r="D91" s="49" t="s">
+      <c r="D91" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="49">
+      <c r="E91" s="51">
         <v>36</v>
       </c>
-      <c r="F91" s="49">
-        <v>0</v>
-      </c>
-      <c r="G91" s="49">
-        <v>0</v>
-      </c>
-      <c r="H91" s="49">
-        <v>1</v>
-      </c>
-      <c r="I91" s="49">
-        <v>0</v>
-      </c>
-      <c r="J91" s="49">
-        <v>0</v>
-      </c>
-      <c r="K91" s="49">
+      <c r="F91" s="48">
+        <v>0</v>
+      </c>
+      <c r="G91" s="48">
+        <v>0</v>
+      </c>
+      <c r="H91" s="48">
+        <v>1</v>
+      </c>
+      <c r="I91" s="48">
+        <v>0</v>
+      </c>
+      <c r="J91" s="48">
+        <v>0</v>
+      </c>
+      <c r="K91" s="48">
         <v>34</v>
       </c>
-      <c r="L91" s="49">
+      <c r="L91" s="48">
         <v>16</v>
       </c>
-      <c r="M91" s="49">
-        <v>0</v>
-      </c>
-      <c r="N91" s="49">
-        <v>0</v>
-      </c>
-      <c r="O91" s="49">
+      <c r="M91" s="48">
+        <v>0</v>
+      </c>
+      <c r="N91" s="48">
+        <v>0</v>
+      </c>
+      <c r="O91" s="48">
         <v>13</v>
       </c>
-      <c r="P91" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="49"/>
+      <c r="P91" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="48"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="50">
+      <c r="A92" s="49">
         <v>44737</v>
       </c>
-      <c r="B92" s="49">
+      <c r="B92" s="48">
         <v>4</v>
       </c>
-      <c r="C92" s="49">
+      <c r="C92" s="48">
         <v>24</v>
       </c>
-      <c r="D92" s="49" t="s">
+      <c r="D92" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="49">
+      <c r="E92" s="51">
         <v>80</v>
       </c>
-      <c r="F92" s="49">
-        <v>0</v>
-      </c>
-      <c r="G92" s="49">
-        <v>0</v>
-      </c>
-      <c r="H92" s="49">
-        <v>0</v>
-      </c>
-      <c r="I92" s="49">
-        <v>0</v>
-      </c>
-      <c r="J92" s="49">
-        <v>0</v>
-      </c>
-      <c r="K92" s="49">
+      <c r="F92" s="48">
+        <v>0</v>
+      </c>
+      <c r="G92" s="48">
+        <v>0</v>
+      </c>
+      <c r="H92" s="48">
+        <v>0</v>
+      </c>
+      <c r="I92" s="48">
+        <v>0</v>
+      </c>
+      <c r="J92" s="48">
+        <v>0</v>
+      </c>
+      <c r="K92" s="48">
         <v>8</v>
       </c>
-      <c r="L92" s="49">
+      <c r="L92" s="48">
         <v>7</v>
       </c>
-      <c r="M92" s="49">
-        <v>0</v>
-      </c>
-      <c r="N92" s="49">
-        <v>0</v>
-      </c>
-      <c r="O92" s="49">
+      <c r="M92" s="48">
+        <v>0</v>
+      </c>
+      <c r="N92" s="48">
+        <v>0</v>
+      </c>
+      <c r="O92" s="48">
         <v>5</v>
       </c>
-      <c r="P92" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="49"/>
+      <c r="P92" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="48"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="50">
+      <c r="A93" s="49">
         <v>44737</v>
       </c>
-      <c r="B93" s="49">
+      <c r="B93" s="48">
         <v>4</v>
       </c>
-      <c r="C93" s="49">
+      <c r="C93" s="48">
         <v>25</v>
       </c>
-      <c r="D93" s="49" t="s">
+      <c r="D93" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="49">
+      <c r="E93" s="51">
         <v>41</v>
       </c>
-      <c r="F93" s="49">
-        <v>0</v>
-      </c>
-      <c r="G93" s="49">
-        <v>0</v>
-      </c>
-      <c r="H93" s="49">
+      <c r="F93" s="48">
+        <v>0</v>
+      </c>
+      <c r="G93" s="48">
+        <v>0</v>
+      </c>
+      <c r="H93" s="48">
         <v>2</v>
       </c>
-      <c r="I93" s="49">
+      <c r="I93" s="48">
         <v>17</v>
       </c>
-      <c r="J93" s="49">
-        <v>0</v>
-      </c>
-      <c r="K93" s="49">
+      <c r="J93" s="48">
+        <v>0</v>
+      </c>
+      <c r="K93" s="48">
         <v>33</v>
       </c>
-      <c r="L93" s="49">
+      <c r="L93" s="48">
         <v>6</v>
       </c>
-      <c r="M93" s="49">
-        <v>0</v>
-      </c>
-      <c r="N93" s="49">
-        <v>0</v>
-      </c>
-      <c r="O93" s="49">
-        <v>1</v>
-      </c>
-      <c r="P93" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="49"/>
+      <c r="M93" s="48">
+        <v>0</v>
+      </c>
+      <c r="N93" s="48">
+        <v>0</v>
+      </c>
+      <c r="O93" s="48">
+        <v>1</v>
+      </c>
+      <c r="P93" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="48"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="50">
+      <c r="A94" s="49">
         <v>44737</v>
       </c>
-      <c r="B94" s="49">
+      <c r="B94" s="48">
         <v>4</v>
       </c>
-      <c r="C94" s="49">
+      <c r="C94" s="48">
         <v>26</v>
       </c>
-      <c r="D94" s="49" t="s">
+      <c r="D94" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E94" s="49">
+      <c r="E94" s="51">
         <v>27</v>
       </c>
-      <c r="F94" s="49">
-        <v>0</v>
-      </c>
-      <c r="G94" s="49">
-        <v>0</v>
-      </c>
-      <c r="H94" s="49">
-        <v>0</v>
-      </c>
-      <c r="I94" s="49">
+      <c r="F94" s="48">
+        <v>0</v>
+      </c>
+      <c r="G94" s="48">
+        <v>0</v>
+      </c>
+      <c r="H94" s="48">
+        <v>0</v>
+      </c>
+      <c r="I94" s="48">
         <v>56</v>
       </c>
-      <c r="J94" s="49">
-        <v>0</v>
-      </c>
-      <c r="K94" s="49">
+      <c r="J94" s="48">
+        <v>0</v>
+      </c>
+      <c r="K94" s="48">
         <v>17</v>
       </c>
-      <c r="L94" s="49">
-        <v>0</v>
-      </c>
-      <c r="M94" s="49">
-        <v>0</v>
-      </c>
-      <c r="N94" s="49">
-        <v>0</v>
-      </c>
-      <c r="O94" s="49">
-        <v>0</v>
-      </c>
-      <c r="P94" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="49"/>
+      <c r="L94" s="48">
+        <v>0</v>
+      </c>
+      <c r="M94" s="48">
+        <v>0</v>
+      </c>
+      <c r="N94" s="48">
+        <v>0</v>
+      </c>
+      <c r="O94" s="48">
+        <v>0</v>
+      </c>
+      <c r="P94" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="48"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="50">
+      <c r="A95" s="49">
         <v>44737</v>
       </c>
-      <c r="B95" s="49">
+      <c r="B95" s="48">
         <v>4</v>
       </c>
-      <c r="C95" s="49">
+      <c r="C95" s="48">
         <v>27</v>
       </c>
-      <c r="D95" s="49" t="s">
+      <c r="D95" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E95" s="49">
+      <c r="E95" s="51">
         <v>73</v>
       </c>
-      <c r="F95" s="49">
-        <v>0</v>
-      </c>
-      <c r="G95" s="49">
-        <v>0</v>
-      </c>
-      <c r="H95" s="49">
+      <c r="F95" s="48">
+        <v>0</v>
+      </c>
+      <c r="G95" s="48">
+        <v>0</v>
+      </c>
+      <c r="H95" s="48">
         <v>6</v>
       </c>
-      <c r="I95" s="49">
+      <c r="I95" s="48">
         <v>3</v>
       </c>
-      <c r="J95" s="49">
-        <v>0</v>
-      </c>
-      <c r="K95" s="49">
+      <c r="J95" s="48">
+        <v>0</v>
+      </c>
+      <c r="K95" s="48">
         <v>5</v>
       </c>
-      <c r="L95" s="49">
+      <c r="L95" s="48">
         <v>13</v>
       </c>
-      <c r="M95" s="49">
-        <v>0</v>
-      </c>
-      <c r="N95" s="49">
-        <v>0</v>
-      </c>
-      <c r="O95" s="49">
-        <v>0</v>
-      </c>
-      <c r="P95" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="49"/>
+      <c r="M95" s="48">
+        <v>0</v>
+      </c>
+      <c r="N95" s="48">
+        <v>0</v>
+      </c>
+      <c r="O95" s="48">
+        <v>0</v>
+      </c>
+      <c r="P95" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="48"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="50">
+      <c r="A96" s="49">
         <v>44737</v>
       </c>
-      <c r="B96" s="49">
+      <c r="B96" s="48">
         <v>4</v>
       </c>
-      <c r="C96" s="49">
+      <c r="C96" s="48">
         <v>28</v>
       </c>
-      <c r="D96" s="49" t="s">
+      <c r="D96" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="49">
+      <c r="E96" s="51">
         <v>30</v>
       </c>
-      <c r="F96" s="49">
-        <v>0</v>
-      </c>
-      <c r="G96" s="49">
-        <v>0</v>
-      </c>
-      <c r="H96" s="49">
-        <v>0</v>
-      </c>
-      <c r="I96" s="49">
+      <c r="F96" s="48">
+        <v>0</v>
+      </c>
+      <c r="G96" s="48">
+        <v>0</v>
+      </c>
+      <c r="H96" s="48">
+        <v>0</v>
+      </c>
+      <c r="I96" s="48">
         <v>2</v>
       </c>
-      <c r="J96" s="49">
-        <v>0</v>
-      </c>
-      <c r="K96" s="49">
+      <c r="J96" s="48">
+        <v>0</v>
+      </c>
+      <c r="K96" s="48">
         <v>34</v>
       </c>
-      <c r="L96" s="49">
+      <c r="L96" s="48">
         <v>30</v>
       </c>
-      <c r="M96" s="49">
-        <v>0</v>
-      </c>
-      <c r="N96" s="49">
-        <v>0</v>
-      </c>
-      <c r="O96" s="49">
+      <c r="M96" s="48">
+        <v>0</v>
+      </c>
+      <c r="N96" s="48">
+        <v>0</v>
+      </c>
+      <c r="O96" s="48">
         <v>4</v>
       </c>
-      <c r="P96" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="49"/>
+      <c r="P96" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="48"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="50">
+      <c r="A97" s="49">
         <v>44737</v>
       </c>
-      <c r="B97" s="49">
+      <c r="B97" s="48">
         <v>4</v>
       </c>
-      <c r="C97" s="49">
+      <c r="C97" s="48">
         <v>29</v>
       </c>
-      <c r="D97" s="49" t="s">
+      <c r="D97" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="49">
+      <c r="E97" s="51">
         <v>51</v>
       </c>
-      <c r="F97" s="49">
-        <v>0</v>
-      </c>
-      <c r="G97" s="49">
-        <v>0</v>
-      </c>
-      <c r="H97" s="49">
+      <c r="F97" s="48">
+        <v>0</v>
+      </c>
+      <c r="G97" s="48">
+        <v>0</v>
+      </c>
+      <c r="H97" s="48">
         <v>8</v>
       </c>
-      <c r="I97" s="49">
+      <c r="I97" s="48">
         <v>2</v>
       </c>
-      <c r="J97" s="49">
+      <c r="J97" s="48">
         <v>4</v>
       </c>
-      <c r="K97" s="49">
+      <c r="K97" s="48">
         <v>24</v>
       </c>
-      <c r="L97" s="49">
+      <c r="L97" s="48">
         <v>10</v>
       </c>
-      <c r="M97" s="49">
-        <v>0</v>
-      </c>
-      <c r="N97" s="49">
-        <v>0</v>
-      </c>
-      <c r="O97" s="49">
-        <v>1</v>
-      </c>
-      <c r="P97" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="49"/>
+      <c r="M97" s="48">
+        <v>0</v>
+      </c>
+      <c r="N97" s="48">
+        <v>0</v>
+      </c>
+      <c r="O97" s="48">
+        <v>1</v>
+      </c>
+      <c r="P97" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="48"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="50">
+      <c r="A98" s="49">
         <v>44737</v>
       </c>
-      <c r="B98" s="49">
+      <c r="B98" s="48">
         <v>4</v>
       </c>
-      <c r="C98" s="49">
+      <c r="C98" s="48">
         <v>30</v>
       </c>
-      <c r="D98" s="49" t="s">
+      <c r="D98" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="49">
+      <c r="E98" s="51">
         <v>54</v>
       </c>
-      <c r="F98" s="49">
-        <v>0</v>
-      </c>
-      <c r="G98" s="49">
-        <v>0</v>
-      </c>
-      <c r="H98" s="49">
-        <v>0</v>
-      </c>
-      <c r="I98" s="49">
-        <v>0</v>
-      </c>
-      <c r="J98" s="49">
-        <v>0</v>
-      </c>
-      <c r="K98" s="49">
+      <c r="F98" s="48">
+        <v>0</v>
+      </c>
+      <c r="G98" s="48">
+        <v>0</v>
+      </c>
+      <c r="H98" s="48">
+        <v>0</v>
+      </c>
+      <c r="I98" s="48">
+        <v>0</v>
+      </c>
+      <c r="J98" s="48">
+        <v>0</v>
+      </c>
+      <c r="K98" s="48">
         <v>40</v>
       </c>
-      <c r="L98" s="49">
+      <c r="L98" s="48">
         <v>6</v>
       </c>
-      <c r="M98" s="49">
-        <v>0</v>
-      </c>
-      <c r="N98" s="49">
-        <v>0</v>
-      </c>
-      <c r="O98" s="49">
-        <v>0</v>
-      </c>
-      <c r="P98" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="49"/>
+      <c r="M98" s="48">
+        <v>0</v>
+      </c>
+      <c r="N98" s="48">
+        <v>0</v>
+      </c>
+      <c r="O98" s="48">
+        <v>0</v>
+      </c>
+      <c r="P98" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="48"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="50">
+      <c r="A99" s="49">
         <v>44737</v>
       </c>
-      <c r="B99" s="49">
+      <c r="B99" s="48">
         <v>4</v>
       </c>
-      <c r="C99" s="49">
+      <c r="C99" s="48">
         <v>31</v>
       </c>
-      <c r="D99" s="49" t="s">
+      <c r="D99" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E99" s="49">
+      <c r="E99" s="51">
         <v>23</v>
       </c>
-      <c r="F99" s="49">
-        <v>0</v>
-      </c>
-      <c r="G99" s="49">
-        <v>0</v>
-      </c>
-      <c r="H99" s="49">
-        <v>0</v>
-      </c>
-      <c r="I99" s="49">
-        <v>0</v>
-      </c>
-      <c r="J99" s="49">
-        <v>1</v>
-      </c>
-      <c r="K99" s="49">
+      <c r="F99" s="48">
+        <v>0</v>
+      </c>
+      <c r="G99" s="48">
+        <v>0</v>
+      </c>
+      <c r="H99" s="48">
+        <v>0</v>
+      </c>
+      <c r="I99" s="48">
+        <v>0</v>
+      </c>
+      <c r="J99" s="48">
+        <v>1</v>
+      </c>
+      <c r="K99" s="48">
         <v>74</v>
       </c>
-      <c r="L99" s="49">
-        <v>0</v>
-      </c>
-      <c r="M99" s="49">
-        <v>0</v>
-      </c>
-      <c r="N99" s="49">
-        <v>0</v>
-      </c>
-      <c r="O99" s="49">
+      <c r="L99" s="48">
+        <v>0</v>
+      </c>
+      <c r="M99" s="48">
+        <v>0</v>
+      </c>
+      <c r="N99" s="48">
+        <v>0</v>
+      </c>
+      <c r="O99" s="48">
         <v>2</v>
       </c>
-      <c r="P99" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="49"/>
+      <c r="P99" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="48"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="50">
+      <c r="A100" s="49">
         <v>44737</v>
       </c>
-      <c r="B100" s="49">
+      <c r="B100" s="48">
         <v>4</v>
       </c>
-      <c r="C100" s="49">
+      <c r="C100" s="48">
         <v>32</v>
       </c>
-      <c r="D100" s="49" t="s">
+      <c r="D100" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E100" s="49">
+      <c r="E100" s="51">
         <v>60</v>
       </c>
-      <c r="F100" s="49">
-        <v>0</v>
-      </c>
-      <c r="G100" s="49">
-        <v>0</v>
-      </c>
-      <c r="H100" s="49">
-        <v>0</v>
-      </c>
-      <c r="I100" s="49">
-        <v>0</v>
-      </c>
-      <c r="J100" s="49">
-        <v>1</v>
-      </c>
-      <c r="K100" s="49">
+      <c r="F100" s="48">
+        <v>0</v>
+      </c>
+      <c r="G100" s="48">
+        <v>0</v>
+      </c>
+      <c r="H100" s="48">
+        <v>0</v>
+      </c>
+      <c r="I100" s="48">
+        <v>0</v>
+      </c>
+      <c r="J100" s="48">
+        <v>1</v>
+      </c>
+      <c r="K100" s="48">
         <v>39</v>
       </c>
-      <c r="L100" s="49">
-        <v>0</v>
-      </c>
-      <c r="M100" s="49">
-        <v>0</v>
-      </c>
-      <c r="N100" s="49">
-        <v>0</v>
-      </c>
-      <c r="O100" s="49">
-        <v>0</v>
-      </c>
-      <c r="P100" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="49"/>
+      <c r="L100" s="48">
+        <v>0</v>
+      </c>
+      <c r="M100" s="48">
+        <v>0</v>
+      </c>
+      <c r="N100" s="48">
+        <v>0</v>
+      </c>
+      <c r="O100" s="48">
+        <v>0</v>
+      </c>
+      <c r="P100" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14444,6 +14562,575 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9407165A-A7A6-43A0-A3D8-8BABE8B3F28F}">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="55">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="53"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="K5" s="53"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="53"/>
+      <c r="K6" s="53"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="55">
+        <v>1.6</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="K7" s="53"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="55">
+        <v>1.7</v>
+      </c>
+      <c r="D8" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="53"/>
+      <c r="K8" s="53"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="55">
+        <v>1.9</v>
+      </c>
+      <c r="D9" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="K9" s="53"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="K10" s="53"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="53"/>
+      <c r="K11" s="53"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="K12" s="53"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="55">
+        <v>2.16</v>
+      </c>
+      <c r="D13" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="53"/>
+      <c r="K13" s="53"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="53"/>
+      <c r="K14" s="53"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="K15" s="53"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="K16" s="53"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D17" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="K17" s="53"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="55">
+        <v>2.7</v>
+      </c>
+      <c r="D18" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="K18" s="53"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="55">
+        <v>2.8</v>
+      </c>
+      <c r="D19" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="53"/>
+      <c r="K19" s="53"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="55">
+        <v>2.9</v>
+      </c>
+      <c r="D20" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="53"/>
+      <c r="K20" s="53"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="K21" s="53"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="58">
+        <v>3.12</v>
+      </c>
+      <c r="D22" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="53"/>
+      <c r="K22" s="53"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="53"/>
+      <c r="K23" s="53"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="K24" s="53"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="55">
+        <v>3.4</v>
+      </c>
+      <c r="D25" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="K25" s="53"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="55">
+        <v>3.5</v>
+      </c>
+      <c r="D26" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="K26" s="53"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="K27" s="53"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="K28" s="53"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="53"/>
+      <c r="K29" s="53"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="53"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="53"/>
+      <c r="K30" s="53"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="K31" s="53"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
+    <sortCondition ref="C2:C42"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5379496-B6C4-421B-9D7D-11C06426F583}">
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -15201,7 +15888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189E8B87-5352-4744-80B4-5F5CE2682B04}">
   <dimension ref="A1:E40"/>
   <sheetViews>
@@ -15219,13 +15906,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -15260,11 +15947,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="8" t="s">
         <v>77</v>
       </c>
@@ -15558,11 +16245,11 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="8" t="s">
         <v>74</v>
       </c>

--- a/round bald datas/round bald data.xlsx
+++ b/round bald datas/round bald data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhi\OneDrive\Desktop\boopz\thesis\round bald datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75164FC-6DBB-4361-A305-0EBD35763209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0B9353-EC00-480C-8378-F813BE8FA96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C93C8A9F-749A-4500-9DE3-023D8B4996BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C93C8A9F-749A-4500-9DE3-023D8B4996BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6DF77C-F4C9-40DD-B173-895D836B5FA9}">
   <dimension ref="A1:AG103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -8159,7 +8159,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13304,7 +13304,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13352,7 +13352,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3">
         <v>1.21</v>
@@ -13379,7 +13379,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3">
         <v>1.22</v>
@@ -13408,7 +13408,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3">
         <v>2.14</v>
@@ -13433,7 +13433,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C5" s="6">
         <v>2.2000000000000002</v>
@@ -13462,7 +13462,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3">
         <v>4.24</v>
@@ -13487,7 +13487,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C7" s="6">
         <v>4.3</v>
@@ -13514,7 +13514,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C8" s="3">
         <v>1.1299999999999999</v>
@@ -13539,7 +13539,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C9" s="3">
         <v>1.1599999999999999</v>
@@ -13566,7 +13566,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3">
         <v>2.16</v>
@@ -13591,7 +13591,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3">
         <v>3.8</v>
@@ -13616,7 +13616,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C12" s="6">
         <v>3.1</v>
@@ -13641,7 +13641,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3">
         <v>3.23</v>
@@ -13666,7 +13666,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3">
         <v>2.7</v>
@@ -13689,7 +13689,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3">
         <v>2.8</v>
@@ -13716,7 +13716,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C16" s="3">
         <v>4.8</v>
@@ -13739,7 +13739,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C17" s="3">
         <v>4.13</v>
@@ -13768,7 +13768,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3">
         <v>4.16</v>
@@ -13791,7 +13791,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3">
         <v>4.17</v>
@@ -13818,7 +13818,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3">
         <v>1.6</v>
@@ -13841,7 +13841,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C21" s="3">
         <v>1.7</v>
@@ -13864,7 +13864,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C22" s="6">
         <v>1.1000000000000001</v>
@@ -13887,7 +13887,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C23" s="3">
         <v>3.4</v>
@@ -13912,7 +13912,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C24" s="3">
         <v>3.7</v>
@@ -13935,7 +13935,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C25" s="3">
         <v>4.18</v>
@@ -14081,8 +14081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9407165A-A7A6-43A0-A3D8-8BABE8B3F28F}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/round bald datas/round bald data.xlsx
+++ b/round bald datas/round bald data.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhi\OneDrive\Desktop\boopz\thesis\round bald datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0B9353-EC00-480C-8378-F813BE8FA96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E4B0E0-EB2A-4FBB-9966-149671C9A2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C93C8A9F-749A-4500-9DE3-023D8B4996BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{C93C8A9F-749A-4500-9DE3-023D8B4996BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
     <sheet name="Ground Cover" sheetId="2" r:id="rId2"/>
-    <sheet name="Soil Sample 2022" sheetId="5" r:id="rId3"/>
+    <sheet name="Soil Samples 2022" sheetId="5" r:id="rId3"/>
     <sheet name="Soil Samples 2023" sheetId="7" r:id="rId4"/>
-    <sheet name="Seeds" sheetId="9" r:id="rId5"/>
-    <sheet name="Randomizer" sheetId="3" r:id="rId6"/>
+    <sheet name="Soil Samples" sheetId="10" r:id="rId5"/>
+    <sheet name="Shannon Diversity" sheetId="12" r:id="rId6"/>
+    <sheet name="Seeds" sheetId="9" r:id="rId7"/>
+    <sheet name="Randomizer" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="125">
   <si>
     <t>Transect</t>
   </si>
@@ -314,14 +316,117 @@
   <si>
     <t>3.29</t>
   </si>
+  <si>
+    <t>rb2.3.23</t>
+  </si>
+  <si>
+    <t>rb3.5.23</t>
+  </si>
+  <si>
+    <t>rb4.18.23</t>
+  </si>
+  <si>
+    <t>rb2.9.23</t>
+  </si>
+  <si>
+    <t>rb2.7.23</t>
+  </si>
+  <si>
+    <t>rb4.16.23</t>
+  </si>
+  <si>
+    <t>rb2.8.23</t>
+  </si>
+  <si>
+    <t>rb4.17.23</t>
+  </si>
+  <si>
+    <t>rb2.16.23</t>
+  </si>
+  <si>
+    <t>rb2.12.23</t>
+  </si>
+  <si>
+    <t>rb1.18.23</t>
+  </si>
+  <si>
+    <t>rb1.21.23</t>
+  </si>
+  <si>
+    <t>rb2.20.23</t>
+  </si>
+  <si>
+    <t>rb4.27.23</t>
+  </si>
+  <si>
+    <t>rb4.30.23</t>
+  </si>
+  <si>
+    <t>rb1.21.22</t>
+  </si>
+  <si>
+    <t>rb1.22.22</t>
+  </si>
+  <si>
+    <t>rb2.14.22</t>
+  </si>
+  <si>
+    <t>rb2.20.22</t>
+  </si>
+  <si>
+    <t>rb4.24.22</t>
+  </si>
+  <si>
+    <t>rb4.30.22</t>
+  </si>
+  <si>
+    <t>rb1.13.22</t>
+  </si>
+  <si>
+    <t>rb1.16.22</t>
+  </si>
+  <si>
+    <t>rb2.16.22</t>
+  </si>
+  <si>
+    <t>rb3.8.22</t>
+  </si>
+  <si>
+    <t>rb3.10.22</t>
+  </si>
+  <si>
+    <t>rb3.23.22</t>
+  </si>
+  <si>
+    <t>rb2.8.22</t>
+  </si>
+  <si>
+    <t>rb4.8.22</t>
+  </si>
+  <si>
+    <t>rb4.13.22</t>
+  </si>
+  <si>
+    <t>rb4.17.22</t>
+  </si>
+  <si>
+    <t>rb3.4.22</t>
+  </si>
+  <si>
+    <t>rb4.18.22</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -367,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -419,6 +524,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,38 +846,38 @@
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -872,7 +978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -947,7 +1053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1022,7 +1128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1097,7 +1203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1163,7 +1269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1241,7 +1347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1319,7 +1425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1391,7 +1497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1463,7 +1569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1538,7 +1644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1613,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1682,7 +1788,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1751,7 +1857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1823,7 +1929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1898,7 +2004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1976,7 +2082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2051,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2123,7 +2229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2195,7 +2301,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2267,7 +2373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
@@ -2339,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -2411,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -2483,7 +2589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6</v>
       </c>
@@ -2552,7 +2658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2621,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2690,7 +2796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6</v>
       </c>
@@ -2765,7 +2871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2843,7 +2949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6</v>
       </c>
@@ -2924,7 +3030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6</v>
       </c>
@@ -2993,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -3065,7 +3171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6</v>
       </c>
@@ -3134,7 +3240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -3206,7 +3312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6</v>
       </c>
@@ -3275,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6</v>
       </c>
@@ -3347,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6</v>
       </c>
@@ -3422,7 +3528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -3494,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>6</v>
       </c>
@@ -3566,7 +3672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>6</v>
       </c>
@@ -3638,7 +3744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6</v>
       </c>
@@ -3713,7 +3819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>6</v>
       </c>
@@ -3782,7 +3888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>6</v>
       </c>
@@ -3860,7 +3966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -3932,7 +4038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4001,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>6</v>
       </c>
@@ -4070,7 +4176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>6</v>
       </c>
@@ -4160,7 +4266,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>6</v>
       </c>
@@ -4235,7 +4341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>6</v>
       </c>
@@ -4310,7 +4416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -4388,7 +4494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>6</v>
       </c>
@@ -4460,7 +4566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6</v>
       </c>
@@ -4535,7 +4641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>6</v>
       </c>
@@ -4604,7 +4710,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6</v>
       </c>
@@ -4676,7 +4782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6</v>
       </c>
@@ -4748,7 +4854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>6</v>
       </c>
@@ -4817,7 +4923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6</v>
       </c>
@@ -4895,7 +5001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>6</v>
       </c>
@@ -4970,7 +5076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
@@ -5045,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>6</v>
       </c>
@@ -5120,7 +5226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6</v>
       </c>
@@ -5198,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6</v>
       </c>
@@ -5273,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6</v>
       </c>
@@ -5339,7 +5445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6</v>
       </c>
@@ -5408,7 +5514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -5480,7 +5586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6</v>
       </c>
@@ -5549,7 +5655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6</v>
       </c>
@@ -5621,7 +5727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6</v>
       </c>
@@ -5693,7 +5799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6</v>
       </c>
@@ -5762,7 +5868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6</v>
       </c>
@@ -5831,7 +5937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6</v>
       </c>
@@ -5906,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6</v>
       </c>
@@ -5981,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>6</v>
       </c>
@@ -6053,7 +6159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>6</v>
       </c>
@@ -6128,7 +6234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>6</v>
       </c>
@@ -6203,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>6</v>
       </c>
@@ -6272,7 +6378,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>6</v>
       </c>
@@ -6341,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>6</v>
       </c>
@@ -6419,7 +6525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>6</v>
       </c>
@@ -6494,7 +6600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>6</v>
       </c>
@@ -6572,7 +6678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>6</v>
       </c>
@@ -6641,7 +6747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>6</v>
       </c>
@@ -6716,7 +6822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>6</v>
       </c>
@@ -6791,7 +6897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>6</v>
       </c>
@@ -6869,7 +6975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>6</v>
       </c>
@@ -6947,7 +7053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>6</v>
       </c>
@@ -7028,7 +7134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>6</v>
       </c>
@@ -7097,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>6</v>
       </c>
@@ -7181,7 +7287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>6</v>
       </c>
@@ -7253,7 +7359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>6</v>
       </c>
@@ -7325,7 +7431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>6</v>
       </c>
@@ -7400,7 +7506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>6</v>
       </c>
@@ -7475,7 +7581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>6</v>
       </c>
@@ -7547,7 +7653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>6</v>
       </c>
@@ -7625,7 +7731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>6</v>
       </c>
@@ -7694,7 +7800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>6</v>
       </c>
@@ -7769,7 +7875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>6</v>
       </c>
@@ -7844,7 +7950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>6</v>
       </c>
@@ -7925,7 +8031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>6</v>
       </c>
@@ -7994,7 +8100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>6</v>
       </c>
@@ -8066,7 +8172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>6</v>
       </c>
@@ -8135,13 +8241,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N103" s="1"/>
     </row>
   </sheetData>
@@ -8158,30 +8264,30 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
@@ -8234,7 +8340,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44723</v>
       </c>
@@ -8285,7 +8391,7 @@
       </c>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44723</v>
       </c>
@@ -8338,7 +8444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44723</v>
       </c>
@@ -8389,7 +8495,7 @@
       </c>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44723</v>
       </c>
@@ -8440,7 +8546,7 @@
       </c>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44723</v>
       </c>
@@ -8491,7 +8597,7 @@
       </c>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44723</v>
       </c>
@@ -8544,7 +8650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44724</v>
       </c>
@@ -8595,7 +8701,7 @@
       </c>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44724</v>
       </c>
@@ -8646,7 +8752,7 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44724</v>
       </c>
@@ -8697,7 +8803,7 @@
       </c>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44724</v>
       </c>
@@ -8748,7 +8854,7 @@
       </c>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44724</v>
       </c>
@@ -8799,7 +8905,7 @@
       </c>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44724</v>
       </c>
@@ -8850,7 +8956,7 @@
       </c>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44724</v>
       </c>
@@ -8901,7 +9007,7 @@
       </c>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44724</v>
       </c>
@@ -8952,7 +9058,7 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44724</v>
       </c>
@@ -9003,7 +9109,7 @@
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44724</v>
       </c>
@@ -9054,7 +9160,7 @@
       </c>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44724</v>
       </c>
@@ -9105,7 +9211,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44729</v>
       </c>
@@ -9156,7 +9262,7 @@
       </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44729</v>
       </c>
@@ -9207,7 +9313,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44729</v>
       </c>
@@ -9258,7 +9364,7 @@
       </c>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44729</v>
       </c>
@@ -9309,7 +9415,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44729</v>
       </c>
@@ -9360,7 +9466,7 @@
       </c>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44729</v>
       </c>
@@ -9411,7 +9517,7 @@
       </c>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44729</v>
       </c>
@@ -9462,7 +9568,7 @@
       </c>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44729</v>
       </c>
@@ -9513,7 +9619,7 @@
       </c>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44729</v>
       </c>
@@ -9566,7 +9672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44729</v>
       </c>
@@ -9617,7 +9723,7 @@
       </c>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44731</v>
       </c>
@@ -9668,7 +9774,7 @@
       </c>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44731</v>
       </c>
@@ -9719,7 +9825,7 @@
       </c>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44731</v>
       </c>
@@ -9770,7 +9876,7 @@
       </c>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44731</v>
       </c>
@@ -9821,7 +9927,7 @@
       </c>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>44731</v>
       </c>
@@ -9872,7 +9978,7 @@
       </c>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44731</v>
       </c>
@@ -9923,7 +10029,7 @@
       </c>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>44731</v>
       </c>
@@ -9974,7 +10080,7 @@
       </c>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>44731</v>
       </c>
@@ -10025,7 +10131,7 @@
       </c>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>44731</v>
       </c>
@@ -10076,7 +10182,7 @@
       </c>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>44731</v>
       </c>
@@ -10127,7 +10233,7 @@
       </c>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>44731</v>
       </c>
@@ -10178,7 +10284,7 @@
       </c>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>44731</v>
       </c>
@@ -10229,7 +10335,7 @@
       </c>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>44731</v>
       </c>
@@ -10280,7 +10386,7 @@
       </c>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>44731</v>
       </c>
@@ -10331,7 +10437,7 @@
       </c>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>44731</v>
       </c>
@@ -10382,7 +10488,7 @@
       </c>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>44731</v>
       </c>
@@ -10433,7 +10539,7 @@
       </c>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>44731</v>
       </c>
@@ -10484,7 +10590,7 @@
       </c>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>44731</v>
       </c>
@@ -10537,7 +10643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>44731</v>
       </c>
@@ -10588,7 +10694,7 @@
       </c>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>44731</v>
       </c>
@@ -10639,7 +10745,7 @@
       </c>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>44731</v>
       </c>
@@ -10690,7 +10796,7 @@
       </c>
       <c r="Q49" s="8"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>44731</v>
       </c>
@@ -10741,7 +10847,7 @@
       </c>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>44731</v>
       </c>
@@ -10792,7 +10898,7 @@
       </c>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>44731</v>
       </c>
@@ -10843,7 +10949,7 @@
       </c>
       <c r="Q52" s="8"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>44731</v>
       </c>
@@ -10894,7 +11000,7 @@
       </c>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>44731</v>
       </c>
@@ -10945,7 +11051,7 @@
       </c>
       <c r="Q54" s="8"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>44731</v>
       </c>
@@ -10996,7 +11102,7 @@
       </c>
       <c r="Q55" s="8"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>44731</v>
       </c>
@@ -11047,7 +11153,7 @@
       </c>
       <c r="Q56" s="8"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>44731</v>
       </c>
@@ -11098,7 +11204,7 @@
       </c>
       <c r="Q57" s="8"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>44736</v>
       </c>
@@ -11149,7 +11255,7 @@
       </c>
       <c r="Q58" s="8"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>44736</v>
       </c>
@@ -11200,7 +11306,7 @@
       </c>
       <c r="Q59" s="8"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>44736</v>
       </c>
@@ -11251,7 +11357,7 @@
       </c>
       <c r="Q60" s="8"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>44736</v>
       </c>
@@ -11302,7 +11408,7 @@
       </c>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>44736</v>
       </c>
@@ -11353,7 +11459,7 @@
       </c>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>44736</v>
       </c>
@@ -11404,7 +11510,7 @@
       </c>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>44736</v>
       </c>
@@ -11455,7 +11561,7 @@
       </c>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>44736</v>
       </c>
@@ -11506,7 +11612,7 @@
       </c>
       <c r="Q65" s="8"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>44736</v>
       </c>
@@ -11557,7 +11663,7 @@
       </c>
       <c r="Q66" s="8"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>44736</v>
       </c>
@@ -11608,7 +11714,7 @@
       </c>
       <c r="Q67" s="8"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>44736</v>
       </c>
@@ -11659,7 +11765,7 @@
       </c>
       <c r="Q68" s="8"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>44737</v>
       </c>
@@ -11710,7 +11816,7 @@
       </c>
       <c r="Q69" s="8"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>44737</v>
       </c>
@@ -11761,7 +11867,7 @@
       </c>
       <c r="Q70" s="8"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>44737</v>
       </c>
@@ -11812,7 +11918,7 @@
       </c>
       <c r="Q71" s="8"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>44737</v>
       </c>
@@ -11863,7 +11969,7 @@
       </c>
       <c r="Q72" s="8"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>44737</v>
       </c>
@@ -11914,7 +12020,7 @@
       </c>
       <c r="Q73" s="8"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>44737</v>
       </c>
@@ -11965,7 +12071,7 @@
       </c>
       <c r="Q74" s="8"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>44737</v>
       </c>
@@ -12016,7 +12122,7 @@
       </c>
       <c r="Q75" s="8"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>44737</v>
       </c>
@@ -12067,7 +12173,7 @@
       </c>
       <c r="Q76" s="8"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>44737</v>
       </c>
@@ -12118,7 +12224,7 @@
       </c>
       <c r="Q77" s="8"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>44737</v>
       </c>
@@ -12169,7 +12275,7 @@
       </c>
       <c r="Q78" s="8"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>44737</v>
       </c>
@@ -12220,7 +12326,7 @@
       </c>
       <c r="Q79" s="8"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>44737</v>
       </c>
@@ -12271,7 +12377,7 @@
       </c>
       <c r="Q80" s="8"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>44737</v>
       </c>
@@ -12322,7 +12428,7 @@
       </c>
       <c r="Q81" s="8"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>44737</v>
       </c>
@@ -12373,7 +12479,7 @@
       </c>
       <c r="Q82" s="8"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>44737</v>
       </c>
@@ -12424,7 +12530,7 @@
       </c>
       <c r="Q83" s="8"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>44737</v>
       </c>
@@ -12475,7 +12581,7 @@
       </c>
       <c r="Q84" s="8"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>44737</v>
       </c>
@@ -12526,7 +12632,7 @@
       </c>
       <c r="Q85" s="8"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>44737</v>
       </c>
@@ -12577,7 +12683,7 @@
       </c>
       <c r="Q86" s="8"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>44737</v>
       </c>
@@ -12630,7 +12736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>44737</v>
       </c>
@@ -12681,7 +12787,7 @@
       </c>
       <c r="Q88" s="8"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>44737</v>
       </c>
@@ -12732,7 +12838,7 @@
       </c>
       <c r="Q89" s="8"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>44737</v>
       </c>
@@ -12783,7 +12889,7 @@
       </c>
       <c r="Q90" s="8"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>44737</v>
       </c>
@@ -12834,7 +12940,7 @@
       </c>
       <c r="Q91" s="8"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>44737</v>
       </c>
@@ -12885,7 +12991,7 @@
       </c>
       <c r="Q92" s="8"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>44737</v>
       </c>
@@ -12936,7 +13042,7 @@
       </c>
       <c r="Q93" s="8"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>44737</v>
       </c>
@@ -12987,7 +13093,7 @@
       </c>
       <c r="Q94" s="8"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>44737</v>
       </c>
@@ -13038,7 +13144,7 @@
       </c>
       <c r="Q95" s="8"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>44737</v>
       </c>
@@ -13089,7 +13195,7 @@
       </c>
       <c r="Q96" s="8"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>44737</v>
       </c>
@@ -13140,7 +13246,7 @@
       </c>
       <c r="Q97" s="8"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>44737</v>
       </c>
@@ -13191,7 +13297,7 @@
       </c>
       <c r="Q98" s="8"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>44737</v>
       </c>
@@ -13242,7 +13348,7 @@
       </c>
       <c r="Q99" s="8"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
         <v>44737</v>
       </c>
@@ -13307,18 +13413,18 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -13347,7 +13453,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -13374,7 +13480,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -13403,7 +13509,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -13428,7 +13534,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -13457,7 +13563,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -13482,7 +13588,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -13509,7 +13615,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -13534,7 +13640,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -13561,7 +13667,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -13586,7 +13692,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -13611,7 +13717,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -13636,7 +13742,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -13661,7 +13767,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -13684,7 +13790,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -13711,7 +13817,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -13734,7 +13840,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -13763,7 +13869,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -13786,7 +13892,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -13813,7 +13919,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -13836,7 +13942,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -13859,7 +13965,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -13882,7 +13988,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -13907,7 +14013,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -13930,7 +14036,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -13955,7 +14061,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -13974,7 +14080,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -13993,7 +14099,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -14012,7 +14118,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -14031,7 +14137,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -14050,7 +14156,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -14081,24 +14187,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9407165A-A7A6-43A0-A3D8-8BABE8B3F28F}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="7" max="7" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>49</v>
       </c>
@@ -14129,7 +14235,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -14148,7 +14254,7 @@
       <c r="H2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -14167,7 +14273,7 @@
       <c r="H3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -14191,7 +14297,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>6</v>
       </c>
@@ -14208,7 +14314,7 @@
       <c r="H5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>9</v>
       </c>
@@ -14225,7 +14331,7 @@
       <c r="H6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>12</v>
       </c>
@@ -14242,7 +14348,7 @@
       <c r="H7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>13</v>
       </c>
@@ -14259,7 +14365,7 @@
       <c r="H8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>15</v>
       </c>
@@ -14276,7 +14382,7 @@
       <c r="H9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>2</v>
       </c>
@@ -14298,7 +14404,7 @@
       <c r="H10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -14318,7 +14424,7 @@
       <c r="H11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>5</v>
       </c>
@@ -14338,7 +14444,7 @@
       <c r="H12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -14358,7 +14464,7 @@
       <c r="H13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -14380,7 +14486,7 @@
       <c r="H14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -14397,7 +14503,7 @@
       <c r="H15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>11</v>
       </c>
@@ -14414,7 +14520,7 @@
       <c r="H16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -14431,7 +14537,7 @@
       <c r="H17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>4</v>
       </c>
@@ -14450,7 +14556,7 @@
       <c r="H18" s="10"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>6</v>
       </c>
@@ -14469,7 +14575,7 @@
       <c r="H19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>8</v>
       </c>
@@ -14491,7 +14597,7 @@
       <c r="H20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>9</v>
       </c>
@@ -14508,7 +14614,7 @@
       <c r="H21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>15</v>
       </c>
@@ -14525,7 +14631,7 @@
       <c r="H22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>2</v>
       </c>
@@ -14547,7 +14653,7 @@
       <c r="H23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>5</v>
       </c>
@@ -14564,7 +14670,7 @@
       <c r="H24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>7</v>
       </c>
@@ -14581,7 +14687,7 @@
       <c r="H25" s="10"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>10</v>
       </c>
@@ -14600,7 +14706,7 @@
       <c r="H26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>11</v>
       </c>
@@ -14622,7 +14728,7 @@
       <c r="H27" s="10"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>12</v>
       </c>
@@ -14639,7 +14745,7 @@
       <c r="H28" s="10"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>13</v>
       </c>
@@ -14658,7 +14764,7 @@
       <c r="H29" s="10"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>14</v>
       </c>
@@ -14675,7 +14781,7 @@
       <c r="H30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>3</v>
       </c>
@@ -14690,7 +14796,7 @@
       <c r="H31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>16</v>
       </c>
@@ -14698,7 +14804,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>16</v>
       </c>
@@ -14706,7 +14812,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>17</v>
       </c>
@@ -14714,7 +14820,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>17</v>
       </c>
@@ -14722,7 +14828,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>18</v>
       </c>
@@ -14730,7 +14836,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>18</v>
       </c>
@@ -14738,21 +14844,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="13"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="13"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="10"/>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
       <c r="C41" s="14"/>
       <c r="D41" s="11"/>
@@ -14767,6 +14873,1706 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9C01ED-536A-4452-80F8-9FF503DF8B7B}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <f>SUM(B2:E2)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="10">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F34" si="0">SUM(B3:E3)</f>
+        <v>10</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="10">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="10">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="10">
+        <v>15</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G29" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="8">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G33">
+    <sortCondition ref="G16:G33"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC1ABD6-1C7F-402E-9C83-01A3A58155A5}">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="10">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f>SUM(B2:B15)</f>
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:E16" si="0">SUM(C2:C15)</f>
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f>SUM(B16:E16)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="19">
+        <f>B16/$F16</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="C17" s="19">
+        <f t="shared" ref="C17:E17" si="1">C16/$F16</f>
+        <v>0.39215686274509803</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="1"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" si="1"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="19">
+        <f>LN(B17)</f>
+        <v>-0.7537718023763802</v>
+      </c>
+      <c r="C18" s="19">
+        <f t="shared" ref="C18:E18" si="2">LN(C17)</f>
+        <v>-0.93609335917033476</v>
+      </c>
+      <c r="D18" s="19">
+        <f t="shared" si="2"/>
+        <v>-2.1400661634962708</v>
+      </c>
+      <c r="E18" s="19">
+        <f t="shared" si="2"/>
+        <v>-3.9318256327243257</v>
+      </c>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="19">
+        <f>B17*B18</f>
+        <v>-0.35471614229476717</v>
+      </c>
+      <c r="C19" s="19">
+        <f t="shared" ref="C19:E19" si="3">C17*C18</f>
+        <v>-0.36709543496875874</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" si="3"/>
+        <v>-0.25177248982309069</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="3"/>
+        <v>-7.7094620249496579E-2</v>
+      </c>
+      <c r="F19" s="19">
+        <f>-SUM(B19:E19)</f>
+        <v>1.0506786873361131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="19">
+        <f>F19/LN(4)</f>
+        <v>0.75790446589376814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="10">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="10">
+        <v>4</v>
+      </c>
+      <c r="C24" s="8">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="10">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="10">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="10">
+        <v>15</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <f>SUM(B22:B40)</f>
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:D41" si="4">SUM(C22:C40)</f>
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <f>SUM(B41:E41)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="19">
+        <f>B41/$F41</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C42" s="19">
+        <f t="shared" ref="C42:D42" si="5">C41/$F41</f>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="D42" s="19">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="19">
+        <f>LN(B42)</f>
+        <v>-0.45675840249571498</v>
+      </c>
+      <c r="C43" s="19">
+        <f t="shared" ref="C43:D43" si="6">LN(C42)</f>
+        <v>-1.2611312181658847</v>
+      </c>
+      <c r="D43" s="19">
+        <f t="shared" si="6"/>
+        <v>-2.4849066497880004</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="19">
+        <f>B42*B43</f>
+        <v>-0.28928032158061945</v>
+      </c>
+      <c r="C44" s="19">
+        <f t="shared" ref="C44:D44" si="7">C42*C43</f>
+        <v>-0.35732051181366731</v>
+      </c>
+      <c r="D44" s="19">
+        <f t="shared" si="7"/>
+        <v>-0.20707555414900003</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19">
+        <f>-SUM(B44:E44)</f>
+        <v>0.85367638754328679</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="19">
+        <f>F44/LN(3)</f>
+        <v>0.77704973478699357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D784D202-783C-42F7-AA9D-E9AA74D107D4}">
   <dimension ref="A1:M21"/>
   <sheetViews>
@@ -14774,12 +16580,12 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -14805,7 +16611,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>4.21</v>
       </c>
@@ -14825,7 +16631,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>4.17</v>
       </c>
@@ -14845,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>4.18</v>
       </c>
@@ -14871,7 +16677,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4.16</v>
       </c>
@@ -14897,7 +16703,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4.1500000000000004</v>
       </c>
@@ -14923,7 +16729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4.13</v>
       </c>
@@ -14949,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>66</v>
       </c>
@@ -14975,7 +16781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>57</v>
       </c>
@@ -15001,7 +16807,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -15027,7 +16833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>2.7</v>
       </c>
@@ -15053,7 +16859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>1.6</v>
       </c>
@@ -15079,7 +16885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>1.1100000000000001</v>
       </c>
@@ -15105,7 +16911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>3.4</v>
       </c>
@@ -15131,7 +16937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2.9</v>
       </c>
@@ -15157,7 +16963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -15183,7 +16989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>2.8</v>
       </c>
@@ -15209,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>87</v>
       </c>
@@ -15235,7 +17041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C19" s="18" t="s">
         <v>88</v>
       </c>
@@ -15263,7 +17069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -15280,7 +17086,7 @@
       </c>
       <c r="L20" s="18"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J21" s="18" t="s">
         <v>88</v>
       </c>
@@ -15304,7 +17110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5379496-B6C4-421B-9D7D-11C06426F583}">
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -15312,17 +17118,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -15346,7 +17152,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>9</v>
       </c>
@@ -15370,7 +17176,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>25</v>
       </c>
@@ -15392,7 +17198,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -15416,7 +17222,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>19</v>
       </c>
@@ -15440,7 +17246,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>27</v>
       </c>
@@ -15462,7 +17268,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>22</v>
       </c>
@@ -15486,7 +17292,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -15510,7 +17316,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>14</v>
       </c>
@@ -15534,7 +17340,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>29</v>
       </c>
@@ -15556,7 +17362,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -15580,7 +17386,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>20</v>
       </c>
@@ -15604,7 +17410,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -15628,7 +17434,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -15652,7 +17458,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -15676,7 +17482,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -15700,7 +17506,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -15724,7 +17530,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -15748,7 +17554,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>26</v>
       </c>
@@ -15770,7 +17576,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>24</v>
       </c>
@@ -15794,7 +17600,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>8</v>
       </c>
@@ -15818,7 +17624,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -15842,7 +17648,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -15866,7 +17672,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>12</v>
       </c>
@@ -15890,7 +17696,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>30</v>
       </c>
@@ -15912,7 +17718,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>18</v>
       </c>
@@ -15936,7 +17742,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>16</v>
       </c>
@@ -15960,7 +17766,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>21</v>
       </c>
@@ -15984,7 +17790,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>17</v>
       </c>
@@ -16008,7 +17814,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -16030,7 +17836,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>7</v>
       </c>

--- a/round bald datas/round bald data.xlsx
+++ b/round bald datas/round bald data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhi\OneDrive\Desktop\boopz\thesis\round bald datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E4B0E0-EB2A-4FBB-9966-149671C9A2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC86853-11F8-429E-B94A-25227F4E0D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{C93C8A9F-749A-4500-9DE3-023D8B4996BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{C93C8A9F-749A-4500-9DE3-023D8B4996BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Soil Samples" sheetId="10" r:id="rId5"/>
     <sheet name="Shannon Diversity" sheetId="12" r:id="rId6"/>
     <sheet name="Seeds" sheetId="9" r:id="rId7"/>
-    <sheet name="Randomizer" sheetId="3" r:id="rId8"/>
+    <sheet name="Table 1" sheetId="13" r:id="rId8"/>
+    <sheet name="Randomizer" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="131">
   <si>
     <t>Transect</t>
   </si>
@@ -418,15 +419,34 @@
   <si>
     <t>All</t>
   </si>
+  <si>
+    <t>Diversity</t>
+  </si>
+  <si>
+    <t>Evenness</t>
+  </si>
+  <si>
+    <t>T-tests</t>
+  </si>
+  <si>
+    <t>t-value</t>
+  </si>
+  <si>
+    <t>dF</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -472,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -525,6 +545,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14876,7 +14897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9C01ED-536A-4452-80F8-9FF503DF8B7B}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F34"/>
     </sheetView>
   </sheetViews>
@@ -15712,10 +15733,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC1ABD6-1C7F-402E-9C83-01A3A58155A5}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16046,7 +16067,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="19">
         <f>B16/$F16</f>
         <v>0.47058823529411764</v>
@@ -16065,7 +16086,7 @@
       </c>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="19">
         <f>LN(B17)</f>
         <v>-0.7537718023763802</v>
@@ -16084,7 +16105,7 @@
       </c>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="19">
         <f>B17*B18</f>
         <v>-0.35471614229476717</v>
@@ -16105,14 +16126,20 @@
         <f>-SUM(B19:E19)</f>
         <v>1.0506786873361131</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F20" s="19">
         <f>F19/LN(4)</f>
         <v>0.75790446589376814</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>99</v>
       </c>
@@ -16132,7 +16159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>100</v>
       </c>
@@ -16152,7 +16179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>101</v>
       </c>
@@ -16172,7 +16199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>102</v>
       </c>
@@ -16192,7 +16219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>103</v>
       </c>
@@ -16212,7 +16239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -16232,7 +16259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>105</v>
       </c>
@@ -16252,7 +16279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>106</v>
       </c>
@@ -16272,7 +16299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>107</v>
       </c>
@@ -16292,7 +16319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>108</v>
       </c>
@@ -16312,7 +16339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>109</v>
       </c>
@@ -16332,7 +16359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>110</v>
       </c>
@@ -16352,7 +16379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>111</v>
       </c>
@@ -16372,7 +16399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>112</v>
       </c>
@@ -16392,7 +16419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>113</v>
       </c>
@@ -16412,7 +16439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>114</v>
       </c>
@@ -16432,7 +16459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>115</v>
       </c>
@@ -16452,7 +16479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>116</v>
       </c>
@@ -16472,7 +16499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>117</v>
       </c>
@@ -16492,7 +16519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41">
         <f>SUM(B22:B40)</f>
         <v>38</v>
@@ -16510,7 +16537,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="19">
         <f>B41/$F41</f>
         <v>0.6333333333333333</v>
@@ -16526,7 +16553,7 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" s="19">
         <f>LN(B42)</f>
         <v>-0.45675840249571498</v>
@@ -16542,7 +16569,7 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="19">
         <f>B42*B43</f>
         <v>-0.28928032158061945</v>
@@ -16560,11 +16587,17 @@
         <f>-SUM(B44:E44)</f>
         <v>0.85367638754328679</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F45" s="19">
         <f>F44/LN(3)</f>
         <v>0.77704973478699357</v>
+      </c>
+      <c r="G45" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -16576,8 +16609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D784D202-783C-42F7-AA9D-E9AA74D107D4}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17111,6 +17144,91 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF385F7-8628-47E1-B533-514750CF8E73}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="B5:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="C3" s="19">
+        <v>-0.27034000000000002</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.90171000000000001</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.45934999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="1">
+        <v>16.324000000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30.59</v>
+      </c>
+      <c r="D4" s="1">
+        <v>18.832000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.5998</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.78869999999999996</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.37580000000000002</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.6492</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5379496-B6C4-421B-9D7D-11C06426F583}">
   <dimension ref="A1:L31"/>
   <sheetViews>

--- a/round bald datas/round bald data.xlsx
+++ b/round bald datas/round bald data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhi\OneDrive\Desktop\boopz\thesis\round bald datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC86853-11F8-429E-B94A-25227F4E0D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8682F7-9674-4FB0-9F39-D8037964D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{C93C8A9F-749A-4500-9DE3-023D8B4996BB}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="132">
   <si>
     <t>Transect</t>
   </si>
@@ -437,6 +437,9 @@
   <si>
     <t>p-value</t>
   </si>
+  <si>
+    <t>±</t>
+  </si>
 </sst>
 </file>
 
@@ -448,7 +451,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +472,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -492,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -546,6 +555,9 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16610,7 +16622,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A2:A17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17035,6 +17047,10 @@
       <c r="D17" s="8">
         <v>10</v>
       </c>
+      <c r="E17" s="8">
+        <f>_xlfn.STDEV.P(D2:D17)</f>
+        <v>17.394211501243738</v>
+      </c>
       <c r="H17" s="17" t="s">
         <v>85</v>
       </c>
@@ -17060,7 +17076,9 @@
         <f>AVERAGE(D2:D17)</f>
         <v>11.0625</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="H18" s="17" t="s">
         <v>86</v>
       </c>
@@ -17100,6 +17118,10 @@
       </c>
       <c r="K19" s="8">
         <v>28</v>
+      </c>
+      <c r="L19" s="8">
+        <f>_xlfn.STDEV.P(K2:K19)</f>
+        <v>42.623531436270802</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -17140,6 +17162,7 @@
     <sortCondition ref="B8:B40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/round bald datas/round bald data.xlsx
+++ b/round bald datas/round bald data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhi\OneDrive\Desktop\boopz\thesis\round bald datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8682F7-9674-4FB0-9F39-D8037964D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D70F57-62BB-45F8-851B-CE23E435B29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{C93C8A9F-749A-4500-9DE3-023D8B4996BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{C93C8A9F-749A-4500-9DE3-023D8B4996BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,8 @@
     <sheet name="Soil Samples 2022" sheetId="5" r:id="rId3"/>
     <sheet name="Soil Samples 2023" sheetId="7" r:id="rId4"/>
     <sheet name="Soil Samples" sheetId="10" r:id="rId5"/>
-    <sheet name="Shannon Diversity" sheetId="12" r:id="rId6"/>
-    <sheet name="Seeds" sheetId="9" r:id="rId7"/>
-    <sheet name="Table 1" sheetId="13" r:id="rId8"/>
-    <sheet name="Randomizer" sheetId="3" r:id="rId9"/>
+    <sheet name="Seeds" sheetId="9" r:id="rId6"/>
+    <sheet name="NMS" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="323">
   <si>
     <t>Transect</t>
   </si>
@@ -180,39 +178,12 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Random</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Out</t>
-  </si>
-  <si>
     <t>Control</t>
   </si>
   <si>
     <t>Original</t>
   </si>
   <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
     <t>Grass</t>
   </si>
   <si>
@@ -420,36 +391,634 @@
     <t>All</t>
   </si>
   <si>
-    <t>Diversity</t>
-  </si>
-  <si>
-    <t>Evenness</t>
-  </si>
-  <si>
-    <t>T-tests</t>
-  </si>
-  <si>
-    <t>t-value</t>
-  </si>
-  <si>
-    <t>dF</t>
-  </si>
-  <si>
-    <t>p-value</t>
-  </si>
-  <si>
     <t>±</t>
+  </si>
+  <si>
+    <t>FIRE</t>
+  </si>
+  <si>
+    <t>20un</t>
+  </si>
+  <si>
+    <t>20bu</t>
+  </si>
+  <si>
+    <t>Axis1</t>
+  </si>
+  <si>
+    <t>Axis2</t>
+  </si>
+  <si>
+    <t>R1.1.20</t>
+  </si>
+  <si>
+    <t>R1.2.20</t>
+  </si>
+  <si>
+    <t>R1.3.20</t>
+  </si>
+  <si>
+    <t>R1.4.20</t>
+  </si>
+  <si>
+    <t>R1.5.20</t>
+  </si>
+  <si>
+    <t>R1.6.20</t>
+  </si>
+  <si>
+    <t>R1.7.20</t>
+  </si>
+  <si>
+    <t>R1.8.20</t>
+  </si>
+  <si>
+    <t>R1.9.20</t>
+  </si>
+  <si>
+    <t>R1.10.20</t>
+  </si>
+  <si>
+    <t>R1.11.20</t>
+  </si>
+  <si>
+    <t>R1.12.20</t>
+  </si>
+  <si>
+    <t>R1.13.20</t>
+  </si>
+  <si>
+    <t>R1.14.20</t>
+  </si>
+  <si>
+    <t>R1.15.20</t>
+  </si>
+  <si>
+    <t>R1.16.20</t>
+  </si>
+  <si>
+    <t>R1.17.20</t>
+  </si>
+  <si>
+    <t>R1.18.20</t>
+  </si>
+  <si>
+    <t>R1.19.20</t>
+  </si>
+  <si>
+    <t>R1.20.20</t>
+  </si>
+  <si>
+    <t>R1.21.20</t>
+  </si>
+  <si>
+    <t>R1.22.20</t>
+  </si>
+  <si>
+    <t>R2.1.20</t>
+  </si>
+  <si>
+    <t>R2.2.20</t>
+  </si>
+  <si>
+    <t>R2.3.20</t>
+  </si>
+  <si>
+    <t>R2.4.20</t>
+  </si>
+  <si>
+    <t>R2.5.20</t>
+  </si>
+  <si>
+    <t>R2.6.20</t>
+  </si>
+  <si>
+    <t>R2.7.20</t>
+  </si>
+  <si>
+    <t>R2.8.20</t>
+  </si>
+  <si>
+    <t>R2.9.20</t>
+  </si>
+  <si>
+    <t>R2.10.20</t>
+  </si>
+  <si>
+    <t>R2.11.20</t>
+  </si>
+  <si>
+    <t>R2.12.20</t>
+  </si>
+  <si>
+    <t>R2.13.20</t>
+  </si>
+  <si>
+    <t>R2.14.20</t>
+  </si>
+  <si>
+    <t>R2.15.20</t>
+  </si>
+  <si>
+    <t>R2.16.20</t>
+  </si>
+  <si>
+    <t>R2.17.20</t>
+  </si>
+  <si>
+    <t>R2.18.20</t>
+  </si>
+  <si>
+    <t>R2.19.20</t>
+  </si>
+  <si>
+    <t>R2.20.20</t>
+  </si>
+  <si>
+    <t>R3.1.20</t>
+  </si>
+  <si>
+    <t>R3.2.20</t>
+  </si>
+  <si>
+    <t>R3.3.20</t>
+  </si>
+  <si>
+    <t>R3.4.20</t>
+  </si>
+  <si>
+    <t>R3.5.20</t>
+  </si>
+  <si>
+    <t>R3.6.20</t>
+  </si>
+  <si>
+    <t>R3.7.20</t>
+  </si>
+  <si>
+    <t>R3.8.20</t>
+  </si>
+  <si>
+    <t>R3.9.20</t>
+  </si>
+  <si>
+    <t>R3.10.20</t>
+  </si>
+  <si>
+    <t>R3.11.20</t>
+  </si>
+  <si>
+    <t>R3.12.20</t>
+  </si>
+  <si>
+    <t>R3.13.20</t>
+  </si>
+  <si>
+    <t>R3.14.20</t>
+  </si>
+  <si>
+    <t>R3.15.20</t>
+  </si>
+  <si>
+    <t>R3.16.20</t>
+  </si>
+  <si>
+    <t>R3.17.20</t>
+  </si>
+  <si>
+    <t>R3.18.20</t>
+  </si>
+  <si>
+    <t>R3.19.20</t>
+  </si>
+  <si>
+    <t>R3.20.20</t>
+  </si>
+  <si>
+    <t>R3.21.20</t>
+  </si>
+  <si>
+    <t>R3.22.20</t>
+  </si>
+  <si>
+    <t>R3.23.20</t>
+  </si>
+  <si>
+    <t>R3.24.20</t>
+  </si>
+  <si>
+    <t>R3.25.20</t>
+  </si>
+  <si>
+    <t>R4.1.20</t>
+  </si>
+  <si>
+    <t>R4.2.20</t>
+  </si>
+  <si>
+    <t>R4.3.20</t>
+  </si>
+  <si>
+    <t>R4.4.20</t>
+  </si>
+  <si>
+    <t>R4.5.20</t>
+  </si>
+  <si>
+    <t>R4.6.20</t>
+  </si>
+  <si>
+    <t>R4.7.20</t>
+  </si>
+  <si>
+    <t>R4.8.20</t>
+  </si>
+  <si>
+    <t>R4.9.20</t>
+  </si>
+  <si>
+    <t>R4.10.20</t>
+  </si>
+  <si>
+    <t>R4.11.20</t>
+  </si>
+  <si>
+    <t>R4.12.20</t>
+  </si>
+  <si>
+    <t>R4.13.20</t>
+  </si>
+  <si>
+    <t>R4.14.20</t>
+  </si>
+  <si>
+    <t>R4.15.20</t>
+  </si>
+  <si>
+    <t>R4.16.20</t>
+  </si>
+  <si>
+    <t>R4.17.20</t>
+  </si>
+  <si>
+    <t>R4.18.20</t>
+  </si>
+  <si>
+    <t>R4.19.20</t>
+  </si>
+  <si>
+    <t>R4.20.20</t>
+  </si>
+  <si>
+    <t>R4.21.20</t>
+  </si>
+  <si>
+    <t>R4.22.20</t>
+  </si>
+  <si>
+    <t>R4.23.20</t>
+  </si>
+  <si>
+    <t>R4.24.20</t>
+  </si>
+  <si>
+    <t>R4.25.20</t>
+  </si>
+  <si>
+    <t>R4.26.20</t>
+  </si>
+  <si>
+    <t>R4.27.20</t>
+  </si>
+  <si>
+    <t>R4.28.20</t>
+  </si>
+  <si>
+    <t>R4.29.20</t>
+  </si>
+  <si>
+    <t>R4.30.20</t>
+  </si>
+  <si>
+    <t>R4.31.20</t>
+  </si>
+  <si>
+    <t>R4.32.20</t>
+  </si>
+  <si>
+    <t>R1.1.22</t>
+  </si>
+  <si>
+    <t>R1.2.22</t>
+  </si>
+  <si>
+    <t>R1.3.22</t>
+  </si>
+  <si>
+    <t>R1.4.22</t>
+  </si>
+  <si>
+    <t>R1.5.22</t>
+  </si>
+  <si>
+    <t>R1.6.22</t>
+  </si>
+  <si>
+    <t>R1.7.22</t>
+  </si>
+  <si>
+    <t>R1.8.22</t>
+  </si>
+  <si>
+    <t>R1.9.22</t>
+  </si>
+  <si>
+    <t>R1.10.22</t>
+  </si>
+  <si>
+    <t>R1.11.22</t>
+  </si>
+  <si>
+    <t>R1.12.22</t>
+  </si>
+  <si>
+    <t>R1.13.22</t>
+  </si>
+  <si>
+    <t>R1.14.22</t>
+  </si>
+  <si>
+    <t>R1.15.22</t>
+  </si>
+  <si>
+    <t>R1.16.22</t>
+  </si>
+  <si>
+    <t>R1.17.22</t>
+  </si>
+  <si>
+    <t>R1.18.22</t>
+  </si>
+  <si>
+    <t>R1.19.22</t>
+  </si>
+  <si>
+    <t>R1.20.22</t>
+  </si>
+  <si>
+    <t>R1.21.22</t>
+  </si>
+  <si>
+    <t>R1.22.22</t>
+  </si>
+  <si>
+    <t>R2.1.22</t>
+  </si>
+  <si>
+    <t>R2.2.22</t>
+  </si>
+  <si>
+    <t>R2.3.22</t>
+  </si>
+  <si>
+    <t>R2.4.22</t>
+  </si>
+  <si>
+    <t>R2.5.22</t>
+  </si>
+  <si>
+    <t>R2.6.22</t>
+  </si>
+  <si>
+    <t>R2.7.22</t>
+  </si>
+  <si>
+    <t>R2.8.22</t>
+  </si>
+  <si>
+    <t>R2.9.22</t>
+  </si>
+  <si>
+    <t>R2.10.22</t>
+  </si>
+  <si>
+    <t>R2.11.22</t>
+  </si>
+  <si>
+    <t>R2.12.22</t>
+  </si>
+  <si>
+    <t>R2.13.22</t>
+  </si>
+  <si>
+    <t>R2.14.22</t>
+  </si>
+  <si>
+    <t>R2.15.22</t>
+  </si>
+  <si>
+    <t>R2.16.22</t>
+  </si>
+  <si>
+    <t>R2.17.22</t>
+  </si>
+  <si>
+    <t>R2.18.22</t>
+  </si>
+  <si>
+    <t>R2.19.22</t>
+  </si>
+  <si>
+    <t>R2.20.22</t>
+  </si>
+  <si>
+    <t>R3.1.22</t>
+  </si>
+  <si>
+    <t>R3.2.22</t>
+  </si>
+  <si>
+    <t>R3.3.22</t>
+  </si>
+  <si>
+    <t>R3.4.22</t>
+  </si>
+  <si>
+    <t>R3.5.22</t>
+  </si>
+  <si>
+    <t>R3.6.22</t>
+  </si>
+  <si>
+    <t>R3.7.22</t>
+  </si>
+  <si>
+    <t>R3.8.22</t>
+  </si>
+  <si>
+    <t>R3.9.22</t>
+  </si>
+  <si>
+    <t>R3.10.22</t>
+  </si>
+  <si>
+    <t>R3.11.22</t>
+  </si>
+  <si>
+    <t>R3.12.22</t>
+  </si>
+  <si>
+    <t>R3.13.22</t>
+  </si>
+  <si>
+    <t>R3.14.22</t>
+  </si>
+  <si>
+    <t>R3.15.22</t>
+  </si>
+  <si>
+    <t>R3.16.22</t>
+  </si>
+  <si>
+    <t>R3.17.22</t>
+  </si>
+  <si>
+    <t>R3.18.22</t>
+  </si>
+  <si>
+    <t>R3.19.22</t>
+  </si>
+  <si>
+    <t>R3.20.22</t>
+  </si>
+  <si>
+    <t>R3.21.22</t>
+  </si>
+  <si>
+    <t>R3.22.22</t>
+  </si>
+  <si>
+    <t>R3.23.22</t>
+  </si>
+  <si>
+    <t>R3.24.22</t>
+  </si>
+  <si>
+    <t>R3.25.22</t>
+  </si>
+  <si>
+    <t>R4.1.22</t>
+  </si>
+  <si>
+    <t>R4.2.22</t>
+  </si>
+  <si>
+    <t>R4.3.22</t>
+  </si>
+  <si>
+    <t>R4.4.22</t>
+  </si>
+  <si>
+    <t>R4.5.22</t>
+  </si>
+  <si>
+    <t>R4.6.22</t>
+  </si>
+  <si>
+    <t>R4.7.22</t>
+  </si>
+  <si>
+    <t>R4.8.22</t>
+  </si>
+  <si>
+    <t>R4.9.22</t>
+  </si>
+  <si>
+    <t>R4.10.22</t>
+  </si>
+  <si>
+    <t>R4.11.22</t>
+  </si>
+  <si>
+    <t>R4.12.22</t>
+  </si>
+  <si>
+    <t>R4.13.22</t>
+  </si>
+  <si>
+    <t>R4.14.22</t>
+  </si>
+  <si>
+    <t>R4.15.22</t>
+  </si>
+  <si>
+    <t>R4.16.22</t>
+  </si>
+  <si>
+    <t>R4.17.22</t>
+  </si>
+  <si>
+    <t>R4.18.22</t>
+  </si>
+  <si>
+    <t>R4.19.22</t>
+  </si>
+  <si>
+    <t>R4.20.22</t>
+  </si>
+  <si>
+    <t>R4.21.22</t>
+  </si>
+  <si>
+    <t>R4.22.22</t>
+  </si>
+  <si>
+    <t>R4.23.22</t>
+  </si>
+  <si>
+    <t>R4.24.22</t>
+  </si>
+  <si>
+    <t>R4.25.22</t>
+  </si>
+  <si>
+    <t>R4.26.22</t>
+  </si>
+  <si>
+    <t>R4.27.22</t>
+  </si>
+  <si>
+    <t>R4.28.22</t>
+  </si>
+  <si>
+    <t>R4.29.22</t>
+  </si>
+  <si>
+    <t>R4.30.22</t>
+  </si>
+  <si>
+    <t>R4.31.22</t>
+  </si>
+  <si>
+    <t>R4.32.22</t>
+  </si>
+  <si>
+    <t>22un</t>
+  </si>
+  <si>
+    <t>22bu</t>
+  </si>
+  <si>
+    <t>Axis3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -501,7 +1070,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -553,8 +1122,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,38 +1446,38 @@
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -990,7 +1557,7 @@
         <v>29</v>
       </c>
       <c r="AA1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AB1" t="s">
         <v>30</v>
@@ -1011,7 +1578,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -1086,7 +1653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1161,7 +1728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1236,7 +1803,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1302,7 +1869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1380,7 +1947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1458,7 +2025,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1530,7 +2097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1602,7 +2169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1677,7 +2244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1752,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1821,7 +2388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1890,7 +2457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1962,7 +2529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2037,7 +2604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2115,7 +2682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2190,7 +2757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2262,7 +2829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2334,7 +2901,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2406,7 +2973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -2478,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -2550,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -2622,7 +3189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -2691,7 +3258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2760,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2829,7 +3396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -2904,7 +3471,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2982,7 +3549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -3063,7 +3630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -3132,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -3204,7 +3771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -3273,7 +3840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -3345,7 +3912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -3414,7 +3981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -3486,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -3561,7 +4128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -3633,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
@@ -3705,7 +4272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -3777,7 +4344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -3852,7 +4419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -3921,7 +4488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -3999,7 +4566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -4071,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4140,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
@@ -4209,7 +4776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6</v>
       </c>
@@ -4299,7 +4866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -4374,7 +4941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -4449,7 +5016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -4527,7 +5094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
@@ -4599,7 +5166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -4674,7 +5241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -4743,7 +5310,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -4815,7 +5382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -4887,7 +5454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -4956,7 +5523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -5034,7 +5601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
@@ -5109,7 +5676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -5184,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -5259,7 +5826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -5337,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -5412,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
@@ -5478,7 +6045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
@@ -5547,7 +6114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -5619,7 +6186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6</v>
       </c>
@@ -5688,7 +6255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6</v>
       </c>
@@ -5760,7 +6327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6</v>
       </c>
@@ -5832,7 +6399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6</v>
       </c>
@@ -5901,7 +6468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
@@ -5970,7 +6537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6</v>
       </c>
@@ -6045,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6</v>
       </c>
@@ -6120,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6</v>
       </c>
@@ -6192,7 +6759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6</v>
       </c>
@@ -6267,7 +6834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6</v>
       </c>
@@ -6342,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6</v>
       </c>
@@ -6411,7 +6978,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6</v>
       </c>
@@ -6480,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6</v>
       </c>
@@ -6558,7 +7125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>6</v>
       </c>
@@ -6633,7 +7200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6</v>
       </c>
@@ -6711,7 +7278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6</v>
       </c>
@@ -6780,7 +7347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -6855,7 +7422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>6</v>
       </c>
@@ -6930,7 +7497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6</v>
       </c>
@@ -7008,7 +7575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6</v>
       </c>
@@ -7086,7 +7653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6</v>
       </c>
@@ -7167,7 +7734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6</v>
       </c>
@@ -7236,7 +7803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
@@ -7320,7 +7887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -7392,7 +7959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>6</v>
       </c>
@@ -7464,7 +8031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>6</v>
       </c>
@@ -7539,7 +8106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>6</v>
       </c>
@@ -7614,7 +8181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>6</v>
       </c>
@@ -7686,7 +8253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6</v>
       </c>
@@ -7764,7 +8331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>6</v>
       </c>
@@ -7833,7 +8400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>6</v>
       </c>
@@ -7908,7 +8475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6</v>
       </c>
@@ -7983,7 +8550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -8064,7 +8631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>6</v>
       </c>
@@ -8133,7 +8700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6</v>
       </c>
@@ -8205,7 +8772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6</v>
       </c>
@@ -8274,13 +8841,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N103" s="1"/>
     </row>
   </sheetData>
@@ -8301,26 +8868,26 @@
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
@@ -8352,7 +8919,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>30</v>
@@ -8373,7 +8940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44723</v>
       </c>
@@ -8424,7 +8991,7 @@
       </c>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44723</v>
       </c>
@@ -8477,7 +9044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44723</v>
       </c>
@@ -8528,7 +9095,7 @@
       </c>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44723</v>
       </c>
@@ -8579,7 +9146,7 @@
       </c>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44723</v>
       </c>
@@ -8630,7 +9197,7 @@
       </c>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44723</v>
       </c>
@@ -8683,7 +9250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44724</v>
       </c>
@@ -8734,7 +9301,7 @@
       </c>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44724</v>
       </c>
@@ -8785,7 +9352,7 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44724</v>
       </c>
@@ -8836,7 +9403,7 @@
       </c>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44724</v>
       </c>
@@ -8887,7 +9454,7 @@
       </c>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44724</v>
       </c>
@@ -8938,7 +9505,7 @@
       </c>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44724</v>
       </c>
@@ -8989,7 +9556,7 @@
       </c>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44724</v>
       </c>
@@ -9040,7 +9607,7 @@
       </c>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44724</v>
       </c>
@@ -9091,7 +9658,7 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44724</v>
       </c>
@@ -9142,7 +9709,7 @@
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44724</v>
       </c>
@@ -9193,7 +9760,7 @@
       </c>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44724</v>
       </c>
@@ -9244,7 +9811,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44729</v>
       </c>
@@ -9295,7 +9862,7 @@
       </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44729</v>
       </c>
@@ -9346,7 +9913,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>44729</v>
       </c>
@@ -9397,7 +9964,7 @@
       </c>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44729</v>
       </c>
@@ -9448,7 +10015,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44729</v>
       </c>
@@ -9499,7 +10066,7 @@
       </c>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44729</v>
       </c>
@@ -9550,7 +10117,7 @@
       </c>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44729</v>
       </c>
@@ -9601,7 +10168,7 @@
       </c>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44729</v>
       </c>
@@ -9652,7 +10219,7 @@
       </c>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>44729</v>
       </c>
@@ -9705,7 +10272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>44729</v>
       </c>
@@ -9756,7 +10323,7 @@
       </c>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44731</v>
       </c>
@@ -9807,7 +10374,7 @@
       </c>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>44731</v>
       </c>
@@ -9858,7 +10425,7 @@
       </c>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>44731</v>
       </c>
@@ -9909,7 +10476,7 @@
       </c>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>44731</v>
       </c>
@@ -9960,7 +10527,7 @@
       </c>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>44731</v>
       </c>
@@ -10011,7 +10578,7 @@
       </c>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>44731</v>
       </c>
@@ -10062,7 +10629,7 @@
       </c>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>44731</v>
       </c>
@@ -10113,7 +10680,7 @@
       </c>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>44731</v>
       </c>
@@ -10164,7 +10731,7 @@
       </c>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>44731</v>
       </c>
@@ -10215,7 +10782,7 @@
       </c>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>44731</v>
       </c>
@@ -10266,7 +10833,7 @@
       </c>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>44731</v>
       </c>
@@ -10317,7 +10884,7 @@
       </c>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>44731</v>
       </c>
@@ -10368,7 +10935,7 @@
       </c>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>44731</v>
       </c>
@@ -10419,7 +10986,7 @@
       </c>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>44731</v>
       </c>
@@ -10470,7 +11037,7 @@
       </c>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>44731</v>
       </c>
@@ -10521,7 +11088,7 @@
       </c>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>44731</v>
       </c>
@@ -10572,7 +11139,7 @@
       </c>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>44731</v>
       </c>
@@ -10623,7 +11190,7 @@
       </c>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>44731</v>
       </c>
@@ -10676,7 +11243,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>44731</v>
       </c>
@@ -10727,7 +11294,7 @@
       </c>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>44731</v>
       </c>
@@ -10778,7 +11345,7 @@
       </c>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>44731</v>
       </c>
@@ -10829,7 +11396,7 @@
       </c>
       <c r="Q49" s="8"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>44731</v>
       </c>
@@ -10880,7 +11447,7 @@
       </c>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>44731</v>
       </c>
@@ -10931,7 +11498,7 @@
       </c>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>44731</v>
       </c>
@@ -10982,7 +11549,7 @@
       </c>
       <c r="Q52" s="8"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>44731</v>
       </c>
@@ -11033,7 +11600,7 @@
       </c>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>44731</v>
       </c>
@@ -11084,7 +11651,7 @@
       </c>
       <c r="Q54" s="8"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>44731</v>
       </c>
@@ -11135,7 +11702,7 @@
       </c>
       <c r="Q55" s="8"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>44731</v>
       </c>
@@ -11186,7 +11753,7 @@
       </c>
       <c r="Q56" s="8"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>44731</v>
       </c>
@@ -11237,7 +11804,7 @@
       </c>
       <c r="Q57" s="8"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>44736</v>
       </c>
@@ -11288,7 +11855,7 @@
       </c>
       <c r="Q58" s="8"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>44736</v>
       </c>
@@ -11339,7 +11906,7 @@
       </c>
       <c r="Q59" s="8"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>44736</v>
       </c>
@@ -11390,7 +11957,7 @@
       </c>
       <c r="Q60" s="8"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>44736</v>
       </c>
@@ -11441,7 +12008,7 @@
       </c>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>44736</v>
       </c>
@@ -11492,7 +12059,7 @@
       </c>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>44736</v>
       </c>
@@ -11543,7 +12110,7 @@
       </c>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>44736</v>
       </c>
@@ -11594,7 +12161,7 @@
       </c>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>44736</v>
       </c>
@@ -11645,7 +12212,7 @@
       </c>
       <c r="Q65" s="8"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>44736</v>
       </c>
@@ -11696,7 +12263,7 @@
       </c>
       <c r="Q66" s="8"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>44736</v>
       </c>
@@ -11747,7 +12314,7 @@
       </c>
       <c r="Q67" s="8"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>44736</v>
       </c>
@@ -11798,7 +12365,7 @@
       </c>
       <c r="Q68" s="8"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>44737</v>
       </c>
@@ -11849,7 +12416,7 @@
       </c>
       <c r="Q69" s="8"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>44737</v>
       </c>
@@ -11900,7 +12467,7 @@
       </c>
       <c r="Q70" s="8"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>44737</v>
       </c>
@@ -11951,7 +12518,7 @@
       </c>
       <c r="Q71" s="8"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>44737</v>
       </c>
@@ -12002,7 +12569,7 @@
       </c>
       <c r="Q72" s="8"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>44737</v>
       </c>
@@ -12053,7 +12620,7 @@
       </c>
       <c r="Q73" s="8"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>44737</v>
       </c>
@@ -12104,7 +12671,7 @@
       </c>
       <c r="Q74" s="8"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>44737</v>
       </c>
@@ -12155,7 +12722,7 @@
       </c>
       <c r="Q75" s="8"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>44737</v>
       </c>
@@ -12206,7 +12773,7 @@
       </c>
       <c r="Q76" s="8"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>44737</v>
       </c>
@@ -12257,7 +12824,7 @@
       </c>
       <c r="Q77" s="8"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>44737</v>
       </c>
@@ -12308,7 +12875,7 @@
       </c>
       <c r="Q78" s="8"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>44737</v>
       </c>
@@ -12359,7 +12926,7 @@
       </c>
       <c r="Q79" s="8"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>44737</v>
       </c>
@@ -12410,7 +12977,7 @@
       </c>
       <c r="Q80" s="8"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>44737</v>
       </c>
@@ -12461,7 +13028,7 @@
       </c>
       <c r="Q81" s="8"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>44737</v>
       </c>
@@ -12512,7 +13079,7 @@
       </c>
       <c r="Q82" s="8"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>44737</v>
       </c>
@@ -12563,7 +13130,7 @@
       </c>
       <c r="Q83" s="8"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>44737</v>
       </c>
@@ -12614,7 +13181,7 @@
       </c>
       <c r="Q84" s="8"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>44737</v>
       </c>
@@ -12665,7 +13232,7 @@
       </c>
       <c r="Q85" s="8"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>44737</v>
       </c>
@@ -12716,7 +13283,7 @@
       </c>
       <c r="Q86" s="8"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>44737</v>
       </c>
@@ -12769,7 +13336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>44737</v>
       </c>
@@ -12820,7 +13387,7 @@
       </c>
       <c r="Q88" s="8"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>44737</v>
       </c>
@@ -12871,7 +13438,7 @@
       </c>
       <c r="Q89" s="8"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>44737</v>
       </c>
@@ -12922,7 +13489,7 @@
       </c>
       <c r="Q90" s="8"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>44737</v>
       </c>
@@ -12973,7 +13540,7 @@
       </c>
       <c r="Q91" s="8"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>44737</v>
       </c>
@@ -13024,7 +13591,7 @@
       </c>
       <c r="Q92" s="8"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>44737</v>
       </c>
@@ -13075,7 +13642,7 @@
       </c>
       <c r="Q93" s="8"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>44737</v>
       </c>
@@ -13126,7 +13693,7 @@
       </c>
       <c r="Q94" s="8"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>44737</v>
       </c>
@@ -13177,7 +13744,7 @@
       </c>
       <c r="Q95" s="8"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>44737</v>
       </c>
@@ -13228,7 +13795,7 @@
       </c>
       <c r="Q96" s="8"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>44737</v>
       </c>
@@ -13279,7 +13846,7 @@
       </c>
       <c r="Q97" s="8"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>44737</v>
       </c>
@@ -13330,7 +13897,7 @@
       </c>
       <c r="Q98" s="8"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>44737</v>
       </c>
@@ -13381,7 +13948,7 @@
       </c>
       <c r="Q99" s="8"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>44737</v>
       </c>
@@ -13446,20 +14013,20 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>41</v>
@@ -13468,10 +14035,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>28</v>
@@ -13486,12 +14053,12 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3">
         <v>1.21</v>
@@ -13513,12 +14080,12 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3">
         <v>1.22</v>
@@ -13542,12 +14109,12 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3">
         <v>2.14</v>
@@ -13567,12 +14134,12 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6">
         <v>2.2000000000000002</v>
@@ -13596,12 +14163,12 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3">
         <v>4.24</v>
@@ -13621,12 +14188,12 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C7" s="6">
         <v>4.3</v>
@@ -13648,12 +14215,12 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3">
         <v>1.1299999999999999</v>
@@ -13673,12 +14240,12 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3">
         <v>1.1599999999999999</v>
@@ -13700,12 +14267,12 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3">
         <v>2.16</v>
@@ -13725,12 +14292,12 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3">
         <v>3.8</v>
@@ -13750,12 +14317,12 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C12" s="6">
         <v>3.1</v>
@@ -13775,12 +14342,12 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3">
         <v>3.23</v>
@@ -13800,12 +14367,12 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3">
         <v>2.7</v>
@@ -13823,12 +14390,12 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3">
         <v>2.8</v>
@@ -13850,12 +14417,12 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3">
         <v>4.8</v>
@@ -13873,12 +14440,12 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3">
         <v>4.13</v>
@@ -13902,12 +14469,12 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3">
         <v>4.16</v>
@@ -13925,12 +14492,12 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C19" s="3">
         <v>4.17</v>
@@ -13952,12 +14519,12 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3">
         <v>1.6</v>
@@ -13975,12 +14542,12 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3">
         <v>1.7</v>
@@ -13998,12 +14565,12 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C22" s="6">
         <v>1.1000000000000001</v>
@@ -14021,12 +14588,12 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3">
         <v>3.4</v>
@@ -14046,12 +14613,12 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C24" s="3">
         <v>3.7</v>
@@ -14069,12 +14636,12 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C25" s="3">
         <v>4.18</v>
@@ -14094,12 +14661,12 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -14113,12 +14680,12 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -14132,12 +14699,12 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -14151,12 +14718,12 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -14170,12 +14737,12 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -14189,12 +14756,12 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -14224,22 +14791,22 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="8"/>
+    <col min="7" max="7" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>41</v>
@@ -14248,10 +14815,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>28</v>
@@ -14268,12 +14835,12 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C2" s="12">
         <v>2.2999999999999998</v>
@@ -14287,12 +14854,12 @@
       <c r="H2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C3" s="12">
         <v>3.5</v>
@@ -14306,15 +14873,15 @@
       <c r="H3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D4" s="11">
         <v>0.25</v>
@@ -14330,15 +14897,15 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D5" s="11">
         <v>0.25</v>
@@ -14347,15 +14914,15 @@
       <c r="H5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D6" s="11">
         <v>0.25</v>
@@ -14364,12 +14931,12 @@
       <c r="H6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>12</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C7" s="12">
         <v>3.4</v>
@@ -14381,12 +14948,12 @@
       <c r="H7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>13</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C8" s="12">
         <v>1.9</v>
@@ -14398,12 +14965,12 @@
       <c r="H8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>15</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C9" s="12">
         <v>1.1000000000000001</v>
@@ -14415,12 +14982,12 @@
       <c r="H9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C10" s="12">
         <v>2.9</v>
@@ -14437,12 +15004,12 @@
       <c r="H10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C11" s="12">
         <v>2.7</v>
@@ -14457,15 +15024,15 @@
       <c r="H11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>5</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D12" s="11">
         <v>0.5</v>
@@ -14477,12 +15044,12 @@
       <c r="H12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C13" s="12">
         <v>2.8</v>
@@ -14497,15 +15064,15 @@
       <c r="H13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D14" s="11">
         <v>0.5</v>
@@ -14519,15 +15086,15 @@
       <c r="H14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D15" s="11">
         <v>0.5</v>
@@ -14536,15 +15103,15 @@
       <c r="H15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D16" s="11">
         <v>0.5</v>
@@ -14553,15 +15120,15 @@
       <c r="H16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D17" s="11">
         <v>0.5</v>
@@ -14570,15 +15137,15 @@
       <c r="H17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>4</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D18" s="11">
         <v>0.25</v>
@@ -14589,15 +15156,15 @@
       <c r="H18" s="10"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>6</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D19" s="11">
         <v>0.25</v>
@@ -14608,15 +15175,15 @@
       <c r="H19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>8</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D20" s="11">
         <v>0.25</v>
@@ -14630,15 +15197,15 @@
       <c r="H20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>9</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D21" s="11">
         <v>0.25</v>
@@ -14647,15 +15214,15 @@
       <c r="H21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>15</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D22" s="11">
         <v>0.25</v>
@@ -14664,15 +15231,15 @@
       <c r="H22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>2</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D23" s="11">
         <v>0.5</v>
@@ -14686,15 +15253,15 @@
       <c r="H23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>5</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D24" s="11">
         <v>0.5</v>
@@ -14703,12 +15270,12 @@
       <c r="H24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>7</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C25" s="15">
         <v>3.12</v>
@@ -14720,15 +15287,15 @@
       <c r="H25" s="10"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>10</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D26" s="11">
         <v>0.5</v>
@@ -14739,15 +15306,15 @@
       <c r="H26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>11</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D27" s="11">
         <v>0.5</v>
@@ -14761,15 +15328,15 @@
       <c r="H27" s="10"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>12</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D28" s="11">
         <v>0.5</v>
@@ -14778,15 +15345,15 @@
       <c r="H28" s="10"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>13</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D29" s="16">
         <v>0.5</v>
@@ -14797,15 +15364,15 @@
       <c r="H29" s="10"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>14</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D30" s="11">
         <v>0.5</v>
@@ -14814,13 +15381,13 @@
       <c r="H30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>3</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="10">
@@ -14829,69 +15396,69 @@
       <c r="H31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>16</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>16</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>17</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>17</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>18</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>18</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="13"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="13"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
       <c r="C41" s="14"/>
       <c r="D41" s="11"/>
@@ -14909,23 +15476,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9C01ED-536A-4452-80F8-9FF503DF8B7B}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>28</v>
@@ -14937,15 +15504,15 @@
         <v>29</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -14967,9 +15534,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B3" s="10">
         <v>10</v>
@@ -14991,9 +15558,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B4" s="10">
         <v>2</v>
@@ -15015,9 +15582,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
@@ -15039,9 +15606,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
@@ -15063,9 +15630,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
@@ -15087,9 +15654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B8" s="10">
         <v>0</v>
@@ -15111,9 +15678,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B9" s="10">
         <v>5</v>
@@ -15135,9 +15702,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -15159,9 +15726,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -15183,9 +15750,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -15207,9 +15774,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -15231,9 +15798,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -15255,9 +15822,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -15279,9 +15846,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B16" s="10">
         <v>2</v>
@@ -15303,9 +15870,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B17" s="10">
         <v>1</v>
@@ -15327,9 +15894,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B18" s="10">
         <v>4</v>
@@ -15351,9 +15918,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B19" s="10">
         <v>2</v>
@@ -15375,9 +15942,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B20" s="10">
         <v>2</v>
@@ -15399,9 +15966,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
@@ -15423,9 +15990,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B22" s="10">
         <v>15</v>
@@ -15447,9 +16014,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -15471,9 +16038,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -15495,9 +16062,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -15519,9 +16086,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -15543,9 +16110,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -15567,9 +16134,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -15591,9 +16158,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
@@ -15615,9 +16182,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
@@ -15639,9 +16206,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -15663,9 +16230,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -15687,9 +16254,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -15711,9 +16278,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -15744,893 +16311,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC1ABD6-1C7F-402E-9C83-01A3A58155A5}">
-  <dimension ref="A1:G45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="10">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="10">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <f>SUM(B2:B15)</f>
-        <v>24</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ref="C16:E16" si="0">SUM(C2:C15)</f>
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f>SUM(B16:E16)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="19">
-        <f>B16/$F16</f>
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="C17" s="19">
-        <f t="shared" ref="C17:E17" si="1">C16/$F16</f>
-        <v>0.39215686274509803</v>
-      </c>
-      <c r="D17" s="19">
-        <f t="shared" si="1"/>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="E17" s="19">
-        <f t="shared" si="1"/>
-        <v>1.9607843137254902E-2</v>
-      </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="19">
-        <f>LN(B17)</f>
-        <v>-0.7537718023763802</v>
-      </c>
-      <c r="C18" s="19">
-        <f t="shared" ref="C18:E18" si="2">LN(C17)</f>
-        <v>-0.93609335917033476</v>
-      </c>
-      <c r="D18" s="19">
-        <f t="shared" si="2"/>
-        <v>-2.1400661634962708</v>
-      </c>
-      <c r="E18" s="19">
-        <f t="shared" si="2"/>
-        <v>-3.9318256327243257</v>
-      </c>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="19">
-        <f>B17*B18</f>
-        <v>-0.35471614229476717</v>
-      </c>
-      <c r="C19" s="19">
-        <f t="shared" ref="C19:E19" si="3">C17*C18</f>
-        <v>-0.36709543496875874</v>
-      </c>
-      <c r="D19" s="19">
-        <f t="shared" si="3"/>
-        <v>-0.25177248982309069</v>
-      </c>
-      <c r="E19" s="19">
-        <f t="shared" si="3"/>
-        <v>-7.7094620249496579E-2</v>
-      </c>
-      <c r="F19" s="19">
-        <f>-SUM(B19:E19)</f>
-        <v>1.0506786873361131</v>
-      </c>
-      <c r="G19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F20" s="19">
-        <f>F19/LN(4)</f>
-        <v>0.75790446589376814</v>
-      </c>
-      <c r="G20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="10">
-        <v>2</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="10">
-        <v>4</v>
-      </c>
-      <c r="C24" s="8">
-        <v>3</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="10">
-        <v>2</v>
-      </c>
-      <c r="C25" s="8">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="10">
-        <v>2</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="8">
-        <v>2</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="10">
-        <v>15</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4">
-        <v>3</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="3">
-        <v>2</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="3">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4">
-        <v>3</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <f>SUM(B22:B40)</f>
-        <v>38</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ref="C41:D41" si="4">SUM(C22:C40)</f>
-        <v>17</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="F41">
-        <f>SUM(B41:E41)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="19">
-        <f>B41/$F41</f>
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="C42" s="19">
-        <f t="shared" ref="C42:D42" si="5">C41/$F41</f>
-        <v>0.28333333333333333</v>
-      </c>
-      <c r="D42" s="19">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="19">
-        <f>LN(B42)</f>
-        <v>-0.45675840249571498</v>
-      </c>
-      <c r="C43" s="19">
-        <f t="shared" ref="C43:D43" si="6">LN(C42)</f>
-        <v>-1.2611312181658847</v>
-      </c>
-      <c r="D43" s="19">
-        <f t="shared" si="6"/>
-        <v>-2.4849066497880004</v>
-      </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="19">
-        <f>B42*B43</f>
-        <v>-0.28928032158061945</v>
-      </c>
-      <c r="C44" s="19">
-        <f t="shared" ref="C44:D44" si="7">C42*C43</f>
-        <v>-0.35732051181366731</v>
-      </c>
-      <c r="D44" s="19">
-        <f t="shared" si="7"/>
-        <v>-0.20707555414900003</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19">
-        <f>-SUM(B44:E44)</f>
-        <v>0.85367638754328679</v>
-      </c>
-      <c r="G44" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F45" s="19">
-        <f>F44/LN(3)</f>
-        <v>0.77704973478699357</v>
-      </c>
-      <c r="G45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D784D202-783C-42F7-AA9D-E9AA74D107D4}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -16638,10 +16331,10 @@
         <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>1</v>
@@ -16650,18 +16343,18 @@
         <v>41</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>4.21</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D2" s="8">
         <v>53</v>
@@ -16670,18 +16363,18 @@
         <v>3.25</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K2" s="8">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>4.17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D3" s="8">
         <v>34</v>
@@ -16690,18 +16383,18 @@
         <v>1.18</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K3" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>4.18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C4" s="8">
         <v>22.54</v>
@@ -16713,7 +16406,7 @@
         <v>4.29</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J4" s="8">
         <v>20.6</v>
@@ -16722,12 +16415,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4.16</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C5" s="8">
         <v>61.5</v>
@@ -16736,10 +16429,10 @@
         <v>7</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J5" s="8">
         <v>71.260000000000005</v>
@@ -16748,12 +16441,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4.1500000000000004</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C6" s="8">
         <v>33.21</v>
@@ -16762,10 +16455,10 @@
         <v>7</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J6" s="8">
         <v>20.45</v>
@@ -16774,12 +16467,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4.13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C7" s="8">
         <v>71.599999999999994</v>
@@ -16791,7 +16484,7 @@
         <v>1.9</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J7" s="8">
         <v>29.01</v>
@@ -16800,12 +16493,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C8" s="8">
         <v>51.47</v>
@@ -16814,10 +16507,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J8" s="8">
         <v>81.39</v>
@@ -16826,12 +16519,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C9" s="8">
         <v>15.44</v>
@@ -16843,7 +16536,7 @@
         <v>3.24</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J9" s="8">
         <v>33.01</v>
@@ -16852,12 +16545,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1.1000000000000001</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C10" s="8">
         <v>26.95</v>
@@ -16866,10 +16559,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J10" s="8">
         <v>22.31</v>
@@ -16878,12 +16571,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2.7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C11" s="8">
         <v>22.88</v>
@@ -16892,10 +16585,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J11" s="8">
         <v>19.04</v>
@@ -16904,12 +16597,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1.6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C12" s="8">
         <v>118.56</v>
@@ -16918,10 +16611,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J12" s="8">
         <v>22.22</v>
@@ -16930,12 +16623,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1.1100000000000001</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C13" s="8">
         <v>23.55</v>
@@ -16944,10 +16637,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J13" s="8">
         <v>24.92</v>
@@ -16956,12 +16649,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>3.4</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C14" s="8">
         <v>36.450000000000003</v>
@@ -16970,10 +16663,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J14" s="8">
         <v>26.12</v>
@@ -16982,12 +16675,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2.9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C15" s="8">
         <v>40.65</v>
@@ -16996,10 +16689,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J15" s="8">
         <v>27.81</v>
@@ -17008,12 +16701,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2.2999999999999998</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C16" s="8">
         <v>4.7</v>
@@ -17022,10 +16715,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J16" s="8">
         <v>18.02</v>
@@ -17034,12 +16727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2.8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C17" s="8">
         <v>49.86</v>
@@ -17052,10 +16745,10 @@
         <v>17.394211501243738</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J17" s="8">
         <v>13.76</v>
@@ -17064,9 +16757,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C18" s="18">
         <f>AVERAGE(C2:C17)</f>
@@ -17076,14 +16769,14 @@
         <f>AVERAGE(D2:D17)</f>
         <v>11.0625</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>131</v>
+      <c r="E18" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J18" s="8">
         <v>24.39</v>
@@ -17092,9 +16785,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C19" s="18" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D19" s="18">
         <f>D18/C18</f>
@@ -17105,13 +16798,13 @@
         <v>26.732083678541841</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J19" s="8">
         <v>17.59</v>
@@ -17124,12 +16817,12 @@
         <v>42.623531436270802</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="I20" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J20" s="18">
         <f>AVERAGE(J2:J19)</f>
@@ -17141,9 +16834,9 @@
       </c>
       <c r="L20" s="18"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J21" s="18" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K21" s="18">
         <f>K20/J20</f>
@@ -17154,7 +16847,7 @@
         <v>105.48374184737821</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -17166,845 +16859,3403 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF385F7-8628-47E1-B533-514750CF8E73}">
-  <dimension ref="A1:E5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DFBCB3-DA36-4A8E-9FB2-D83DDA7FBB5E}">
+  <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="B5:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2">
+        <v>-0.51746999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.73275999999999997</v>
+      </c>
+      <c r="D2">
+        <v>4.8219999999999999E-2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3">
+        <v>-1.5374099999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.16187000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.0361100000000001</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4">
+        <v>-1.74638</v>
+      </c>
+      <c r="C4">
+        <v>-3.5450000000000002E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.41306999999999999</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5">
+        <v>-1.79924</v>
+      </c>
+      <c r="C5">
+        <v>-2.3900000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6">
+        <v>-1.3680300000000001</v>
+      </c>
+      <c r="C6">
+        <v>7.7310000000000004E-2</v>
+      </c>
+      <c r="D6">
+        <v>-1.2441</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7">
+        <v>-1.72275</v>
+      </c>
+      <c r="C7">
+        <v>-0.47632000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.11872000000000001</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8">
+        <v>-1.6417299999999999</v>
+      </c>
+      <c r="C8">
+        <v>-0.56091999999999997</v>
+      </c>
+      <c r="D8">
+        <v>-0.61290999999999995</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9">
+        <v>-1.6877899999999999</v>
+      </c>
+      <c r="C9">
+        <v>-1.0026299999999999</v>
+      </c>
+      <c r="D9">
+        <v>-1.17449</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10">
+        <v>-1.9120600000000001</v>
+      </c>
+      <c r="C10">
+        <v>-0.69388000000000005</v>
+      </c>
+      <c r="D10">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11">
+        <v>-0.94887999999999995</v>
+      </c>
+      <c r="C11">
+        <v>-0.97423000000000004</v>
+      </c>
+      <c r="D11">
+        <v>1.1052500000000001</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12">
+        <v>-0.78576999999999997</v>
+      </c>
+      <c r="C12">
+        <v>0.61246999999999996</v>
+      </c>
+      <c r="D12">
+        <v>0.32446999999999998</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13">
+        <v>-0.23333999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.76217000000000001</v>
+      </c>
+      <c r="D13">
+        <v>-0.13832</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14">
+        <v>0.27121000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.59482999999999997</v>
+      </c>
+      <c r="D14">
+        <v>0.28186</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15">
+        <v>0.96526000000000001</v>
+      </c>
+      <c r="C15">
+        <v>-0.28016999999999997</v>
+      </c>
+      <c r="D15">
+        <v>-0.13869000000000001</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16">
+        <v>3.8769999999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>-0.20455999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.11252</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17">
+        <v>-0.44097999999999998</v>
+      </c>
+      <c r="C17">
+        <v>-0.25237999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.17422000000000001</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18">
+        <v>1.883E-2</v>
+      </c>
+      <c r="C18">
+        <v>-0.22051000000000001</v>
+      </c>
+      <c r="D18">
+        <v>-5.3679999999999999E-2</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19">
+        <v>4.6240000000000003E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.21587999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.17299</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20">
+        <v>0.15876999999999999</v>
+      </c>
+      <c r="C20">
+        <v>-9.7280000000000005E-2</v>
+      </c>
+      <c r="D20">
+        <v>-0.26416000000000001</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21">
+        <v>0.16206999999999999</v>
+      </c>
+      <c r="C21">
+        <v>-0.25935999999999998</v>
+      </c>
+      <c r="D21">
+        <v>-0.35499999999999998</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22">
+        <v>0.24793999999999999</v>
+      </c>
+      <c r="C22">
+        <v>-0.49136999999999997</v>
+      </c>
+      <c r="D22">
+        <v>-0.63802999999999999</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23">
+        <v>0.23419000000000001</v>
+      </c>
+      <c r="C23">
+        <v>-0.27628000000000003</v>
+      </c>
+      <c r="D23">
+        <v>-0.58842000000000005</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24">
+        <v>0.1636</v>
+      </c>
+      <c r="C24">
+        <v>0.27937000000000001</v>
+      </c>
+      <c r="D24">
+        <v>-0.29222999999999999</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25">
+        <v>8.3809999999999996E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.48332999999999998</v>
+      </c>
+      <c r="D25">
+        <v>-0.20158999999999999</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26">
+        <v>-2.2280000000000001E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.68152999999999997</v>
+      </c>
+      <c r="D26">
+        <v>-0.1404</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27">
+        <v>-1.35422</v>
+      </c>
+      <c r="C27">
+        <v>0.11567</v>
+      </c>
+      <c r="D27">
+        <v>1.0032399999999999</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28">
+        <v>-0.13991000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.22228000000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.35793999999999998</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29">
+        <v>0.13005</v>
+      </c>
+      <c r="C29">
+        <v>-0.40021000000000001</v>
+      </c>
+      <c r="D29">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30">
+        <v>0.31279000000000001</v>
+      </c>
+      <c r="C30">
+        <v>-0.41898000000000002</v>
+      </c>
+      <c r="D30">
+        <v>-0.70091000000000003</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31">
+        <v>0.11909</v>
+      </c>
+      <c r="C31">
+        <v>-0.70223000000000002</v>
+      </c>
+      <c r="D31">
+        <v>-0.42305999999999999</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32">
+        <v>0.11497</v>
+      </c>
+      <c r="C32">
+        <v>-0.39698</v>
+      </c>
+      <c r="D32">
+        <v>-0.65295000000000003</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33">
+        <v>7.8310000000000005E-2</v>
+      </c>
+      <c r="C33">
+        <v>7.9570000000000002E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.17548</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34">
+        <v>0.17277000000000001</v>
+      </c>
+      <c r="C34">
+        <v>-1.25919</v>
+      </c>
+      <c r="D34">
+        <v>0.30218</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35">
+        <v>-7.8729999999999994E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.47116999999999998</v>
+      </c>
+      <c r="D35">
+        <v>0.51602000000000003</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36">
+        <v>8.8639999999999997E-2</v>
+      </c>
+      <c r="C36">
+        <v>-1.0751599999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.77515000000000001</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37">
+        <v>0.27049000000000001</v>
+      </c>
+      <c r="C37">
+        <v>-0.84345999999999999</v>
+      </c>
+      <c r="D37">
+        <v>-0.78259999999999996</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38">
+        <v>0.27759</v>
+      </c>
+      <c r="C38">
+        <v>-0.66934000000000005</v>
+      </c>
+      <c r="D38">
+        <v>-0.66364000000000001</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>258</v>
+      </c>
+      <c r="B39">
+        <v>0.38468000000000002</v>
+      </c>
+      <c r="C39">
+        <v>0.40307999999999999</v>
+      </c>
+      <c r="D39">
+        <v>-3.2899999999999999E-2</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40">
+        <v>0.40637000000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.19517999999999999</v>
+      </c>
+      <c r="D40">
+        <v>0.2165</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41">
+        <v>0.59775999999999996</v>
+      </c>
+      <c r="C41">
+        <v>-0.56335000000000002</v>
+      </c>
+      <c r="D41">
+        <v>-0.70172999999999996</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42">
+        <v>0.87648999999999999</v>
+      </c>
+      <c r="C42">
+        <v>7.7109999999999998E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.45016</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43">
+        <v>0.30081000000000002</v>
+      </c>
+      <c r="C43">
+        <v>-0.35360999999999998</v>
+      </c>
+      <c r="D43">
+        <v>-0.65600000000000003</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44">
+        <v>0.18653</v>
+      </c>
+      <c r="C44">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="D44">
+        <v>-0.32533000000000001</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>264</v>
+      </c>
+      <c r="B45">
+        <v>0.24637000000000001</v>
+      </c>
+      <c r="C45">
+        <v>-0.73067000000000004</v>
+      </c>
+      <c r="D45">
+        <v>0.56391999999999998</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>265</v>
+      </c>
+      <c r="B46">
+        <v>0.14254</v>
+      </c>
+      <c r="C46">
+        <v>-0.37324000000000002</v>
+      </c>
+      <c r="D46">
+        <v>3.653E-2</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>266</v>
+      </c>
+      <c r="B47">
+        <v>7.9219999999999999E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.94179000000000002</v>
+      </c>
+      <c r="D47">
+        <v>-1.1259999999999999E-2</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48">
+        <v>0.22581999999999999</v>
+      </c>
+      <c r="C48">
+        <v>0.85816999999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.35704000000000002</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49">
+        <v>-0.31008000000000002</v>
+      </c>
+      <c r="C49">
+        <v>1.9377599999999999</v>
+      </c>
+      <c r="D49">
+        <v>-0.21379000000000001</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50">
+        <v>-0.41521999999999998</v>
+      </c>
+      <c r="C50">
+        <v>-0.27783000000000002</v>
+      </c>
+      <c r="D50">
+        <v>-1.77E-2</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51">
+        <v>-0.12286</v>
+      </c>
+      <c r="C51">
+        <v>0.64761000000000002</v>
+      </c>
+      <c r="D51">
+        <v>-8.8029999999999997E-2</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52">
+        <v>-0.17893000000000001</v>
+      </c>
+      <c r="C52">
+        <v>0.88058999999999998</v>
+      </c>
+      <c r="D52">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>272</v>
+      </c>
+      <c r="B53">
+        <v>-0.12257999999999999</v>
+      </c>
+      <c r="C53">
+        <v>0.18306</v>
+      </c>
+      <c r="D53">
+        <v>-0.22314999999999999</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54">
+        <v>-2.086E-2</v>
+      </c>
+      <c r="C54">
+        <v>-3.7909999999999999E-2</v>
+      </c>
+      <c r="D54">
+        <v>-0.42592999999999998</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55">
+        <v>0.20610000000000001</v>
+      </c>
+      <c r="C55">
+        <v>-0.72248999999999997</v>
+      </c>
+      <c r="D55">
+        <v>-0.85768</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>275</v>
+      </c>
+      <c r="B56">
+        <v>0.42392000000000002</v>
+      </c>
+      <c r="C56">
+        <v>-0.12071</v>
+      </c>
+      <c r="D56">
+        <v>0.11239</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>276</v>
+      </c>
+      <c r="B57">
+        <v>0.46561000000000002</v>
+      </c>
+      <c r="C57">
+        <v>-0.53571999999999997</v>
+      </c>
+      <c r="D57">
+        <v>0.15737000000000001</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58">
+        <v>0.29614000000000001</v>
+      </c>
+      <c r="C58">
+        <v>-1.1435999999999999</v>
+      </c>
+      <c r="D58">
+        <v>0.15975</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59">
+        <v>0.24784</v>
+      </c>
+      <c r="C59">
+        <v>0.14699000000000001</v>
+      </c>
+      <c r="D59">
+        <v>-0.27696999999999999</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>279</v>
+      </c>
+      <c r="B60">
+        <v>0.86717</v>
+      </c>
+      <c r="C60">
+        <v>-0.15670000000000001</v>
+      </c>
+      <c r="D60">
+        <v>-0.12044000000000001</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61">
+        <v>0.40366999999999997</v>
+      </c>
+      <c r="C61">
+        <v>-7.7770000000000006E-2</v>
+      </c>
+      <c r="D61">
+        <v>0.24004</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62">
+        <v>0.25417000000000001</v>
+      </c>
+      <c r="C62">
+        <v>-1.2936700000000001</v>
+      </c>
+      <c r="D62">
+        <v>0.47365000000000002</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>282</v>
+      </c>
+      <c r="B63">
+        <v>0.33268999999999999</v>
+      </c>
+      <c r="C63">
+        <v>-0.70148999999999995</v>
+      </c>
+      <c r="D63">
+        <v>-0.54893000000000003</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>283</v>
+      </c>
+      <c r="B64">
+        <v>0.12432</v>
+      </c>
+      <c r="C64">
+        <v>0.34694000000000003</v>
+      </c>
+      <c r="D64">
+        <v>-0.24007000000000001</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>284</v>
+      </c>
+      <c r="B65">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="C65">
+        <v>-0.18928</v>
+      </c>
+      <c r="D65">
+        <v>6.2880000000000005E-2</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>285</v>
+      </c>
+      <c r="B66">
+        <v>0.46939999999999998</v>
+      </c>
+      <c r="C66">
+        <v>0.44056000000000001</v>
+      </c>
+      <c r="D66">
+        <v>3.8030000000000001E-2</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>286</v>
+      </c>
+      <c r="B67">
+        <v>0.26138</v>
+      </c>
+      <c r="C67">
+        <v>-0.36934</v>
+      </c>
+      <c r="D67">
+        <v>0.67613000000000001</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>287</v>
+      </c>
+      <c r="B68">
+        <v>0.22713</v>
+      </c>
+      <c r="C68">
+        <v>-0.81259000000000003</v>
+      </c>
+      <c r="D68">
+        <v>0.63746999999999998</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69">
+        <v>0.14266999999999999</v>
+      </c>
+      <c r="C69">
+        <v>0.62592999999999999</v>
+      </c>
+      <c r="D69">
+        <v>-9.7040000000000001E-2</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70">
+        <v>0.38168000000000002</v>
+      </c>
+      <c r="C70">
+        <v>8.0659999999999996E-2</v>
+      </c>
+      <c r="D70">
+        <v>-0.31114999999999998</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71">
+        <v>0.17538000000000001</v>
+      </c>
+      <c r="C71">
+        <v>0.53303999999999996</v>
+      </c>
+      <c r="D71">
+        <v>-4.3339999999999997E-2</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72">
+        <v>0.84652000000000005</v>
+      </c>
+      <c r="C72">
+        <v>0.32706000000000002</v>
+      </c>
+      <c r="D72">
+        <v>0.17362</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73">
+        <v>-6.089E-2</v>
+      </c>
+      <c r="C73">
+        <v>0.62156999999999996</v>
+      </c>
+      <c r="D73">
+        <v>0.12164999999999999</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>293</v>
+      </c>
+      <c r="B74">
+        <v>0.24542</v>
+      </c>
+      <c r="C74">
+        <v>-3.363E-2</v>
+      </c>
+      <c r="D74">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75">
+        <v>0.19916</v>
+      </c>
+      <c r="C75">
+        <v>0.20061000000000001</v>
+      </c>
+      <c r="D75">
+        <v>-0.34993000000000002</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>295</v>
+      </c>
+      <c r="B76">
+        <v>0.26854</v>
+      </c>
+      <c r="C76">
+        <v>-6.9489999999999996E-2</v>
+      </c>
+      <c r="D76">
+        <v>-0.52119000000000004</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>296</v>
+      </c>
+      <c r="B77">
+        <v>0.10339</v>
+      </c>
+      <c r="C77">
+        <v>-0.27725</v>
+      </c>
+      <c r="D77">
+        <v>0.25507999999999997</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78">
+        <v>0.20971000000000001</v>
+      </c>
+      <c r="C78">
+        <v>5.0619999999999998E-2</v>
+      </c>
+      <c r="D78">
+        <v>-0.11094</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>298</v>
+      </c>
+      <c r="B79">
+        <v>0.90378000000000003</v>
+      </c>
+      <c r="C79">
+        <v>-1.61771</v>
+      </c>
+      <c r="D79">
+        <v>0.27798</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>299</v>
+      </c>
+      <c r="B80">
+        <v>-0.11409999999999999</v>
+      </c>
+      <c r="C80">
+        <v>-1.3256399999999999</v>
+      </c>
+      <c r="D80">
+        <v>0.99902999999999997</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>300</v>
+      </c>
+      <c r="B81">
+        <v>0.22664000000000001</v>
+      </c>
+      <c r="C81">
+        <v>-0.71492999999999995</v>
+      </c>
+      <c r="D81">
+        <v>-0.84236</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>301</v>
+      </c>
+      <c r="B82">
+        <v>0.48705999999999999</v>
+      </c>
+      <c r="C82">
+        <v>-3.7280000000000001E-2</v>
+      </c>
+      <c r="D82">
+        <v>-6.1260000000000002E-2</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>302</v>
+      </c>
+      <c r="B83">
+        <v>0.30686000000000002</v>
+      </c>
+      <c r="C83">
+        <v>-0.42579</v>
+      </c>
+      <c r="D83">
+        <v>-0.45047999999999999</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>303</v>
+      </c>
+      <c r="B84">
+        <v>0.33008999999999999</v>
+      </c>
+      <c r="C84">
+        <v>-0.53724000000000005</v>
+      </c>
+      <c r="D84">
+        <v>-0.65132000000000001</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>304</v>
+      </c>
+      <c r="B85">
+        <v>0.22302</v>
+      </c>
+      <c r="C85">
+        <v>-0.50068000000000001</v>
+      </c>
+      <c r="D85">
+        <v>-0.58291999999999999</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>305</v>
+      </c>
+      <c r="B86">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="C86">
+        <v>-1.3185100000000001</v>
+      </c>
+      <c r="D86">
+        <v>0.96343000000000001</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>306</v>
+      </c>
+      <c r="B87">
+        <v>0.18271999999999999</v>
+      </c>
+      <c r="C87">
+        <v>0.11948</v>
+      </c>
+      <c r="D87">
+        <v>-2.257E-2</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>307</v>
+      </c>
+      <c r="B88">
+        <v>0.59609999999999996</v>
+      </c>
+      <c r="C88">
+        <v>-0.11547</v>
+      </c>
+      <c r="D88">
+        <v>-0.31888</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>308</v>
+      </c>
+      <c r="B89">
+        <v>0.65971999999999997</v>
+      </c>
+      <c r="C89">
+        <v>-0.69816999999999996</v>
+      </c>
+      <c r="D89">
+        <v>-0.80806999999999995</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>309</v>
+      </c>
+      <c r="B90">
+        <v>1.24271</v>
+      </c>
+      <c r="C90">
+        <v>-0.14832000000000001</v>
+      </c>
+      <c r="D90">
+        <v>7.6550000000000007E-2</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>310</v>
+      </c>
+      <c r="B91">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="C91">
+        <v>-1.9550000000000001E-2</v>
+      </c>
+      <c r="D91">
+        <v>-0.23895</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>311</v>
+      </c>
+      <c r="B92">
+        <v>0.37257000000000001</v>
+      </c>
+      <c r="C92">
+        <v>-0.70157999999999998</v>
+      </c>
+      <c r="D92">
+        <v>-0.82282</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>312</v>
+      </c>
+      <c r="B93">
+        <v>0.27152999999999999</v>
+      </c>
+      <c r="C93">
+        <v>-0.12119000000000001</v>
+      </c>
+      <c r="D93">
+        <v>-0.24585000000000001</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>313</v>
+      </c>
+      <c r="B94">
+        <v>-3.0329999999999999E-2</v>
+      </c>
+      <c r="C94">
+        <v>-0.2235</v>
+      </c>
+      <c r="D94">
+        <v>-8.5750000000000007E-2</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>314</v>
+      </c>
+      <c r="B95">
+        <v>0.50172000000000005</v>
+      </c>
+      <c r="C95">
+        <v>-0.67878000000000005</v>
+      </c>
+      <c r="D95">
+        <v>-0.73326999999999998</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>315</v>
+      </c>
+      <c r="B96">
+        <v>0.74324999999999997</v>
+      </c>
+      <c r="C96">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="D96">
+        <v>-7.3800000000000004E-2</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>316</v>
+      </c>
+      <c r="B97">
+        <v>0.41743999999999998</v>
+      </c>
+      <c r="C97">
+        <v>-0.34588000000000002</v>
+      </c>
+      <c r="D97">
+        <v>-0.32652999999999999</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>317</v>
+      </c>
+      <c r="B98">
+        <v>0.39226</v>
+      </c>
+      <c r="C98">
+        <v>-6.3089999999999993E-2</v>
+      </c>
+      <c r="D98">
+        <v>-0.45952999999999999</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>318</v>
+      </c>
+      <c r="B99">
+        <v>6.4140000000000003E-2</v>
+      </c>
+      <c r="C99">
+        <v>0.49397999999999997</v>
+      </c>
+      <c r="D99">
+        <v>-0.16853000000000001</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>319</v>
+      </c>
+      <c r="B100">
+        <v>0.29820999999999998</v>
+      </c>
+      <c r="C100">
+        <v>-0.13305</v>
+      </c>
+      <c r="D100">
+        <v>-0.54971000000000003</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101">
+        <v>-1.27481</v>
+      </c>
+      <c r="C101">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="D101">
+        <v>0.40839999999999999</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102">
+        <v>-1.6776899999999999</v>
+      </c>
+      <c r="C102">
+        <v>0.31646000000000002</v>
+      </c>
+      <c r="D102">
+        <v>-0.70572999999999997</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103">
+        <v>-1.7973300000000001</v>
+      </c>
+      <c r="C103">
+        <v>-0.43629000000000001</v>
+      </c>
+      <c r="D103">
+        <v>0.32684000000000002</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104">
+        <v>-1.6781999999999999</v>
+      </c>
+      <c r="C104">
+        <v>0.31741999999999998</v>
+      </c>
+      <c r="D104">
+        <v>-0.70411000000000001</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105">
+        <v>-1.1933400000000001</v>
+      </c>
+      <c r="C105">
+        <v>-0.33123000000000002</v>
+      </c>
+      <c r="D105">
+        <v>0.30145</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B106">
+        <v>-1.46689</v>
+      </c>
+      <c r="C106">
+        <v>-0.32615</v>
+      </c>
+      <c r="D106">
+        <v>-0.19747999999999999</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="19">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="C3" s="19">
-        <v>-0.27034000000000002</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0.90171000000000001</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0.45934999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B107">
+        <v>-1.5587899999999999</v>
+      </c>
+      <c r="C107">
+        <v>-0.47993000000000002</v>
+      </c>
+      <c r="D107">
+        <v>-1.01451</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="1">
-        <v>16.324000000000002</v>
-      </c>
-      <c r="C4" s="1">
-        <v>30.59</v>
-      </c>
-      <c r="D4" s="1">
-        <v>18.832000000000001</v>
-      </c>
-      <c r="E4" s="1">
-        <v>30.55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B108">
+        <v>-1.62497</v>
+      </c>
+      <c r="C108">
+        <v>-0.50231000000000003</v>
+      </c>
+      <c r="D108">
+        <v>-0.28220000000000001</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="20">
-        <v>0.5998</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0.78869999999999996</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0.37580000000000002</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0.6492</v>
-      </c>
+      <c r="B109">
+        <v>-1.71587</v>
+      </c>
+      <c r="C109">
+        <v>-0.25224999999999997</v>
+      </c>
+      <c r="D109">
+        <v>-9.5339999999999994E-2</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110">
+        <v>-1.6204499999999999</v>
+      </c>
+      <c r="C110">
+        <v>-0.65825999999999996</v>
+      </c>
+      <c r="D110">
+        <v>-0.28370000000000001</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111">
+        <v>-1.6964600000000001</v>
+      </c>
+      <c r="C111">
+        <v>0.29560999999999998</v>
+      </c>
+      <c r="D111">
+        <v>-0.66469</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112">
+        <v>-1.49787</v>
+      </c>
+      <c r="C112">
+        <v>-1.18E-2</v>
+      </c>
+      <c r="D112">
+        <v>0.92642999999999998</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113">
+        <v>-0.20762</v>
+      </c>
+      <c r="C113">
+        <v>1.0235300000000001</v>
+      </c>
+      <c r="D113">
+        <v>1.278E-2</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114">
+        <v>-0.15029999999999999</v>
+      </c>
+      <c r="C114">
+        <v>0.94504999999999995</v>
+      </c>
+      <c r="D114">
+        <v>-0.12186</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="C115">
+        <v>0.82064000000000004</v>
+      </c>
+      <c r="D115">
+        <v>0.23927000000000001</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116">
+        <v>0.10259</v>
+      </c>
+      <c r="C116">
+        <v>0.79696</v>
+      </c>
+      <c r="D116">
+        <v>1.06999</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117">
+        <v>-0.22453999999999999</v>
+      </c>
+      <c r="C117">
+        <v>0.55127000000000004</v>
+      </c>
+      <c r="D117">
+        <v>1.6806700000000001</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118">
+        <v>-0.17444999999999999</v>
+      </c>
+      <c r="C118">
+        <v>1.1047800000000001</v>
+      </c>
+      <c r="D118">
+        <v>0.53061000000000003</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119">
+        <v>0.13077</v>
+      </c>
+      <c r="C119">
+        <v>0.21342</v>
+      </c>
+      <c r="D119">
+        <v>-0.22749</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120">
+        <v>8.2070000000000004E-2</v>
+      </c>
+      <c r="C120">
+        <v>0.12934000000000001</v>
+      </c>
+      <c r="D120">
+        <v>-0.1573</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="C121">
+        <v>-0.60526999999999997</v>
+      </c>
+      <c r="D121">
+        <v>-0.73599000000000003</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122">
+        <v>-0.14185</v>
+      </c>
+      <c r="C122">
+        <v>-3.5680000000000003E-2</v>
+      </c>
+      <c r="D122">
+        <v>1.37029</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123">
+        <v>0.73407999999999995</v>
+      </c>
+      <c r="C123">
+        <v>0.20652000000000001</v>
+      </c>
+      <c r="D123">
+        <v>-1.5350000000000001E-2</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124">
+        <v>0.23605999999999999</v>
+      </c>
+      <c r="C124">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="D124">
+        <v>-0.47322999999999998</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125">
+        <v>-0.9052</v>
+      </c>
+      <c r="C125">
+        <v>-1.197E-2</v>
+      </c>
+      <c r="D125">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126">
+        <v>-0.19134000000000001</v>
+      </c>
+      <c r="C126">
+        <v>0.54734000000000005</v>
+      </c>
+      <c r="D126">
+        <v>3.0120000000000001E-2</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127">
+        <v>-0.35041</v>
+      </c>
+      <c r="C127">
+        <v>0.58945999999999998</v>
+      </c>
+      <c r="D127">
+        <v>0.53961000000000003</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128">
+        <v>5.2700000000000004E-3</v>
+      </c>
+      <c r="C128">
+        <v>-0.45745999999999998</v>
+      </c>
+      <c r="D128">
+        <v>0.28153</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129">
+        <v>0.15884000000000001</v>
+      </c>
+      <c r="C129">
+        <v>0.34427000000000002</v>
+      </c>
+      <c r="D129">
+        <v>-0.28316000000000002</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>151</v>
+      </c>
+      <c r="B130">
+        <v>0.22302</v>
+      </c>
+      <c r="C130">
+        <v>-0.97684000000000004</v>
+      </c>
+      <c r="D130">
+        <v>0.92427000000000004</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>152</v>
+      </c>
+      <c r="B131">
+        <v>0.38730999999999999</v>
+      </c>
+      <c r="C131">
+        <v>-0.24052999999999999</v>
+      </c>
+      <c r="D131">
+        <v>-0.1041</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>153</v>
+      </c>
+      <c r="B132">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="C132">
+        <v>0.30177999999999999</v>
+      </c>
+      <c r="D132">
+        <v>0.20211999999999999</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>154</v>
+      </c>
+      <c r="B133">
+        <v>0.20718</v>
+      </c>
+      <c r="C133">
+        <v>0.12399</v>
+      </c>
+      <c r="D133">
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134">
+        <v>-8.4849999999999995E-2</v>
+      </c>
+      <c r="C134">
+        <v>0.16574</v>
+      </c>
+      <c r="D134">
+        <v>0.69252000000000002</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135">
+        <v>0.57962000000000002</v>
+      </c>
+      <c r="C135">
+        <v>-5.142E-2</v>
+      </c>
+      <c r="D135">
+        <v>1.39978</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136">
+        <v>0.26543</v>
+      </c>
+      <c r="C136">
+        <v>-0.98087999999999997</v>
+      </c>
+      <c r="D136">
+        <v>-0.18468999999999999</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137">
+        <v>0.20441999999999999</v>
+      </c>
+      <c r="C137">
+        <v>-9.3460000000000001E-2</v>
+      </c>
+      <c r="D137">
+        <v>-0.53673000000000004</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138">
+        <v>0.32325999999999999</v>
+      </c>
+      <c r="C138">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="D138">
+        <v>-0.21940999999999999</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139">
+        <v>-0.18490999999999999</v>
+      </c>
+      <c r="C139">
+        <v>0.85001000000000004</v>
+      </c>
+      <c r="D139">
+        <v>0.17152999999999999</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140">
+        <v>-0.62378999999999996</v>
+      </c>
+      <c r="C140">
+        <v>-9.9879999999999997E-2</v>
+      </c>
+      <c r="D140">
+        <v>-0.19067999999999999</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141">
+        <v>-2.9790000000000001E-2</v>
+      </c>
+      <c r="C141">
+        <v>-1.1530800000000001</v>
+      </c>
+      <c r="D141">
+        <v>1.0469900000000001</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142">
+        <v>0.23956</v>
+      </c>
+      <c r="C142">
+        <v>0.31108999999999998</v>
+      </c>
+      <c r="D142">
+        <v>-0.24424999999999999</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>164</v>
+      </c>
+      <c r="B143">
+        <v>4.6030000000000001E-2</v>
+      </c>
+      <c r="C143">
+        <v>0.18079999999999999</v>
+      </c>
+      <c r="D143">
+        <v>0.40434999999999999</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144">
+        <v>-8.0850000000000005E-2</v>
+      </c>
+      <c r="C144">
+        <v>0.68017000000000005</v>
+      </c>
+      <c r="D144">
+        <v>-0.10995000000000001</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145">
+        <v>-6.2549999999999994E-2</v>
+      </c>
+      <c r="C145">
+        <v>0.14276</v>
+      </c>
+      <c r="D145">
+        <v>1.661E-2</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146">
+        <v>-0.21143000000000001</v>
+      </c>
+      <c r="C146">
+        <v>0.73614999999999997</v>
+      </c>
+      <c r="D146">
+        <v>5.3460000000000001E-2</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>168</v>
+      </c>
+      <c r="B147">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="C147">
+        <v>1.0105</v>
+      </c>
+      <c r="D147">
+        <v>-5.7599999999999998E-2</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148">
+        <v>0.18656</v>
+      </c>
+      <c r="C148">
+        <v>1.02373</v>
+      </c>
+      <c r="D148">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>170</v>
+      </c>
+      <c r="B149">
+        <v>-0.15232999999999999</v>
+      </c>
+      <c r="C149">
+        <v>0.98936000000000002</v>
+      </c>
+      <c r="D149">
+        <v>-0.14002000000000001</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>171</v>
+      </c>
+      <c r="B150">
+        <v>-0.15745999999999999</v>
+      </c>
+      <c r="C150">
+        <v>0.90122999999999998</v>
+      </c>
+      <c r="D150">
+        <v>-9.4560000000000005E-2</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>172</v>
+      </c>
+      <c r="B151">
+        <v>-0.23685999999999999</v>
+      </c>
+      <c r="C151">
+        <v>0.71116000000000001</v>
+      </c>
+      <c r="D151">
+        <v>3.4299999999999999E-3</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>173</v>
+      </c>
+      <c r="B152">
+        <v>-0.63338000000000005</v>
+      </c>
+      <c r="C152">
+        <v>0.55859000000000003</v>
+      </c>
+      <c r="D152">
+        <v>0.23433999999999999</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>174</v>
+      </c>
+      <c r="B153">
+        <v>-0.15515000000000001</v>
+      </c>
+      <c r="C153">
+        <v>0.75895999999999997</v>
+      </c>
+      <c r="D153">
+        <v>-4.0280000000000003E-2</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>175</v>
+      </c>
+      <c r="B154">
+        <v>-0.16053000000000001</v>
+      </c>
+      <c r="C154">
+        <v>0.37024000000000001</v>
+      </c>
+      <c r="D154">
+        <v>-0.13105</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>176</v>
+      </c>
+      <c r="B155">
+        <v>0.36305999999999999</v>
+      </c>
+      <c r="C155">
+        <v>0.25467000000000001</v>
+      </c>
+      <c r="D155">
+        <v>-0.20429</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>177</v>
+      </c>
+      <c r="B156">
+        <v>0.45551999999999998</v>
+      </c>
+      <c r="C156">
+        <v>-0.12465</v>
+      </c>
+      <c r="D156">
+        <v>-0.38784000000000002</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>178</v>
+      </c>
+      <c r="B157">
+        <v>0.19811999999999999</v>
+      </c>
+      <c r="C157">
+        <v>-0.41358</v>
+      </c>
+      <c r="D157">
+        <v>-0.11439000000000001</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>179</v>
+      </c>
+      <c r="B158">
+        <v>0.39896999999999999</v>
+      </c>
+      <c r="C158">
+        <v>0.73755999999999999</v>
+      </c>
+      <c r="D158">
+        <v>0.17208000000000001</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159">
+        <v>5.5010000000000003E-2</v>
+      </c>
+      <c r="C159">
+        <v>0.40028000000000002</v>
+      </c>
+      <c r="D159">
+        <v>0.13608000000000001</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>181</v>
+      </c>
+      <c r="B160">
+        <v>0.17093</v>
+      </c>
+      <c r="C160">
+        <v>0.20279</v>
+      </c>
+      <c r="D160">
+        <v>-0.16284000000000001</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>182</v>
+      </c>
+      <c r="B161">
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="C161">
+        <v>0.11957</v>
+      </c>
+      <c r="D161">
+        <v>0.20868</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>183</v>
+      </c>
+      <c r="B162">
+        <v>0.28743000000000002</v>
+      </c>
+      <c r="C162">
+        <v>-0.23097000000000001</v>
+      </c>
+      <c r="D162">
+        <v>-3.134E-2</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>184</v>
+      </c>
+      <c r="B163">
+        <v>0.11481</v>
+      </c>
+      <c r="C163">
+        <v>0.44597999999999999</v>
+      </c>
+      <c r="D163">
+        <v>-0.23132</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>185</v>
+      </c>
+      <c r="B164">
+        <v>0.14449000000000001</v>
+      </c>
+      <c r="C164">
+        <v>-1.2618199999999999</v>
+      </c>
+      <c r="D164">
+        <v>0.63878999999999997</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>186</v>
+      </c>
+      <c r="B165">
+        <v>0.63368000000000002</v>
+      </c>
+      <c r="C165">
+        <v>-0.49013000000000001</v>
+      </c>
+      <c r="D165">
+        <v>0.80230000000000001</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>187</v>
+      </c>
+      <c r="B166">
+        <v>0.34166999999999997</v>
+      </c>
+      <c r="C166">
+        <v>-0.84469000000000005</v>
+      </c>
+      <c r="D166">
+        <v>0.85402999999999996</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>188</v>
+      </c>
+      <c r="B167">
+        <v>0.24329999999999999</v>
+      </c>
+      <c r="C167">
+        <v>-1.1843399999999999</v>
+      </c>
+      <c r="D167">
+        <v>0.54368000000000005</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>189</v>
+      </c>
+      <c r="B168">
+        <v>1.07267</v>
+      </c>
+      <c r="C168">
+        <v>0.39223999999999998</v>
+      </c>
+      <c r="D168">
+        <v>0.44964999999999999</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>190</v>
+      </c>
+      <c r="B169">
+        <v>1.4049</v>
+      </c>
+      <c r="C169">
+        <v>0.47160999999999997</v>
+      </c>
+      <c r="D169">
+        <v>0.68938999999999995</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>191</v>
+      </c>
+      <c r="B170">
+        <v>0.79391</v>
+      </c>
+      <c r="C170">
+        <v>0.65188000000000001</v>
+      </c>
+      <c r="D170">
+        <v>0.42438999999999999</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>192</v>
+      </c>
+      <c r="B171">
+        <v>4.6100000000000004E-3</v>
+      </c>
+      <c r="C171">
+        <v>-0.85850000000000004</v>
+      </c>
+      <c r="D171">
+        <v>0.89698</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>193</v>
+      </c>
+      <c r="B172">
+        <v>2.6450000000000001E-2</v>
+      </c>
+      <c r="C172">
+        <v>0.50390999999999997</v>
+      </c>
+      <c r="D172">
+        <v>0.27876000000000001</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>194</v>
+      </c>
+      <c r="B173">
+        <v>0.25322</v>
+      </c>
+      <c r="C173">
+        <v>0.90605000000000002</v>
+      </c>
+      <c r="D173">
+        <v>0.1024</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>195</v>
+      </c>
+      <c r="B174">
+        <v>0.21892</v>
+      </c>
+      <c r="C174">
+        <v>0.14939</v>
+      </c>
+      <c r="D174">
+        <v>-0.28477999999999998</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>196</v>
+      </c>
+      <c r="B175">
+        <v>0.31730999999999998</v>
+      </c>
+      <c r="C175">
+        <v>0.3019</v>
+      </c>
+      <c r="D175">
+        <v>-9.7549999999999998E-2</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>197</v>
+      </c>
+      <c r="B176">
+        <v>-1.5100000000000001E-2</v>
+      </c>
+      <c r="C176">
+        <v>0.73097000000000001</v>
+      </c>
+      <c r="D176">
+        <v>-0.13902999999999999</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>198</v>
+      </c>
+      <c r="B177">
+        <v>-8.6639999999999995E-2</v>
+      </c>
+      <c r="C177">
+        <v>0.83543000000000001</v>
+      </c>
+      <c r="D177">
+        <v>-0.11162</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>199</v>
+      </c>
+      <c r="B178">
+        <v>0.14074</v>
+      </c>
+      <c r="C178">
+        <v>0.73897999999999997</v>
+      </c>
+      <c r="D178">
+        <v>-1.917E-2</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179">
+        <v>9.2770000000000005E-2</v>
+      </c>
+      <c r="C179">
+        <v>-0.53703000000000001</v>
+      </c>
+      <c r="D179">
+        <v>0.65571000000000002</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>201</v>
+      </c>
+      <c r="B180">
+        <v>0.21986</v>
+      </c>
+      <c r="C180">
+        <v>-0.12304</v>
+      </c>
+      <c r="D180">
+        <v>4.0090000000000001E-2</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>202</v>
+      </c>
+      <c r="B181">
+        <v>0.64300999999999997</v>
+      </c>
+      <c r="C181">
+        <v>0.55659000000000003</v>
+      </c>
+      <c r="D181">
+        <v>0.28194999999999998</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>203</v>
+      </c>
+      <c r="B182">
+        <v>0.17832000000000001</v>
+      </c>
+      <c r="C182">
+        <v>0.27901999999999999</v>
+      </c>
+      <c r="D182">
+        <v>-0.15590000000000001</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>204</v>
+      </c>
+      <c r="B183">
+        <v>0.25039</v>
+      </c>
+      <c r="C183">
+        <v>-5.1479999999999998E-2</v>
+      </c>
+      <c r="D183">
+        <v>-0.51492000000000004</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>205</v>
+      </c>
+      <c r="B184">
+        <v>0.40644000000000002</v>
+      </c>
+      <c r="C184">
+        <v>0.43963999999999998</v>
+      </c>
+      <c r="D184">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>206</v>
+      </c>
+      <c r="B185">
+        <v>0.28321000000000002</v>
+      </c>
+      <c r="C185">
+        <v>-0.46718999999999999</v>
+      </c>
+      <c r="D185">
+        <v>0.96226999999999996</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>207</v>
+      </c>
+      <c r="B186">
+        <v>-0.33151999999999998</v>
+      </c>
+      <c r="C186">
+        <v>0.65707000000000004</v>
+      </c>
+      <c r="D186">
+        <v>-0.15795000000000001</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>208</v>
+      </c>
+      <c r="B187">
+        <v>0.97035000000000005</v>
+      </c>
+      <c r="C187">
+        <v>8.7299999999999999E-3</v>
+      </c>
+      <c r="D187">
+        <v>-2.1749999999999999E-2</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>209</v>
+      </c>
+      <c r="B188">
+        <v>0.44934000000000002</v>
+      </c>
+      <c r="C188">
+        <v>-0.41056999999999999</v>
+      </c>
+      <c r="D188">
+        <v>-0.61182999999999998</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>210</v>
+      </c>
+      <c r="B189">
+        <v>0.88619000000000003</v>
+      </c>
+      <c r="C189">
+        <v>0.15536</v>
+      </c>
+      <c r="D189">
+        <v>-3.0689999999999999E-2</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>211</v>
+      </c>
+      <c r="B190">
+        <v>0.33199000000000001</v>
+      </c>
+      <c r="C190">
+        <v>0.49018</v>
+      </c>
+      <c r="D190">
+        <v>8.6059999999999998E-2</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>212</v>
+      </c>
+      <c r="B191">
+        <v>0.15434</v>
+      </c>
+      <c r="C191">
+        <v>0.56777999999999995</v>
+      </c>
+      <c r="D191">
+        <v>-9.8739999999999994E-2</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>213</v>
+      </c>
+      <c r="B192">
+        <v>0.52392000000000005</v>
+      </c>
+      <c r="C192">
+        <v>3.9899999999999996E-3</v>
+      </c>
+      <c r="D192">
+        <v>-0.16353000000000001</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>214</v>
+      </c>
+      <c r="B193">
+        <v>9.9860000000000004E-2</v>
+      </c>
+      <c r="C193">
+        <v>0.34190999999999999</v>
+      </c>
+      <c r="D193">
+        <v>-0.17676</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>215</v>
+      </c>
+      <c r="B194">
+        <v>0.58445999999999998</v>
+      </c>
+      <c r="C194">
+        <v>0.24424000000000001</v>
+      </c>
+      <c r="D194">
+        <v>6.2280000000000002E-2</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>216</v>
+      </c>
+      <c r="B195">
+        <v>0.41197</v>
+      </c>
+      <c r="C195">
+        <v>0.11551</v>
+      </c>
+      <c r="D195">
+        <v>-0.44430999999999998</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>217</v>
+      </c>
+      <c r="B196">
+        <v>0.37048999999999999</v>
+      </c>
+      <c r="C196">
+        <v>-0.80301</v>
+      </c>
+      <c r="D196">
+        <v>9.7220000000000001E-2</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>218</v>
+      </c>
+      <c r="B197">
+        <v>0.34688000000000002</v>
+      </c>
+      <c r="C197">
+        <v>-0.10623</v>
+      </c>
+      <c r="D197">
+        <v>-0.51531000000000005</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>219</v>
+      </c>
+      <c r="B198">
+        <v>-5.6390000000000003E-2</v>
+      </c>
+      <c r="C198">
+        <v>0.55427000000000004</v>
+      </c>
+      <c r="D198">
+        <v>-4.9279999999999997E-2</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>220</v>
+      </c>
+      <c r="B199">
+        <v>0.29809999999999998</v>
+      </c>
+      <c r="C199">
+        <v>-0.73711000000000004</v>
+      </c>
+      <c r="D199">
+        <v>-0.90786</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E200" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5379496-B6C4-421B-9D7D-11C06426F583}">
-  <dimension ref="A1:L31"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2.16</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="3">
-        <v>12</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4.24</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>13</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="3">
-        <v>14</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="3">
-        <v>15</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>16</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.22</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>17</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3">
-        <v>18</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>24</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4.18</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="3">
-        <v>19</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>8</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="3">
-        <v>20</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2.14</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>21</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E23" s="3">
-        <v>22</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>12</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3.23</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E24" s="3">
-        <v>23</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>30</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3">
-        <v>24</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>18</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4.17</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>25</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>16</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="3">
-        <v>4.13</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>26</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E28" s="3">
-        <v>27</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>17</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="3">
-        <v>4.16</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>28</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3">
-        <v>29</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E31" s="3">
-        <v>30</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E31">
-    <sortCondition ref="E2:E31"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>